--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2618,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3684,106 +3684,56 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:11" s="50" customFormat="1"/>
+    <row r="78" spans="1:11" s="50" customFormat="1"/>
+    <row r="79" spans="1:11" s="50" customFormat="1"/>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="C78" s="3" t="str">
+    <row r="81" spans="2:11">
+      <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="D78" s="3" t="str">
+      <c r="D81" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="E78" s="3" t="str">
+      <c r="E81" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F81" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="G78" s="3" t="str">
+      <c r="G81" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="H78" s="3" t="str">
+      <c r="H81" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
       </c>
-      <c r="I78" s="3" t="str">
+      <c r="I81" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
       </c>
-      <c r="J78" s="3" t="str">
+      <c r="J81" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
       </c>
-      <c r="K78" s="3" t="str">
+      <c r="K81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="B79" s="3" t="str">
+    <row r="82" spans="2:11">
+      <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4">
-        <v>12</v>
-      </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="B80" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4">
-        <v>15</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4">
-        <v>15</v>
-      </c>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3791,29 +3741,37 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="4">
+        <v>12</v>
+      </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="K82" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="H83" s="4">
+        <v>15</v>
+      </c>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="4">
+        <v>15</v>
+      </c>
       <c r="K83" s="4"/>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3827,8 +3785,8 @@
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3840,10 +3798,10 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11" s="50" customFormat="1">
+    <row r="86" spans="2:11">
       <c r="B86" s="3" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3855,10 +3813,10 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11" s="50" customFormat="1">
+    <row r="87" spans="2:11">
       <c r="B87" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3869,6 +3827,51 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="2:11" s="50" customFormat="1">
+      <c r="B89" s="3" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="2:11" s="50" customFormat="1">
+      <c r="B90" s="3" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -112,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -435,15 +430,6 @@
     <t>Suppressive ART</t>
   </si>
   <si>
-    <t>Probability of viral suppression on ART</t>
-  </si>
-  <si>
-    <t>ART adherence achieving viral suppression (%/year)</t>
-  </si>
-  <si>
-    <t>PLHIV lost to follow-up (%/year)</t>
-  </si>
-  <si>
     <t>Biological failure rate (%/year)</t>
   </si>
   <si>
@@ -463,9 +449,6 @@
   </si>
   <si>
     <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. Please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
-  </si>
-  <si>
-    <t>Percentage of HIV-diagnosed people not in care who are linked to care per year (%/year)</t>
   </si>
   <si>
     <t>Injects</t>
@@ -503,20 +486,42 @@
   <si>
     <t>Aging</t>
   </si>
+  <si>
+    <t>Linkage to care rate (%/year)</t>
+  </si>
+  <si>
+    <t>Viral suppression – ART initiators (%)</t>
+  </si>
+  <si>
+    <t>Viral load monitoring (number/year)</t>
+  </si>
+  <si>
+    <t>Rate of ART re-initiation (%/year)</t>
+  </si>
+  <si>
+    <t>PLHIV aware of their status (%)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-diagnosed people who are in care (%)</t>
+  </si>
+  <si>
+    <t>Proportion of people on ART with viral suppression (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +620,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +690,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -699,14 +736,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="276">
+  <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -769,7 +806,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -976,8 +1013,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1013,7 +1068,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,8 +1177,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="285"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="285"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="276">
+  <cellStyles count="294">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1242,6 +1316,14 @@
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1393,11 +1475,21 @@
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
     <cellStyle name="Normal 4" xfId="68"/>
     <cellStyle name="Normal 5" xfId="67"/>
+    <cellStyle name="Normal 5 2" xfId="276"/>
+    <cellStyle name="Normal 6" xfId="285"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="70"/>
   </cellStyles>
@@ -1704,34 +1796,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
     </row>
-    <row r="5" spans="1:1" ht="28">
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>97</v>
       </c>
@@ -1758,14 +1850,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1833,7 +1925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -1866,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -1899,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -1932,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -1965,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -1998,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2031,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2064,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2097,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2130,12 +2222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2203,7 +2295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2236,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2269,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2302,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2335,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2368,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2401,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2434,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2467,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2500,12 +2592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2573,7 +2665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2620,22 +2712,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" style="50" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2673,7 +2765,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2688,7 +2780,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2709,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2726,7 +2818,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2741,7 +2833,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2756,7 +2848,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2777,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2792,7 +2884,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1">
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2813,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1">
+    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2828,12 +2920,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2871,7 +2963,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2886,7 +2978,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2907,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2924,7 +3016,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2939,7 +3031,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2954,7 +3046,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2975,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2990,7 +3082,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="50" customFormat="1">
+    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3011,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="50" customFormat="1">
+    <row r="25" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3026,12 +3118,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3069,7 +3161,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3084,7 +3176,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3101,7 +3193,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3116,7 +3208,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3131,7 +3223,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3146,7 +3238,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3161,7 +3253,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3176,7 +3268,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="50" customFormat="1">
+    <row r="38" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3191,7 +3283,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="50" customFormat="1">
+    <row r="39" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3206,12 +3298,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3249,7 +3341,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3264,7 +3356,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3279,7 +3371,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3294,7 +3386,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3309,7 +3401,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3324,7 +3416,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3339,7 +3431,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3354,7 +3446,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="50" customFormat="1">
+    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3369,7 +3461,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="50" customFormat="1">
+    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3384,12 +3476,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="50" customFormat="1">
+    <row r="57" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="50" customFormat="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3427,7 +3519,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="50" customFormat="1">
+    <row r="59" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3446,7 +3538,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="50" customFormat="1">
+    <row r="60" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3461,7 +3553,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="50" customFormat="1">
+    <row r="61" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3480,7 +3572,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="50" customFormat="1">
+    <row r="62" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3495,15 +3587,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="50" customFormat="1"/>
-    <row r="64" spans="1:11" s="50" customFormat="1"/>
-    <row r="65" spans="1:11" s="50" customFormat="1"/>
-    <row r="66" spans="1:11" s="50" customFormat="1">
+    <row r="63" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="50" customFormat="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3541,7 +3633,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="50" customFormat="1">
+    <row r="68" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3556,7 +3648,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="50" customFormat="1">
+    <row r="69" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3571,7 +3663,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1">
+    <row r="70" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3586,7 +3678,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1">
+    <row r="71" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3603,7 +3695,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1">
+    <row r="72" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3620,7 +3712,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="50" customFormat="1">
+    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3637,7 +3729,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1">
+    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3654,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1">
+    <row r="75" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3669,7 +3761,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="50" customFormat="1">
+    <row r="76" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3684,15 +3776,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1"/>
-    <row r="78" spans="1:11" s="50" customFormat="1"/>
-    <row r="79" spans="1:11" s="50" customFormat="1"/>
-    <row r="80" spans="1:11">
+    <row r="77" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3730,7 +3822,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3749,7 +3841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3768,7 +3860,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3783,7 +3875,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3798,7 +3890,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3813,7 +3905,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3828,7 +3920,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3843,7 +3935,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="50" customFormat="1">
+    <row r="89" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3858,7 +3950,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="50" customFormat="1">
+    <row r="90" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3886,18 +3978,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
@@ -3906,7 +3998,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="46" t="s">
@@ -3919,7 +4011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="45" t="s">
         <v>57</v>
@@ -3934,7 +4026,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
         <v>58</v>
@@ -3949,7 +4041,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
@@ -3964,7 +4056,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>60</v>
@@ -3979,7 +4071,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>61</v>
@@ -3994,7 +4086,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
@@ -4009,7 +4101,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>63</v>
@@ -4024,28 +4116,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
@@ -4054,7 +4146,7 @@
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -4067,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>65</v>
@@ -4082,7 +4174,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>66</v>
@@ -4097,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>67</v>
@@ -4112,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>68</v>
@@ -4127,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>69</v>
@@ -4142,7 +4234,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>70</v>
@@ -4157,28 +4249,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -4187,7 +4279,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="46" t="s">
@@ -4200,7 +4292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>72</v>
@@ -4215,7 +4307,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>67</v>
@@ -4230,7 +4322,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>103</v>
@@ -4245,7 +4337,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>73</v>
@@ -4260,7 +4352,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>74</v>
@@ -4275,28 +4367,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>75</v>
       </c>
@@ -4305,7 +4397,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="46" t="s">
@@ -4318,7 +4410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>76</v>
@@ -4333,7 +4425,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>77</v>
@@ -4348,7 +4440,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>78</v>
@@ -4363,7 +4455,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>79</v>
@@ -4378,28 +4470,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="37"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>80</v>
       </c>
@@ -4408,7 +4500,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="46" t="s">
@@ -4421,7 +4513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>65</v>
@@ -4436,7 +4528,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>66</v>
@@ -4451,7 +4543,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>81</v>
@@ -4466,7 +4558,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>68</v>
@@ -4481,7 +4573,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>69</v>
@@ -4500,7 +4592,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>70</v>
@@ -4519,7 +4611,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>82</v>
@@ -4538,7 +4630,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>83</v>
@@ -4557,7 +4649,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="35"/>
@@ -4568,7 +4660,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="37"/>
       <c r="C54" s="35"/>
@@ -4579,7 +4671,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="37"/>
       <c r="C55" s="35"/>
@@ -4590,7 +4682,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>104</v>
       </c>
@@ -4603,7 +4695,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="46" t="s">
@@ -4620,7 +4712,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>84</v>
@@ -4639,7 +4731,7 @@
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>85</v>
@@ -4658,7 +4750,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>86</v>
@@ -4674,7 +4766,7 @@
       </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>100</v>
@@ -4693,7 +4785,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>87</v>
@@ -4712,7 +4804,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>16</v>
@@ -4731,7 +4823,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>88</v>
@@ -4750,7 +4842,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="39"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>105</v>
@@ -4769,7 +4861,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="39"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>106</v>
@@ -4788,27 +4880,19 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="43"/>
-      <c r="B67" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="49">
-        <v>0.9</v>
-      </c>
-      <c r="D67" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="E67" s="49">
-        <v>0.95</v>
-      </c>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="35"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
@@ -4818,53 +4902,62 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="36"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
       <c r="B69" s="37"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="35"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="44" t="s">
-        <v>89</v>
-      </c>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
+      <c r="C71" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>20</v>
+      <c r="B72" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="48">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D72" s="48">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E72" s="48">
+        <v>0.20499999999999999</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -4872,129 +4965,109 @@
       <c r="I72" s="35"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="48">
-        <v>0.14599999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D73" s="48">
-        <v>9.6000000000000002E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E73" s="48">
-        <v>0.20499999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="24"/>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" s="48">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D74" s="48">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E74" s="48">
-        <v>1.0999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" s="48">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D75" s="48">
-        <v>1.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E75" s="48">
-        <v>2.9000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="48">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D76" s="48">
-        <v>4.8000000000000001E-2</v>
+        <v>0.114</v>
       </c>
       <c r="E76" s="48">
-        <v>9.4E-2</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="48">
-        <v>0.26500000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D77" s="48">
-        <v>0.114</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E77" s="48">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-    </row>
-    <row r="78" spans="1:10">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" s="48">
-        <v>0.54700000000000004</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D78" s="48">
-        <v>0.38200000000000001</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E78" s="48">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="43"/>
-      <c r="B79" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="48">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D79" s="48">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E79" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -5016,20 +5089,20 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5043,19 +5116,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="J2" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5084,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5113,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5142,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5171,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -5200,15 +5273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -5229,15 +5302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -5258,15 +5331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="50" customFormat="1">
+    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -5287,15 +5360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="50" customFormat="1">
+    <row r="11" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -5335,21 +5408,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5417,7 +5490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5451,7 +5524,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5507,7 +5580,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5541,7 +5614,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5575,7 +5648,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5631,7 +5704,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5665,7 +5738,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5699,7 +5772,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5755,7 +5828,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5789,7 +5862,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5802,7 +5875,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5836,7 +5909,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5892,7 +5965,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5926,7 +5999,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -5960,7 +6033,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6016,7 +6089,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6050,7 +6123,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6084,7 +6157,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6140,7 +6213,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6174,7 +6247,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6208,7 +6281,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6264,7 +6337,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6298,7 +6371,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6332,7 +6405,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6344,43 +6417,43 @@
         <v>1233255.160716</v>
       </c>
       <c r="E32" s="11">
-        <f>D32*(1.02)</f>
+        <f t="shared" ref="E32:N32" si="0">D32*(1.02)</f>
         <v>1257920.26393032</v>
       </c>
       <c r="F32" s="11">
-        <f>E32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1283078.6692089264</v>
       </c>
       <c r="G32" s="11">
-        <f>F32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1308740.242593105</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1334915.0474449671</v>
       </c>
       <c r="I32" s="11">
-        <f>H32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1361613.3483938666</v>
       </c>
       <c r="J32" s="11">
-        <f>I32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1388845.6153617438</v>
       </c>
       <c r="K32" s="11">
-        <f>J32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1416622.5276689788</v>
       </c>
       <c r="L32" s="11">
-        <f>K32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1444954.9782223583</v>
       </c>
       <c r="M32" s="11">
-        <f>L32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1473854.0777868056</v>
       </c>
       <c r="N32" s="11">
-        <f>M32*(1.02)</f>
+        <f t="shared" si="0"/>
         <v>1503331.1593425418</v>
       </c>
       <c r="O32" s="7"/>
@@ -6398,7 +6471,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6432,8 +6505,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6467,7 +6540,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6479,43 +6552,43 @@
         <v>1787827.318</v>
       </c>
       <c r="E36" s="11">
-        <f>D36*(1.02)</f>
+        <f t="shared" ref="E36:N36" si="1">D36*(1.02)</f>
         <v>1823583.86436</v>
       </c>
       <c r="F36" s="11">
-        <f>E36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>1860055.5416472</v>
       </c>
       <c r="G36" s="11">
-        <f>F36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>1897256.6524801441</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>1935201.7855297469</v>
       </c>
       <c r="I36" s="11">
-        <f>H36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>1973905.821240342</v>
       </c>
       <c r="J36" s="11">
-        <f>I36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>2013383.9376651489</v>
       </c>
       <c r="K36" s="11">
-        <f>J36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>2053651.6164184518</v>
       </c>
       <c r="L36" s="11">
-        <f>K36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>2094724.6487468209</v>
       </c>
       <c r="M36" s="11">
-        <f>L36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>2136619.1417217571</v>
       </c>
       <c r="N36" s="11">
-        <f>M36*(1.02)</f>
+        <f t="shared" si="1"/>
         <v>2179351.5245561921</v>
       </c>
       <c r="O36" s="7"/>
@@ -6533,7 +6606,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6567,7 +6640,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="50" customFormat="1"/>
+    <row r="38" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6587,19 +6660,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6667,7 +6740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6707,7 +6780,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6747,7 +6820,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6787,7 +6860,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6821,7 +6894,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6857,7 +6930,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6891,7 +6964,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6927,7 +7000,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6969,7 +7042,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7005,7 +7078,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7039,7 +7112,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7075,7 +7148,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7109,7 +7182,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7143,7 +7216,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7179,7 +7252,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7213,7 +7286,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7247,7 +7320,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7295,7 +7368,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7329,7 +7402,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7363,7 +7436,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7411,7 +7484,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7445,8 +7518,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="50" customFormat="1"/>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="30" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7480,7 +7553,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7519,7 +7592,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7553,8 +7626,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7588,7 +7661,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7627,7 +7700,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7680,14 +7753,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7755,7 +7828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7788,7 +7861,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7821,7 +7894,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7854,7 +7927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7887,7 +7960,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7920,7 +7993,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7953,7 +8026,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7986,7 +8059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8019,7 +8092,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8052,12 +8125,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8125,7 +8198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8158,7 +8231,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8191,7 +8264,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8224,7 +8297,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8257,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8290,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8323,7 +8396,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8356,7 +8429,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8389,7 +8462,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8422,12 +8495,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8495,7 +8568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8528,7 +8601,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8561,7 +8634,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8594,7 +8667,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8627,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8660,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8693,7 +8766,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8726,7 +8799,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="50" customFormat="1">
+    <row r="38" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8759,7 +8832,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="50" customFormat="1">
+    <row r="39" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8811,20 +8884,20 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -8892,7 +8965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -8936,12 +9009,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -9009,7 +9082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -9043,12 +9116,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -9116,7 +9189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -9174,12 +9247,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -9247,7 +9320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -9305,7 +9378,7 @@
       </c>
       <c r="Y21" s="40"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
@@ -9344,7 +9417,7 @@
       <c r="AH25" s="29"/>
       <c r="AI25" s="29"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="31">
@@ -9445,7 +9518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="31" t="s">
         <v>25</v>
@@ -9486,12 +9559,12 @@
       </c>
       <c r="AI27" s="32"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -9559,7 +9632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -9617,12 +9690,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -9690,7 +9763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -9746,14 +9819,14 @@
       <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9821,7 +9894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9856,7 +9929,7 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9893,7 +9966,7 @@
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9926,7 +9999,7 @@
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9959,7 +10032,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9992,7 +10065,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -10029,7 +10102,7 @@
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10066,7 +10139,7 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -10099,7 +10172,7 @@
       </c>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10132,12 +10205,12 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -10205,7 +10278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -10237,12 +10310,12 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>2000</v>
       </c>
@@ -10310,7 +10383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -10358,12 +10431,12 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>2000</v>
       </c>
@@ -10431,7 +10504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10464,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -10497,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -10530,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -10563,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10596,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -10629,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10662,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="50" customFormat="1">
+    <row r="37" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -10695,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10728,12 +10801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>2000</v>
       </c>
@@ -10801,7 +10874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
@@ -10835,12 +10908,12 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>2000</v>
       </c>
@@ -10908,7 +10981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10961,7 +11034,7 @@
       </c>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10994,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -11047,7 +11120,7 @@
       </c>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -11080,12 +11153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -11153,7 +11226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
@@ -11198,17 +11271,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="51" t="s">
-        <v>111</v>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -11235,8 +11308,8 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="50"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
       <c r="B2" s="50"/>
       <c r="C2" s="52">
         <v>2000</v>
@@ -11306,8 +11379,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="50"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11340,8 +11413,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11374,7 +11447,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -11408,7 +11481,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -11442,7 +11515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -11476,8 +11549,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -11510,8 +11582,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -11544,7 +11616,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -11577,7 +11650,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -11610,9 +11684,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="51" t="s">
-        <v>117</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -11639,8 +11713,8 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
       <c r="B16" s="50"/>
       <c r="C16" s="52">
         <v>2000</v>
@@ -11710,8 +11784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11744,8 +11817,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="50"/>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11778,7 +11851,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -11812,7 +11885,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -11846,7 +11919,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -11880,8 +11953,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -11914,7 +11986,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -11948,7 +12020,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -11981,7 +12053,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12014,9 +12086,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="51" t="s">
-        <v>108</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -12043,7 +12115,7 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="52">
@@ -12114,7 +12186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12148,7 +12220,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12182,7 +12254,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12216,7 +12288,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12250,7 +12322,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12284,7 +12356,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12318,7 +12390,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12352,7 +12424,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12385,7 +12457,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12418,9 +12490,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="51" t="s">
-        <v>112</v>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="60" t="s">
+        <v>110</v>
       </c>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -12447,7 +12519,7 @@
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52">
@@ -12518,7 +12590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12552,7 +12624,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12586,7 +12658,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12620,7 +12692,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12654,7 +12726,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12688,7 +12760,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12722,7 +12794,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12756,7 +12828,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12789,7 +12861,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12822,955 +12894,940 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="52">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="61"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="61"/>
+      <c r="Y57" s="61"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="63">
         <v>2000</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="63">
         <v>2001</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="63">
         <v>2002</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="63">
         <v>2003</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="63">
         <v>2004</v>
       </c>
-      <c r="H58" s="52">
+      <c r="H58" s="63">
         <v>2005</v>
       </c>
-      <c r="I58" s="52">
+      <c r="I58" s="63">
         <v>2006</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="63">
         <v>2007</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="63">
         <v>2008</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="63">
         <v>2009</v>
       </c>
-      <c r="M58" s="52">
+      <c r="M58" s="63">
         <v>2010</v>
       </c>
-      <c r="N58" s="52">
+      <c r="N58" s="63">
         <v>2011</v>
       </c>
-      <c r="O58" s="52">
+      <c r="O58" s="63">
         <v>2012</v>
       </c>
-      <c r="P58" s="52">
+      <c r="P58" s="63">
         <v>2013</v>
       </c>
-      <c r="Q58" s="52">
+      <c r="Q58" s="63">
         <v>2014</v>
       </c>
-      <c r="R58" s="52">
+      <c r="R58" s="63">
         <v>2015</v>
       </c>
-      <c r="S58" s="52">
+      <c r="S58" s="63">
         <v>2016</v>
       </c>
-      <c r="T58" s="52">
+      <c r="T58" s="63">
         <v>2017</v>
       </c>
-      <c r="U58" s="52">
+      <c r="U58" s="63">
         <v>2018</v>
       </c>
-      <c r="V58" s="52">
+      <c r="V58" s="63">
         <v>2019</v>
       </c>
-      <c r="W58" s="52">
+      <c r="W58" s="63">
         <v>2020</v>
       </c>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="52" t="s">
+      <c r="X58" s="61"/>
+      <c r="Y58" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y59" s="54">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y59" s="65">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="63">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="63">
+        <v>2001</v>
+      </c>
+      <c r="E64" s="63">
+        <v>2002</v>
+      </c>
+      <c r="F64" s="63">
+        <v>2003</v>
+      </c>
+      <c r="G64" s="63">
+        <v>2004</v>
+      </c>
+      <c r="H64" s="63">
+        <v>2005</v>
+      </c>
+      <c r="I64" s="63">
+        <v>2006</v>
+      </c>
+      <c r="J64" s="63">
+        <v>2007</v>
+      </c>
+      <c r="K64" s="63">
+        <v>2008</v>
+      </c>
+      <c r="L64" s="63">
+        <v>2009</v>
+      </c>
+      <c r="M64" s="63">
+        <v>2010</v>
+      </c>
+      <c r="N64" s="63">
+        <v>2011</v>
+      </c>
+      <c r="O64" s="63">
+        <v>2012</v>
+      </c>
+      <c r="P64" s="63">
+        <v>2013</v>
+      </c>
+      <c r="Q64" s="63">
+        <v>2014</v>
+      </c>
+      <c r="R64" s="63">
+        <v>2015</v>
+      </c>
+      <c r="S64" s="63">
+        <v>2016</v>
+      </c>
+      <c r="T64" s="63">
+        <v>2017</v>
+      </c>
+      <c r="U64" s="63">
+        <v>2018</v>
+      </c>
+      <c r="V64" s="63">
+        <v>2019</v>
+      </c>
+      <c r="W64" s="63">
+        <v>2020</v>
+      </c>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="65"/>
+      <c r="S65" s="65"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="65"/>
+      <c r="V65" s="65"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y65" s="65">
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y60" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y61" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y62" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y63" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y64" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y65" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" s="50" customFormat="1">
-      <c r="B66" s="3" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y66" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" s="50" customFormat="1">
-      <c r="B67" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y67" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="50"/>
-      <c r="X71" s="50"/>
-      <c r="Y71" s="50"/>
-    </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="52">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="63">
         <v>2000</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D70" s="63">
         <v>2001</v>
       </c>
-      <c r="E72" s="52">
+      <c r="E70" s="63">
         <v>2002</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F70" s="63">
         <v>2003</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G70" s="63">
         <v>2004</v>
       </c>
-      <c r="H72" s="52">
+      <c r="H70" s="63">
         <v>2005</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I70" s="63">
         <v>2006</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J70" s="63">
         <v>2007</v>
       </c>
-      <c r="K72" s="52">
+      <c r="K70" s="63">
         <v>2008</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L70" s="63">
         <v>2009</v>
       </c>
-      <c r="M72" s="52">
+      <c r="M70" s="63">
         <v>2010</v>
       </c>
-      <c r="N72" s="52">
+      <c r="N70" s="63">
         <v>2011</v>
       </c>
-      <c r="O72" s="52">
+      <c r="O70" s="63">
         <v>2012</v>
       </c>
-      <c r="P72" s="52">
+      <c r="P70" s="63">
         <v>2013</v>
       </c>
-      <c r="Q72" s="52">
+      <c r="Q70" s="63">
         <v>2014</v>
       </c>
-      <c r="R72" s="52">
+      <c r="R70" s="63">
         <v>2015</v>
       </c>
-      <c r="S72" s="52">
+      <c r="S70" s="63">
         <v>2016</v>
       </c>
-      <c r="T72" s="52">
+      <c r="T70" s="63">
         <v>2017</v>
       </c>
-      <c r="U72" s="52">
+      <c r="U70" s="63">
         <v>2018</v>
       </c>
-      <c r="V72" s="52">
+      <c r="V70" s="63">
         <v>2019</v>
       </c>
-      <c r="W72" s="52">
+      <c r="W70" s="63">
         <v>2020</v>
       </c>
-      <c r="X72" s="50"/>
-      <c r="Y72" s="52" t="s">
+      <c r="X70" s="61"/>
+      <c r="Y70" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="54"/>
-      <c r="W73" s="54"/>
-      <c r="X73" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y73" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y74" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y75" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y76" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y77" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y78" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
-      <c r="V79" s="54"/>
-      <c r="W79" s="54"/>
-      <c r="X79" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y79" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" s="50" customFormat="1">
-      <c r="B80" s="3" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
-      <c r="V80" s="54"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y80" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" s="50" customFormat="1">
-      <c r="B81" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
-      <c r="V81" s="54"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y81" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
-      <c r="A85" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="50"/>
-      <c r="R85" s="50"/>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="50"/>
-      <c r="V85" s="50"/>
-      <c r="W85" s="50"/>
-      <c r="X85" s="50"/>
-      <c r="Y85" s="50"/>
-    </row>
-    <row r="86" spans="1:25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="52">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y71" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
+      <c r="U75" s="61"/>
+      <c r="V75" s="61"/>
+      <c r="W75" s="61"/>
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="63">
         <v>2000</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D76" s="63">
         <v>2001</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E76" s="63">
         <v>2002</v>
       </c>
-      <c r="F86" s="52">
+      <c r="F76" s="63">
         <v>2003</v>
       </c>
-      <c r="G86" s="52">
+      <c r="G76" s="63">
         <v>2004</v>
       </c>
-      <c r="H86" s="52">
+      <c r="H76" s="63">
         <v>2005</v>
       </c>
-      <c r="I86" s="52">
+      <c r="I76" s="63">
         <v>2006</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J76" s="63">
         <v>2007</v>
       </c>
-      <c r="K86" s="52">
+      <c r="K76" s="63">
         <v>2008</v>
       </c>
-      <c r="L86" s="52">
+      <c r="L76" s="63">
         <v>2009</v>
       </c>
-      <c r="M86" s="52">
+      <c r="M76" s="63">
         <v>2010</v>
       </c>
-      <c r="N86" s="52">
+      <c r="N76" s="63">
         <v>2011</v>
       </c>
-      <c r="O86" s="52">
+      <c r="O76" s="63">
         <v>2012</v>
       </c>
-      <c r="P86" s="52">
+      <c r="P76" s="63">
         <v>2013</v>
       </c>
-      <c r="Q86" s="52">
+      <c r="Q76" s="63">
         <v>2014</v>
       </c>
-      <c r="R86" s="52">
+      <c r="R76" s="63">
         <v>2015</v>
       </c>
-      <c r="S86" s="52">
+      <c r="S76" s="63">
         <v>2016</v>
       </c>
-      <c r="T86" s="52">
+      <c r="T76" s="63">
         <v>2017</v>
       </c>
-      <c r="U86" s="52">
+      <c r="U76" s="63">
         <v>2018</v>
       </c>
-      <c r="V86" s="52">
+      <c r="V76" s="63">
         <v>2019</v>
       </c>
-      <c r="W86" s="52">
+      <c r="W76" s="63">
         <v>2020</v>
       </c>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="52" t="s">
+      <c r="X76" s="61"/>
+      <c r="Y76" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="52" t="s">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="54"/>
-      <c r="W87" s="54"/>
-      <c r="X87" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y87" s="54">
-        <v>0.1</v>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="65"/>
+      <c r="S77" s="65"/>
+      <c r="T77" s="65"/>
+      <c r="U77" s="65"/>
+      <c r="V77" s="65"/>
+      <c r="W77" s="65"/>
+      <c r="X77" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y77" s="65">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="63">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="63">
+        <v>2001</v>
+      </c>
+      <c r="E82" s="63">
+        <v>2002</v>
+      </c>
+      <c r="F82" s="63">
+        <v>2003</v>
+      </c>
+      <c r="G82" s="63">
+        <v>2004</v>
+      </c>
+      <c r="H82" s="63">
+        <v>2005</v>
+      </c>
+      <c r="I82" s="63">
+        <v>2006</v>
+      </c>
+      <c r="J82" s="63">
+        <v>2007</v>
+      </c>
+      <c r="K82" s="63">
+        <v>2008</v>
+      </c>
+      <c r="L82" s="63">
+        <v>2009</v>
+      </c>
+      <c r="M82" s="63">
+        <v>2010</v>
+      </c>
+      <c r="N82" s="63">
+        <v>2011</v>
+      </c>
+      <c r="O82" s="63">
+        <v>2012</v>
+      </c>
+      <c r="P82" s="63">
+        <v>2013</v>
+      </c>
+      <c r="Q82" s="63">
+        <v>2014</v>
+      </c>
+      <c r="R82" s="63">
+        <v>2015</v>
+      </c>
+      <c r="S82" s="63">
+        <v>2016</v>
+      </c>
+      <c r="T82" s="63">
+        <v>2017</v>
+      </c>
+      <c r="U82" s="63">
+        <v>2018</v>
+      </c>
+      <c r="V82" s="63">
+        <v>2019</v>
+      </c>
+      <c r="W82" s="63">
+        <v>2020</v>
+      </c>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="61"/>
+      <c r="B83" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="65"/>
+      <c r="S83" s="65"/>
+      <c r="T83" s="65"/>
+      <c r="U83" s="65"/>
+      <c r="V83" s="65"/>
+      <c r="W83" s="65"/>
+      <c r="X83" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y83" s="65">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="63">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="63">
+        <v>2001</v>
+      </c>
+      <c r="E88" s="63">
+        <v>2002</v>
+      </c>
+      <c r="F88" s="63">
+        <v>2003</v>
+      </c>
+      <c r="G88" s="63">
+        <v>2004</v>
+      </c>
+      <c r="H88" s="63">
+        <v>2005</v>
+      </c>
+      <c r="I88" s="63">
+        <v>2006</v>
+      </c>
+      <c r="J88" s="63">
+        <v>2007</v>
+      </c>
+      <c r="K88" s="63">
+        <v>2008</v>
+      </c>
+      <c r="L88" s="63">
+        <v>2009</v>
+      </c>
+      <c r="M88" s="63">
+        <v>2010</v>
+      </c>
+      <c r="N88" s="63">
+        <v>2011</v>
+      </c>
+      <c r="O88" s="63">
+        <v>2012</v>
+      </c>
+      <c r="P88" s="63">
+        <v>2013</v>
+      </c>
+      <c r="Q88" s="63">
+        <v>2014</v>
+      </c>
+      <c r="R88" s="63">
+        <v>2015</v>
+      </c>
+      <c r="S88" s="63">
+        <v>2016</v>
+      </c>
+      <c r="T88" s="63">
+        <v>2017</v>
+      </c>
+      <c r="U88" s="63">
+        <v>2018</v>
+      </c>
+      <c r="V88" s="63">
+        <v>2019</v>
+      </c>
+      <c r="W88" s="63">
+        <v>2020</v>
+      </c>
+      <c r="X88" s="61"/>
+      <c r="Y88" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="65"/>
+      <c r="S89" s="65"/>
+      <c r="T89" s="65"/>
+      <c r="U89" s="65"/>
+      <c r="V89" s="65"/>
+      <c r="W89" s="65"/>
+      <c r="X89" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y89" s="65">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A93" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
+      <c r="S93" s="61"/>
+      <c r="T93" s="61"/>
+      <c r="U93" s="61"/>
+      <c r="V93" s="61"/>
+      <c r="W93" s="61"/>
+      <c r="X93" s="61"/>
+      <c r="Y93" s="61"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="63">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="63">
+        <v>2001</v>
+      </c>
+      <c r="E94" s="63">
+        <v>2002</v>
+      </c>
+      <c r="F94" s="63">
+        <v>2003</v>
+      </c>
+      <c r="G94" s="63">
+        <v>2004</v>
+      </c>
+      <c r="H94" s="63">
+        <v>2005</v>
+      </c>
+      <c r="I94" s="63">
+        <v>2006</v>
+      </c>
+      <c r="J94" s="63">
+        <v>2007</v>
+      </c>
+      <c r="K94" s="63">
+        <v>2008</v>
+      </c>
+      <c r="L94" s="63">
+        <v>2009</v>
+      </c>
+      <c r="M94" s="63">
+        <v>2010</v>
+      </c>
+      <c r="N94" s="63">
+        <v>2011</v>
+      </c>
+      <c r="O94" s="63">
+        <v>2012</v>
+      </c>
+      <c r="P94" s="63">
+        <v>2013</v>
+      </c>
+      <c r="Q94" s="63">
+        <v>2014</v>
+      </c>
+      <c r="R94" s="63">
+        <v>2015</v>
+      </c>
+      <c r="S94" s="63">
+        <v>2016</v>
+      </c>
+      <c r="T94" s="63">
+        <v>2017</v>
+      </c>
+      <c r="U94" s="63">
+        <v>2018</v>
+      </c>
+      <c r="V94" s="63">
+        <v>2019</v>
+      </c>
+      <c r="W94" s="63">
+        <v>2020</v>
+      </c>
+      <c r="X94" s="61"/>
+      <c r="Y94" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" s="61"/>
+      <c r="B95" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="65"/>
+      <c r="S95" s="65"/>
+      <c r="T95" s="65"/>
+      <c r="U95" s="65"/>
+      <c r="V95" s="65"/>
+      <c r="W95" s="65"/>
+      <c r="X95" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y95" s="65">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13782,14 +13839,14 @@
       <selection activeCell="Y52" sqref="Y52:Y53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -13857,7 +13914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -13890,7 +13947,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -13923,7 +13980,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -13956,7 +14013,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13989,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14022,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14055,7 +14112,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14088,7 +14145,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14121,7 +14178,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14154,12 +14211,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14227,7 +14284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14260,7 +14317,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14293,7 +14350,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14326,7 +14383,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14359,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14392,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14425,7 +14482,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14458,7 +14515,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14491,7 +14548,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14524,12 +14581,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -14597,7 +14654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14630,7 +14687,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14663,7 +14720,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14696,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14729,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14762,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14795,7 +14852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14828,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14861,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14894,12 +14951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -14967,7 +15024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15000,7 +15057,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15033,7 +15090,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15066,7 +15123,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15099,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15132,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15165,7 +15222,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15198,7 +15255,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15231,7 +15288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15264,12 +15321,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15337,7 +15394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15370,7 +15427,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15407,7 +15464,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15440,7 +15497,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15473,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15506,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15543,7 +15600,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15580,7 +15637,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="50" customFormat="1">
+    <row r="66" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15613,7 +15670,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="50" customFormat="1">
+    <row r="67" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15646,12 +15703,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -15719,7 +15776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15754,7 +15811,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15787,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15820,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15853,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15886,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15919,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15952,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="50" customFormat="1">
+    <row r="80" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15985,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="50" customFormat="1">
+    <row r="81" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16018,12 +16075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16091,7 +16148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16124,7 +16181,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16157,7 +16214,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16190,7 +16247,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16223,7 +16280,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="50" customFormat="1">
+    <row r="91" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="134">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -507,14 +512,52 @@
   <si>
     <t>Proportion of people on ART with viral suppression (%)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Diagnosed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">PLHIV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">on treatment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -738,12 +781,12 @@
   </borders>
   <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -806,7 +849,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,7 +1075,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1068,7 +1111,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1171,12 +1214,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="285"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="285"/>
@@ -1195,6 +1232,19 @@
     </xf>
     <xf numFmtId="169" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="294">
@@ -1796,34 +1846,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
+      <c r="A2" s="67"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="67"/>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="25"/>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="28">
       <c r="A5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="25"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="26" t="s">
         <v>97</v>
       </c>
@@ -1850,14 +1900,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1925,7 +1975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -1958,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -1991,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2024,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2057,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2090,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2123,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2156,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2189,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2222,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2295,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2328,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2361,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2394,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2427,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2460,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2493,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2526,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2559,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2592,12 +2642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2665,7 +2715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2716,18 +2766,18 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="50" customWidth="1"/>
+    <col min="3" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2765,7 +2815,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2780,7 +2830,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2801,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2818,7 +2868,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2833,7 +2883,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2848,7 +2898,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2869,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2884,7 +2934,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2905,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2920,12 +2970,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2963,7 +3013,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2978,7 +3028,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2999,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3016,7 +3066,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3031,7 +3081,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3046,7 +3096,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3067,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3082,7 +3132,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3103,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3118,12 +3168,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3161,7 +3211,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3176,7 +3226,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3193,7 +3243,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3208,7 +3258,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3223,7 +3273,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3238,7 +3288,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3253,7 +3303,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3268,7 +3318,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3283,7 +3333,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3298,12 +3348,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3341,7 +3391,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3356,7 +3406,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3371,7 +3421,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3386,7 +3436,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3401,7 +3451,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3416,7 +3466,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3431,7 +3481,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3446,7 +3496,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3461,7 +3511,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3476,12 +3526,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="50" customFormat="1">
       <c r="A57" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="50" customFormat="1">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3519,7 +3569,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="50" customFormat="1">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3538,7 +3588,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="50" customFormat="1">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3553,7 +3603,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="50" customFormat="1">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3572,7 +3622,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="50" customFormat="1">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3587,15 +3637,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="50" customFormat="1"/>
+    <row r="64" spans="1:11" s="50" customFormat="1"/>
+    <row r="65" spans="1:11" s="50" customFormat="1"/>
+    <row r="66" spans="1:11" s="50" customFormat="1">
       <c r="A66" s="51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="50" customFormat="1">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3633,7 +3683,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="50" customFormat="1">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3648,7 +3698,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="50" customFormat="1">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3663,7 +3713,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="50" customFormat="1">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3678,7 +3728,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="50" customFormat="1">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3695,7 +3745,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="50" customFormat="1">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3712,7 +3762,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="50" customFormat="1">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3729,7 +3779,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="50" customFormat="1">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3746,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="50" customFormat="1">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3761,7 +3811,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="50" customFormat="1">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3776,15 +3826,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="50" customFormat="1"/>
+    <row r="78" spans="1:11" s="50" customFormat="1"/>
+    <row r="79" spans="1:11" s="50" customFormat="1"/>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3822,7 +3872,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3841,7 +3891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3860,7 +3910,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3875,7 +3925,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3890,7 +3940,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3905,7 +3955,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3920,7 +3970,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3935,7 +3985,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" s="50" customFormat="1">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3950,7 +4000,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" s="50" customFormat="1">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3984,12 +4034,12 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
@@ -3998,7 +4048,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="46" t="s">
@@ -4011,7 +4061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="43"/>
       <c r="B3" s="45" t="s">
         <v>57</v>
@@ -4026,7 +4076,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
         <v>58</v>
@@ -4041,7 +4091,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
@@ -4056,7 +4106,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>60</v>
@@ -4071,7 +4121,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>61</v>
@@ -4086,7 +4136,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
@@ -4101,7 +4151,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>63</v>
@@ -4116,28 +4166,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
@@ -4146,7 +4196,7 @@
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -4159,7 +4209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>65</v>
@@ -4174,7 +4224,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>66</v>
@@ -4189,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>67</v>
@@ -4204,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>68</v>
@@ -4219,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>69</v>
@@ -4234,7 +4284,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>70</v>
@@ -4249,28 +4299,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -4279,7 +4329,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="46" t="s">
@@ -4292,7 +4342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>72</v>
@@ -4307,7 +4357,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>67</v>
@@ -4322,7 +4372,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>103</v>
@@ -4337,7 +4387,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>73</v>
@@ -4352,7 +4402,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>74</v>
@@ -4367,28 +4417,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="44" t="s">
         <v>75</v>
       </c>
@@ -4397,7 +4447,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="46" t="s">
@@ -4410,7 +4460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>76</v>
@@ -4425,7 +4475,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>77</v>
@@ -4440,7 +4490,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>78</v>
@@ -4455,7 +4505,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>79</v>
@@ -4470,28 +4520,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="35"/>
       <c r="B42" s="37"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="44" t="s">
         <v>80</v>
       </c>
@@ -4500,7 +4550,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="46" t="s">
@@ -4513,7 +4563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>65</v>
@@ -4528,7 +4578,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>66</v>
@@ -4543,7 +4593,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>81</v>
@@ -4558,7 +4608,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>68</v>
@@ -4573,7 +4623,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>69</v>
@@ -4592,7 +4642,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>70</v>
@@ -4611,7 +4661,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>82</v>
@@ -4630,7 +4680,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>83</v>
@@ -4649,7 +4699,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="35"/>
@@ -4660,7 +4710,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="35"/>
       <c r="B54" s="37"/>
       <c r="C54" s="35"/>
@@ -4671,7 +4721,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="35"/>
       <c r="B55" s="37"/>
       <c r="C55" s="35"/>
@@ -4682,7 +4732,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="44" t="s">
         <v>104</v>
       </c>
@@ -4695,7 +4745,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="46" t="s">
@@ -4712,7 +4762,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>84</v>
@@ -4731,7 +4781,7 @@
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>85</v>
@@ -4750,7 +4800,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>86</v>
@@ -4766,7 +4816,7 @@
       </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>100</v>
@@ -4785,7 +4835,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>87</v>
@@ -4804,7 +4854,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>16</v>
@@ -4823,7 +4873,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>88</v>
@@ -4842,7 +4892,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="39"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>105</v>
@@ -4861,7 +4911,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="39"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>106</v>
@@ -4880,7 +4930,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="35"/>
@@ -4891,7 +4941,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
@@ -4902,7 +4952,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="35"/>
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
@@ -4913,7 +4963,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="44" t="s">
         <v>89</v>
       </c>
@@ -4927,7 +4977,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="46" t="s">
@@ -4945,7 +4995,7 @@
       <c r="I71" s="35"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>90</v>
@@ -4965,7 +5015,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>91</v>
@@ -4984,7 +5034,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>92</v>
@@ -5003,7 +5053,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>93</v>
@@ -5022,7 +5072,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>94</v>
@@ -5041,7 +5091,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>95</v>
@@ -5056,7 +5106,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>96</v>
@@ -5089,20 +5139,20 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5157,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5186,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5215,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5244,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -5273,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5302,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5331,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="50" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5360,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="50" customFormat="1">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5408,21 +5458,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5490,7 +5540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5524,7 +5574,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5580,7 +5630,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5614,7 +5664,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5648,7 +5698,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5704,7 +5754,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5738,7 +5788,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5772,7 +5822,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5828,7 +5878,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5862,7 +5912,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5875,7 +5925,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5909,7 +5959,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5965,7 +6015,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5999,7 +6049,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6033,7 +6083,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6089,7 +6139,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6123,7 +6173,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6157,7 +6207,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6213,7 +6263,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6247,7 +6297,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6281,7 +6331,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6337,7 +6387,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6371,7 +6421,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="50" customFormat="1">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6405,7 +6455,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="50" customFormat="1">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6471,7 +6521,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" s="50" customFormat="1">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6505,8 +6555,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="50" customFormat="1"/>
+    <row r="35" spans="2:26" s="50" customFormat="1">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6540,7 +6590,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" s="50" customFormat="1">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6606,7 +6656,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6640,7 +6690,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:26" s="50" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6660,19 +6710,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6740,7 +6790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6780,7 +6830,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6820,7 +6870,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6860,7 +6910,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6894,7 +6944,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6930,7 +6980,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6964,7 +7014,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7000,7 +7050,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7042,7 +7092,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7078,7 +7128,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7112,7 +7162,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7148,7 +7198,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7182,7 +7232,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7216,7 +7266,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7252,7 +7302,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7286,7 +7336,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7320,7 +7370,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7368,7 +7418,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7402,7 +7452,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7436,7 +7486,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7484,7 +7534,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7518,8 +7568,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="50" customFormat="1"/>
+    <row r="31" spans="2:26" s="50" customFormat="1">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7553,7 +7603,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="50" customFormat="1">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7592,7 +7642,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" s="50" customFormat="1">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7626,8 +7676,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="50" customFormat="1"/>
+    <row r="35" spans="2:26" s="50" customFormat="1">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7661,7 +7711,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" s="50" customFormat="1">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7700,7 +7750,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7753,14 +7803,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7828,7 +7878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7861,7 +7911,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7894,7 +7944,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7927,7 +7977,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7960,7 +8010,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7993,7 +8043,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8026,7 +8076,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8059,7 +8109,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8092,7 +8142,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8125,12 +8175,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8198,7 +8248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8231,7 +8281,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8264,7 +8314,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8297,7 +8347,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8330,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8363,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8396,7 +8446,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8429,7 +8479,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8462,7 +8512,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8495,12 +8545,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8568,7 +8618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8601,7 +8651,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8634,7 +8684,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8667,7 +8717,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8700,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8733,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8766,7 +8816,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8799,7 +8849,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8832,7 +8882,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8878,26 +8928,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="S28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -8965,7 +9015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -9009,12 +9059,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -9082,7 +9132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -9116,12 +9166,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -9189,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -9247,12 +9297,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -9320,7 +9370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -9378,7 +9428,7 @@
       </c>
       <c r="Y21" s="40"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
@@ -9417,7 +9467,7 @@
       <c r="AH25" s="29"/>
       <c r="AI25" s="29"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="31">
@@ -9518,7 +9568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="29"/>
       <c r="B27" s="31" t="s">
         <v>25</v>
@@ -9559,12 +9609,12 @@
       </c>
       <c r="AI27" s="32"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -9632,7 +9682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -9690,12 +9740,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -9763,7 +9813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -9800,6 +9850,274 @@
         <v>18</v>
       </c>
       <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="42" spans="1:25" s="50" customFormat="1">
+      <c r="A42" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+    </row>
+    <row r="43" spans="1:25" s="50" customFormat="1">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="69">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="69">
+        <v>2001</v>
+      </c>
+      <c r="E43" s="69">
+        <v>2002</v>
+      </c>
+      <c r="F43" s="69">
+        <v>2003</v>
+      </c>
+      <c r="G43" s="69">
+        <v>2004</v>
+      </c>
+      <c r="H43" s="69">
+        <v>2005</v>
+      </c>
+      <c r="I43" s="69">
+        <v>2006</v>
+      </c>
+      <c r="J43" s="69">
+        <v>2007</v>
+      </c>
+      <c r="K43" s="69">
+        <v>2008</v>
+      </c>
+      <c r="L43" s="69">
+        <v>2009</v>
+      </c>
+      <c r="M43" s="69">
+        <v>2010</v>
+      </c>
+      <c r="N43" s="69">
+        <v>2011</v>
+      </c>
+      <c r="O43" s="69">
+        <v>2012</v>
+      </c>
+      <c r="P43" s="69">
+        <v>2013</v>
+      </c>
+      <c r="Q43" s="69">
+        <v>2014</v>
+      </c>
+      <c r="R43" s="69">
+        <v>2015</v>
+      </c>
+      <c r="S43" s="69">
+        <v>2016</v>
+      </c>
+      <c r="T43" s="69">
+        <v>2017</v>
+      </c>
+      <c r="U43" s="69">
+        <v>2018</v>
+      </c>
+      <c r="V43" s="69">
+        <v>2019</v>
+      </c>
+      <c r="W43" s="69">
+        <v>2020</v>
+      </c>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="50" customFormat="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="63"/>
+    </row>
+    <row r="45" spans="1:25" s="50" customFormat="1"/>
+    <row r="46" spans="1:25" s="50" customFormat="1"/>
+    <row r="47" spans="1:25" s="50" customFormat="1"/>
+    <row r="48" spans="1:25" s="50" customFormat="1">
+      <c r="A48" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+    </row>
+    <row r="49" spans="1:25" s="50" customFormat="1">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="69">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="69">
+        <v>2001</v>
+      </c>
+      <c r="E49" s="69">
+        <v>2002</v>
+      </c>
+      <c r="F49" s="69">
+        <v>2003</v>
+      </c>
+      <c r="G49" s="69">
+        <v>2004</v>
+      </c>
+      <c r="H49" s="69">
+        <v>2005</v>
+      </c>
+      <c r="I49" s="69">
+        <v>2006</v>
+      </c>
+      <c r="J49" s="69">
+        <v>2007</v>
+      </c>
+      <c r="K49" s="69">
+        <v>2008</v>
+      </c>
+      <c r="L49" s="69">
+        <v>2009</v>
+      </c>
+      <c r="M49" s="69">
+        <v>2010</v>
+      </c>
+      <c r="N49" s="69">
+        <v>2011</v>
+      </c>
+      <c r="O49" s="69">
+        <v>2012</v>
+      </c>
+      <c r="P49" s="69">
+        <v>2013</v>
+      </c>
+      <c r="Q49" s="69">
+        <v>2014</v>
+      </c>
+      <c r="R49" s="69">
+        <v>2015</v>
+      </c>
+      <c r="S49" s="69">
+        <v>2016</v>
+      </c>
+      <c r="T49" s="69">
+        <v>2017</v>
+      </c>
+      <c r="U49" s="69">
+        <v>2018</v>
+      </c>
+      <c r="V49" s="69">
+        <v>2019</v>
+      </c>
+      <c r="W49" s="69">
+        <v>2020</v>
+      </c>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="50" customFormat="1">
+      <c r="A50" s="59"/>
+      <c r="B50" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y50" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9819,14 +10137,14 @@
       <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9894,7 +10212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9929,7 +10247,7 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9966,7 +10284,7 @@
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9999,7 +10317,7 @@
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -10032,7 +10350,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10065,7 +10383,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -10102,7 +10420,7 @@
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10139,7 +10457,7 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -10172,7 +10490,7 @@
       </c>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10205,12 +10523,12 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -10278,7 +10596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -10310,12 +10628,12 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="C22" s="3">
         <v>2000</v>
       </c>
@@ -10383,7 +10701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -10431,12 +10749,12 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="C29" s="3">
         <v>2000</v>
       </c>
@@ -10504,7 +10822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10537,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -10570,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -10603,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -10636,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10669,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -10702,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10735,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -10768,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10801,12 +11119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="C43" s="3">
         <v>2000</v>
       </c>
@@ -10874,7 +11192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
@@ -10908,12 +11226,12 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="C49" s="3">
         <v>2000</v>
       </c>
@@ -10981,7 +11299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11034,7 +11352,7 @@
       </c>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -11067,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -11120,7 +11438,7 @@
       </c>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -11153,12 +11471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -11226,7 +11544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
@@ -11271,16 +11589,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B1" s="50"/>
@@ -11308,8 +11626,8 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="57"/>
       <c r="B2" s="50"/>
       <c r="C2" s="52">
         <v>2000</v>
@@ -11379,8 +11697,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+    <row r="3" spans="1:25">
+      <c r="A3" s="57"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11413,8 +11731,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="57"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11447,7 +11765,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="50"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -11481,7 +11799,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="50"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -11515,7 +11833,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -11549,7 +11867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -11582,8 +11900,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:25">
+      <c r="A9" s="57"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -11616,8 +11934,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:25" s="50" customFormat="1">
+      <c r="A10" s="57"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -11650,8 +11968,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:25" s="50" customFormat="1">
+      <c r="A11" s="57"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -11684,8 +12002,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:25">
+      <c r="A15" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="50"/>
@@ -11713,8 +12031,8 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:25">
+      <c r="A16" s="57"/>
       <c r="B16" s="50"/>
       <c r="C16" s="52">
         <v>2000</v>
@@ -11784,7 +12102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -11817,8 +12135,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:25">
+      <c r="A18" s="57"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -11851,7 +12169,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="50"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -11885,7 +12203,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="50"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -11919,7 +12237,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -11953,7 +12271,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -11986,7 +12304,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="50"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12020,7 +12338,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12053,7 +12371,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12086,8 +12404,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:25">
+      <c r="A29" s="58" t="s">
         <v>109</v>
       </c>
       <c r="B29" s="50"/>
@@ -12115,7 +12433,7 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="52">
@@ -12186,7 +12504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="50"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12220,7 +12538,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="50"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12254,7 +12572,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="50"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12288,7 +12606,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="50"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12322,7 +12640,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12356,7 +12674,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12390,7 +12708,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12424,7 +12742,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12457,7 +12775,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12490,8 +12808,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:25">
+      <c r="A43" s="58" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="50"/>
@@ -12519,7 +12837,7 @@
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52">
@@ -12590,7 +12908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12624,7 +12942,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12658,7 +12976,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12692,7 +13010,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12726,7 +13044,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="50"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12760,7 +13078,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12794,7 +13112,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12828,7 +13146,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12861,7 +13179,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12894,940 +13212,812 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:25">
+      <c r="A57" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="61"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="61"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="63">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="61">
         <v>2000</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="61">
         <v>2001</v>
       </c>
-      <c r="E58" s="63">
+      <c r="E58" s="61">
         <v>2002</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="61">
         <v>2003</v>
       </c>
-      <c r="G58" s="63">
+      <c r="G58" s="61">
         <v>2004</v>
       </c>
-      <c r="H58" s="63">
+      <c r="H58" s="61">
         <v>2005</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="61">
         <v>2006</v>
       </c>
-      <c r="J58" s="63">
+      <c r="J58" s="61">
         <v>2007</v>
       </c>
-      <c r="K58" s="63">
+      <c r="K58" s="61">
         <v>2008</v>
       </c>
-      <c r="L58" s="63">
+      <c r="L58" s="61">
         <v>2009</v>
       </c>
-      <c r="M58" s="63">
+      <c r="M58" s="61">
         <v>2010</v>
       </c>
-      <c r="N58" s="63">
+      <c r="N58" s="61">
         <v>2011</v>
       </c>
-      <c r="O58" s="63">
+      <c r="O58" s="61">
         <v>2012</v>
       </c>
-      <c r="P58" s="63">
+      <c r="P58" s="61">
         <v>2013</v>
       </c>
-      <c r="Q58" s="63">
+      <c r="Q58" s="61">
         <v>2014</v>
       </c>
-      <c r="R58" s="63">
+      <c r="R58" s="61">
         <v>2015</v>
       </c>
-      <c r="S58" s="63">
+      <c r="S58" s="61">
         <v>2016</v>
       </c>
-      <c r="T58" s="63">
+      <c r="T58" s="61">
         <v>2017</v>
       </c>
-      <c r="U58" s="63">
+      <c r="U58" s="61">
         <v>2018</v>
       </c>
-      <c r="V58" s="63">
+      <c r="V58" s="61">
         <v>2019</v>
       </c>
-      <c r="W58" s="63">
+      <c r="W58" s="61">
         <v>2020</v>
       </c>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="63" t="s">
+      <c r="X58" s="59"/>
+      <c r="Y58" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="63" t="s">
+    <row r="59" spans="1:25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y59" s="65">
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y59" s="63">
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+    <row r="63" spans="1:25">
+      <c r="A63" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="63">
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="61">
         <v>2000</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="61">
         <v>2001</v>
       </c>
-      <c r="E64" s="63">
+      <c r="E64" s="61">
         <v>2002</v>
       </c>
-      <c r="F64" s="63">
+      <c r="F64" s="61">
         <v>2003</v>
       </c>
-      <c r="G64" s="63">
+      <c r="G64" s="61">
         <v>2004</v>
       </c>
-      <c r="H64" s="63">
+      <c r="H64" s="61">
         <v>2005</v>
       </c>
-      <c r="I64" s="63">
+      <c r="I64" s="61">
         <v>2006</v>
       </c>
-      <c r="J64" s="63">
+      <c r="J64" s="61">
         <v>2007</v>
       </c>
-      <c r="K64" s="63">
+      <c r="K64" s="61">
         <v>2008</v>
       </c>
-      <c r="L64" s="63">
+      <c r="L64" s="61">
         <v>2009</v>
       </c>
-      <c r="M64" s="63">
+      <c r="M64" s="61">
         <v>2010</v>
       </c>
-      <c r="N64" s="63">
+      <c r="N64" s="61">
         <v>2011</v>
       </c>
-      <c r="O64" s="63">
+      <c r="O64" s="61">
         <v>2012</v>
       </c>
-      <c r="P64" s="63">
+      <c r="P64" s="61">
         <v>2013</v>
       </c>
-      <c r="Q64" s="63">
+      <c r="Q64" s="61">
         <v>2014</v>
       </c>
-      <c r="R64" s="63">
+      <c r="R64" s="61">
         <v>2015</v>
       </c>
-      <c r="S64" s="63">
+      <c r="S64" s="61">
         <v>2016</v>
       </c>
-      <c r="T64" s="63">
+      <c r="T64" s="61">
         <v>2017</v>
       </c>
-      <c r="U64" s="63">
+      <c r="U64" s="61">
         <v>2018</v>
       </c>
-      <c r="V64" s="63">
+      <c r="V64" s="61">
         <v>2019</v>
       </c>
-      <c r="W64" s="63">
+      <c r="W64" s="61">
         <v>2020</v>
       </c>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="63" t="s">
+      <c r="X64" s="59"/>
+      <c r="Y64" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="63" t="s">
+    <row r="65" spans="1:25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y65" s="65">
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y65" s="63">
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+    <row r="69" spans="1:25">
+      <c r="A69" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="63">
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="61">
         <v>2000</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="61">
         <v>2001</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="61">
         <v>2002</v>
       </c>
-      <c r="F70" s="63">
+      <c r="F70" s="61">
         <v>2003</v>
       </c>
-      <c r="G70" s="63">
+      <c r="G70" s="61">
         <v>2004</v>
       </c>
-      <c r="H70" s="63">
+      <c r="H70" s="61">
         <v>2005</v>
       </c>
-      <c r="I70" s="63">
+      <c r="I70" s="61">
         <v>2006</v>
       </c>
-      <c r="J70" s="63">
+      <c r="J70" s="61">
         <v>2007</v>
       </c>
-      <c r="K70" s="63">
+      <c r="K70" s="61">
         <v>2008</v>
       </c>
-      <c r="L70" s="63">
+      <c r="L70" s="61">
         <v>2009</v>
       </c>
-      <c r="M70" s="63">
+      <c r="M70" s="61">
         <v>2010</v>
       </c>
-      <c r="N70" s="63">
+      <c r="N70" s="61">
         <v>2011</v>
       </c>
-      <c r="O70" s="63">
+      <c r="O70" s="61">
         <v>2012</v>
       </c>
-      <c r="P70" s="63">
+      <c r="P70" s="61">
         <v>2013</v>
       </c>
-      <c r="Q70" s="63">
+      <c r="Q70" s="61">
         <v>2014</v>
       </c>
-      <c r="R70" s="63">
+      <c r="R70" s="61">
         <v>2015</v>
       </c>
-      <c r="S70" s="63">
+      <c r="S70" s="61">
         <v>2016</v>
       </c>
-      <c r="T70" s="63">
+      <c r="T70" s="61">
         <v>2017</v>
       </c>
-      <c r="U70" s="63">
+      <c r="U70" s="61">
         <v>2018</v>
       </c>
-      <c r="V70" s="63">
+      <c r="V70" s="61">
         <v>2019</v>
       </c>
-      <c r="W70" s="63">
+      <c r="W70" s="61">
         <v>2020</v>
       </c>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="63" t="s">
+      <c r="X70" s="59"/>
+      <c r="Y70" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="63" t="s">
+    <row r="71" spans="1:25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="66"/>
-      <c r="S71" s="66"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y71" s="67">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y71" s="65">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+    <row r="75" spans="1:25">
+      <c r="A75" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="63">
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="59"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="61">
         <v>2000</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="61">
         <v>2001</v>
       </c>
-      <c r="E76" s="63">
+      <c r="E76" s="61">
         <v>2002</v>
       </c>
-      <c r="F76" s="63">
+      <c r="F76" s="61">
         <v>2003</v>
       </c>
-      <c r="G76" s="63">
+      <c r="G76" s="61">
         <v>2004</v>
       </c>
-      <c r="H76" s="63">
+      <c r="H76" s="61">
         <v>2005</v>
       </c>
-      <c r="I76" s="63">
+      <c r="I76" s="61">
         <v>2006</v>
       </c>
-      <c r="J76" s="63">
+      <c r="J76" s="61">
         <v>2007</v>
       </c>
-      <c r="K76" s="63">
+      <c r="K76" s="61">
         <v>2008</v>
       </c>
-      <c r="L76" s="63">
+      <c r="L76" s="61">
         <v>2009</v>
       </c>
-      <c r="M76" s="63">
+      <c r="M76" s="61">
         <v>2010</v>
       </c>
-      <c r="N76" s="63">
+      <c r="N76" s="61">
         <v>2011</v>
       </c>
-      <c r="O76" s="63">
+      <c r="O76" s="61">
         <v>2012</v>
       </c>
-      <c r="P76" s="63">
+      <c r="P76" s="61">
         <v>2013</v>
       </c>
-      <c r="Q76" s="63">
+      <c r="Q76" s="61">
         <v>2014</v>
       </c>
-      <c r="R76" s="63">
+      <c r="R76" s="61">
         <v>2015</v>
       </c>
-      <c r="S76" s="63">
+      <c r="S76" s="61">
         <v>2016</v>
       </c>
-      <c r="T76" s="63">
+      <c r="T76" s="61">
         <v>2017</v>
       </c>
-      <c r="U76" s="63">
+      <c r="U76" s="61">
         <v>2018</v>
       </c>
-      <c r="V76" s="63">
+      <c r="V76" s="61">
         <v>2019</v>
       </c>
-      <c r="W76" s="63">
+      <c r="W76" s="61">
         <v>2020</v>
       </c>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="63" t="s">
+      <c r="X76" s="59"/>
+      <c r="Y76" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="63" t="s">
+    <row r="77" spans="1:25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y77" s="65">
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="63"/>
+      <c r="W77" s="63"/>
+      <c r="X77" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y77" s="63">
         <v>0.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
-      <c r="S81" s="61"/>
-      <c r="T81" s="61"/>
-      <c r="U81" s="61"/>
-      <c r="V81" s="61"/>
-      <c r="W81" s="61"/>
-      <c r="X81" s="61"/>
-      <c r="Y81" s="61"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="63">
+    <row r="81" spans="1:25">
+      <c r="A81" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="61">
         <v>2000</v>
       </c>
-      <c r="D82" s="63">
+      <c r="D82" s="61">
         <v>2001</v>
       </c>
-      <c r="E82" s="63">
+      <c r="E82" s="61">
         <v>2002</v>
       </c>
-      <c r="F82" s="63">
+      <c r="F82" s="61">
         <v>2003</v>
       </c>
-      <c r="G82" s="63">
+      <c r="G82" s="61">
         <v>2004</v>
       </c>
-      <c r="H82" s="63">
+      <c r="H82" s="61">
         <v>2005</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="61">
         <v>2006</v>
       </c>
-      <c r="J82" s="63">
+      <c r="J82" s="61">
         <v>2007</v>
       </c>
-      <c r="K82" s="63">
+      <c r="K82" s="61">
         <v>2008</v>
       </c>
-      <c r="L82" s="63">
+      <c r="L82" s="61">
         <v>2009</v>
       </c>
-      <c r="M82" s="63">
+      <c r="M82" s="61">
         <v>2010</v>
       </c>
-      <c r="N82" s="63">
+      <c r="N82" s="61">
         <v>2011</v>
       </c>
-      <c r="O82" s="63">
+      <c r="O82" s="61">
         <v>2012</v>
       </c>
-      <c r="P82" s="63">
+      <c r="P82" s="61">
         <v>2013</v>
       </c>
-      <c r="Q82" s="63">
+      <c r="Q82" s="61">
         <v>2014</v>
       </c>
-      <c r="R82" s="63">
+      <c r="R82" s="61">
         <v>2015</v>
       </c>
-      <c r="S82" s="63">
+      <c r="S82" s="61">
         <v>2016</v>
       </c>
-      <c r="T82" s="63">
+      <c r="T82" s="61">
         <v>2017</v>
       </c>
-      <c r="U82" s="63">
+      <c r="U82" s="61">
         <v>2018</v>
       </c>
-      <c r="V82" s="63">
+      <c r="V82" s="61">
         <v>2019</v>
       </c>
-      <c r="W82" s="63">
+      <c r="W82" s="61">
         <v>2020</v>
       </c>
-      <c r="X82" s="61"/>
-      <c r="Y82" s="63" t="s">
+      <c r="X82" s="59"/>
+      <c r="Y82" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="63" t="s">
+    <row r="83" spans="1:25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
-      <c r="S83" s="65"/>
-      <c r="T83" s="65"/>
-      <c r="U83" s="65"/>
-      <c r="V83" s="65"/>
-      <c r="W83" s="65"/>
-      <c r="X83" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y83" s="65">
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="63"/>
+      <c r="T83" s="63"/>
+      <c r="U83" s="63"/>
+      <c r="V83" s="63"/>
+      <c r="W83" s="63"/>
+      <c r="X83" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y83" s="63">
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="61"/>
-      <c r="S87" s="61"/>
-      <c r="T87" s="61"/>
-      <c r="U87" s="61"/>
-      <c r="V87" s="61"/>
-      <c r="W87" s="61"/>
-      <c r="X87" s="61"/>
-      <c r="Y87" s="61"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="63">
+    <row r="87" spans="1:25">
+      <c r="A87" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="61">
         <v>2000</v>
       </c>
-      <c r="D88" s="63">
+      <c r="D88" s="61">
         <v>2001</v>
       </c>
-      <c r="E88" s="63">
+      <c r="E88" s="61">
         <v>2002</v>
       </c>
-      <c r="F88" s="63">
+      <c r="F88" s="61">
         <v>2003</v>
       </c>
-      <c r="G88" s="63">
+      <c r="G88" s="61">
         <v>2004</v>
       </c>
-      <c r="H88" s="63">
+      <c r="H88" s="61">
         <v>2005</v>
       </c>
-      <c r="I88" s="63">
+      <c r="I88" s="61">
         <v>2006</v>
       </c>
-      <c r="J88" s="63">
+      <c r="J88" s="61">
         <v>2007</v>
       </c>
-      <c r="K88" s="63">
+      <c r="K88" s="61">
         <v>2008</v>
       </c>
-      <c r="L88" s="63">
+      <c r="L88" s="61">
         <v>2009</v>
       </c>
-      <c r="M88" s="63">
+      <c r="M88" s="61">
         <v>2010</v>
       </c>
-      <c r="N88" s="63">
+      <c r="N88" s="61">
         <v>2011</v>
       </c>
-      <c r="O88" s="63">
+      <c r="O88" s="61">
         <v>2012</v>
       </c>
-      <c r="P88" s="63">
+      <c r="P88" s="61">
         <v>2013</v>
       </c>
-      <c r="Q88" s="63">
+      <c r="Q88" s="61">
         <v>2014</v>
       </c>
-      <c r="R88" s="63">
+      <c r="R88" s="61">
         <v>2015</v>
       </c>
-      <c r="S88" s="63">
+      <c r="S88" s="61">
         <v>2016</v>
       </c>
-      <c r="T88" s="63">
+      <c r="T88" s="61">
         <v>2017</v>
       </c>
-      <c r="U88" s="63">
+      <c r="U88" s="61">
         <v>2018</v>
       </c>
-      <c r="V88" s="63">
+      <c r="V88" s="61">
         <v>2019</v>
       </c>
-      <c r="W88" s="63">
+      <c r="W88" s="61">
         <v>2020</v>
       </c>
-      <c r="X88" s="61"/>
-      <c r="Y88" s="63" t="s">
+      <c r="X88" s="59"/>
+      <c r="Y88" s="61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="63" t="s">
+    <row r="89" spans="1:25">
+      <c r="A89" s="59"/>
+      <c r="B89" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="65"/>
-      <c r="S89" s="65"/>
-      <c r="T89" s="65"/>
-      <c r="U89" s="65"/>
-      <c r="V89" s="65"/>
-      <c r="W89" s="65"/>
-      <c r="X89" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y89" s="65">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="61"/>
-      <c r="P93" s="61"/>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="61"/>
-      <c r="S93" s="61"/>
-      <c r="T93" s="61"/>
-      <c r="U93" s="61"/>
-      <c r="V93" s="61"/>
-      <c r="W93" s="61"/>
-      <c r="X93" s="61"/>
-      <c r="Y93" s="61"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="63">
-        <v>2000</v>
-      </c>
-      <c r="D94" s="63">
-        <v>2001</v>
-      </c>
-      <c r="E94" s="63">
-        <v>2002</v>
-      </c>
-      <c r="F94" s="63">
-        <v>2003</v>
-      </c>
-      <c r="G94" s="63">
-        <v>2004</v>
-      </c>
-      <c r="H94" s="63">
-        <v>2005</v>
-      </c>
-      <c r="I94" s="63">
-        <v>2006</v>
-      </c>
-      <c r="J94" s="63">
-        <v>2007</v>
-      </c>
-      <c r="K94" s="63">
-        <v>2008</v>
-      </c>
-      <c r="L94" s="63">
-        <v>2009</v>
-      </c>
-      <c r="M94" s="63">
-        <v>2010</v>
-      </c>
-      <c r="N94" s="63">
-        <v>2011</v>
-      </c>
-      <c r="O94" s="63">
-        <v>2012</v>
-      </c>
-      <c r="P94" s="63">
-        <v>2013</v>
-      </c>
-      <c r="Q94" s="63">
-        <v>2014</v>
-      </c>
-      <c r="R94" s="63">
-        <v>2015</v>
-      </c>
-      <c r="S94" s="63">
-        <v>2016</v>
-      </c>
-      <c r="T94" s="63">
-        <v>2017</v>
-      </c>
-      <c r="U94" s="63">
-        <v>2018</v>
-      </c>
-      <c r="V94" s="63">
-        <v>2019</v>
-      </c>
-      <c r="W94" s="63">
-        <v>2020</v>
-      </c>
-      <c r="X94" s="61"/>
-      <c r="Y94" s="63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
-      <c r="S95" s="65"/>
-      <c r="T95" s="65"/>
-      <c r="U95" s="65"/>
-      <c r="V95" s="65"/>
-      <c r="W95" s="65"/>
-      <c r="X95" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y95" s="65">
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="63"/>
+      <c r="T89" s="63"/>
+      <c r="U89" s="63"/>
+      <c r="V89" s="63"/>
+      <c r="W89" s="63"/>
+      <c r="X89" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y89" s="63">
         <v>0.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13839,14 +14029,14 @@
       <selection activeCell="Y52" sqref="Y52:Y53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -13914,7 +14104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -13947,7 +14137,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -13980,7 +14170,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14013,7 +14203,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14046,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14079,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14112,7 +14302,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14145,7 +14335,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14178,7 +14368,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14211,12 +14401,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14284,7 +14474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14317,7 +14507,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14350,7 +14540,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14383,7 +14573,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14416,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14449,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14482,7 +14672,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14515,7 +14705,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14548,7 +14738,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14581,12 +14771,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -14654,7 +14844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14687,7 +14877,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14720,7 +14910,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14753,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14786,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14819,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14852,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14885,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14918,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14951,12 +15141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -15024,7 +15214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15057,7 +15247,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15090,7 +15280,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15123,7 +15313,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15156,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15189,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15222,7 +15412,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15255,7 +15445,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15288,7 +15478,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15321,12 +15511,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15394,7 +15584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15427,7 +15617,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15464,7 +15654,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15497,7 +15687,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15530,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15563,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15600,7 +15790,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15637,7 +15827,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" s="50" customFormat="1">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15670,7 +15860,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" s="50" customFormat="1">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15703,12 +15893,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -15776,7 +15966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15811,7 +16001,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15844,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15877,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15910,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15943,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15976,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16009,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" s="50" customFormat="1">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16042,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="50" customFormat="1">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16075,12 +16265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16148,7 +16338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16181,7 +16371,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16214,7 +16404,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16247,7 +16437,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16280,7 +16470,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" s="50" customFormat="1">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,15 @@
     <sheet name="Population size" sheetId="4" r:id="rId3"/>
     <sheet name="HIV prevalence" sheetId="15" r:id="rId4"/>
     <sheet name="Other epidemiology" sheetId="6" r:id="rId5"/>
-    <sheet name="Optional indicators" sheetId="5" r:id="rId6"/>
-    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId7"/>
+    <sheet name="Testing &amp; treatment" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional indicators" sheetId="5" r:id="rId7"/>
     <sheet name="Cascade" sheetId="16" r:id="rId8"/>
     <sheet name="Sexual behavior" sheetId="8" r:id="rId9"/>
     <sheet name="Injecting behavior" sheetId="9" r:id="rId10"/>
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -112,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="135">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -513,42 +508,10 @@
     <t>Proportion of people on ART with viral suppression (%)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Diagnosed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">PLHIV </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">on treatment </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
+    <t>Diagnosed PLHIV in care (%)</t>
+  </si>
+  <si>
+    <t>PLHIV in care on treatment (%)</t>
   </si>
 </sst>
 </file>
@@ -556,8 +519,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -779,14 +742,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="294">
+  <cellStyleXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -849,7 +812,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1074,8 +1037,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1111,7 +1086,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,12 +1208,6 @@
     <xf numFmtId="169" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1246,8 +1215,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="285"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="1" xfId="285" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="294">
+  <cellStyles count="306">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1374,6 +1361,12 @@
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1533,6 +1526,12 @@
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -1846,34 +1845,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="67"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="67"/>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
     </row>
-    <row r="5" spans="1:1" ht="28">
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>97</v>
       </c>
@@ -1900,14 +1899,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2008,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2041,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2074,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2107,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2140,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2173,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2206,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2239,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2272,12 +2271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2378,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2411,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2444,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2477,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2510,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2543,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2576,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2609,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2642,12 +2641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2766,18 +2765,18 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" style="50" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2815,7 +2814,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2830,7 +2829,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2851,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2868,7 +2867,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2883,7 +2882,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2898,7 +2897,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2919,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2934,7 +2933,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1">
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2955,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1">
+    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2970,12 +2969,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3013,7 +3012,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3028,7 +3027,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3049,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3066,7 +3065,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3081,7 +3080,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3096,7 +3095,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3117,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3132,7 +3131,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="50" customFormat="1">
+    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3153,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="50" customFormat="1">
+    <row r="25" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3168,12 +3167,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3211,7 +3210,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3226,7 +3225,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3243,7 +3242,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3258,7 +3257,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3273,7 +3272,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3288,7 +3287,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3303,7 +3302,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3318,7 +3317,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="50" customFormat="1">
+    <row r="38" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3333,7 +3332,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="50" customFormat="1">
+    <row r="39" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3348,12 +3347,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3391,7 +3390,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3406,7 +3405,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3421,7 +3420,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3436,7 +3435,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3451,7 +3450,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3466,7 +3465,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3481,7 +3480,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3496,7 +3495,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="50" customFormat="1">
+    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3511,7 +3510,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="50" customFormat="1">
+    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3526,12 +3525,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="50" customFormat="1">
+    <row r="57" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="50" customFormat="1">
+    <row r="58" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3569,7 +3568,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="50" customFormat="1">
+    <row r="59" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3588,7 +3587,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="50" customFormat="1">
+    <row r="60" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3603,7 +3602,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="50" customFormat="1">
+    <row r="61" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3622,7 +3621,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="50" customFormat="1">
+    <row r="62" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3637,15 +3636,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="50" customFormat="1"/>
-    <row r="64" spans="1:11" s="50" customFormat="1"/>
-    <row r="65" spans="1:11" s="50" customFormat="1"/>
-    <row r="66" spans="1:11" s="50" customFormat="1">
+    <row r="63" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="50" customFormat="1">
+    <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3683,7 +3682,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="50" customFormat="1">
+    <row r="68" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3698,7 +3697,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="50" customFormat="1">
+    <row r="69" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3713,7 +3712,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1">
+    <row r="70" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3728,7 +3727,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1">
+    <row r="71" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3745,7 +3744,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1">
+    <row r="72" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3762,7 +3761,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="50" customFormat="1">
+    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3779,7 +3778,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1">
+    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3796,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1">
+    <row r="75" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3811,7 +3810,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="50" customFormat="1">
+    <row r="76" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3826,15 +3825,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1"/>
-    <row r="78" spans="1:11" s="50" customFormat="1"/>
-    <row r="79" spans="1:11" s="50" customFormat="1"/>
-    <row r="80" spans="1:11">
+    <row r="77" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3872,7 +3871,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3891,7 +3890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3910,7 +3909,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3925,7 +3924,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3940,7 +3939,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3955,7 +3954,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3970,7 +3969,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3985,7 +3984,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="50" customFormat="1">
+    <row r="89" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -4000,7 +3999,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="50" customFormat="1">
+    <row r="90" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4034,12 +4033,12 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
@@ -4048,7 +4047,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="46" t="s">
@@ -4061,7 +4060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="45" t="s">
         <v>57</v>
@@ -4076,7 +4075,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
         <v>58</v>
@@ -4091,7 +4090,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
@@ -4106,7 +4105,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>60</v>
@@ -4121,7 +4120,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>61</v>
@@ -4136,7 +4135,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
@@ -4151,7 +4150,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>63</v>
@@ -4166,28 +4165,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -4209,7 +4208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>65</v>
@@ -4224,7 +4223,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>66</v>
@@ -4239,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>67</v>
@@ -4254,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>68</v>
@@ -4269,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>69</v>
@@ -4284,7 +4283,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>70</v>
@@ -4299,28 +4298,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -4329,7 +4328,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="46" t="s">
@@ -4342,7 +4341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>72</v>
@@ -4357,7 +4356,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>67</v>
@@ -4372,7 +4371,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>103</v>
@@ -4387,7 +4386,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>73</v>
@@ -4402,7 +4401,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>74</v>
@@ -4417,28 +4416,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>75</v>
       </c>
@@ -4447,7 +4446,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="46" t="s">
@@ -4460,7 +4459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>76</v>
@@ -4475,7 +4474,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>77</v>
@@ -4490,7 +4489,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>78</v>
@@ -4505,7 +4504,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>79</v>
@@ -4520,28 +4519,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="37"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>80</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="46" t="s">
@@ -4563,7 +4562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>65</v>
@@ -4578,7 +4577,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>66</v>
@@ -4593,7 +4592,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>81</v>
@@ -4608,7 +4607,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>68</v>
@@ -4623,7 +4622,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>69</v>
@@ -4642,7 +4641,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>70</v>
@@ -4661,7 +4660,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>82</v>
@@ -4680,7 +4679,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>83</v>
@@ -4699,7 +4698,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="35"/>
@@ -4710,7 +4709,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="37"/>
       <c r="C54" s="35"/>
@@ -4721,7 +4720,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="37"/>
       <c r="C55" s="35"/>
@@ -4732,7 +4731,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>104</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="46" t="s">
@@ -4762,7 +4761,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>84</v>
@@ -4781,7 +4780,7 @@
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>85</v>
@@ -4800,7 +4799,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>86</v>
@@ -4816,7 +4815,7 @@
       </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>100</v>
@@ -4835,7 +4834,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>87</v>
@@ -4854,7 +4853,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>16</v>
@@ -4873,7 +4872,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>88</v>
@@ -4892,7 +4891,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="39"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>105</v>
@@ -4911,7 +4910,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="39"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>106</v>
@@ -4930,7 +4929,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="35"/>
@@ -4941,7 +4940,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
@@ -4952,7 +4951,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
@@ -4963,7 +4962,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
         <v>89</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="46" t="s">
@@ -4995,7 +4994,7 @@
       <c r="I71" s="35"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>90</v>
@@ -5015,7 +5014,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>91</v>
@@ -5034,7 +5033,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>92</v>
@@ -5053,7 +5052,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>93</v>
@@ -5072,7 +5071,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>94</v>
@@ -5091,7 +5090,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>95</v>
@@ -5106,7 +5105,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>96</v>
@@ -5139,20 +5138,20 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="50" customFormat="1">
+    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="50" customFormat="1">
+    <row r="11" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5458,21 +5457,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5574,7 +5573,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5630,7 +5629,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5664,7 +5663,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5698,7 +5697,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5754,7 +5753,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5788,7 +5787,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5822,7 +5821,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5878,7 +5877,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5912,7 +5911,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5925,7 +5924,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5959,7 +5958,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6015,7 +6014,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6049,7 +6048,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6083,7 +6082,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6139,7 +6138,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6173,7 +6172,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6207,7 +6206,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6263,7 +6262,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6297,7 +6296,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6331,7 +6330,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6387,7 +6386,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6421,7 +6420,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6455,7 +6454,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6521,7 +6520,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6555,8 +6554,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6590,7 +6589,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6656,7 +6655,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6690,7 +6689,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="50" customFormat="1"/>
+    <row r="38" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6710,19 +6709,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6830,7 +6829,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6870,7 +6869,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6910,7 +6909,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6944,7 +6943,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6980,7 +6979,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7014,7 +7013,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7050,7 +7049,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7092,7 +7091,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7128,7 +7127,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7162,7 +7161,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7198,7 +7197,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7232,7 +7231,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7266,7 +7265,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7302,7 +7301,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7336,7 +7335,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7370,7 +7369,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7418,7 +7417,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7452,7 +7451,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7486,7 +7485,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7534,7 +7533,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7568,8 +7567,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="50" customFormat="1"/>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="30" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7603,7 +7602,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7642,7 +7641,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7676,8 +7675,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7711,7 +7710,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7750,7 +7749,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7803,14 +7802,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7911,7 +7910,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7944,7 +7943,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7977,7 +7976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8010,7 +8009,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8043,7 +8042,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8076,7 +8075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8109,7 +8108,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8142,7 +8141,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8175,12 +8174,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8281,7 +8280,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8314,7 +8313,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8347,7 +8346,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8380,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8413,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8446,7 +8445,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8479,7 +8478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8512,7 +8511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8545,12 +8544,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8651,7 +8650,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8684,7 +8683,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8717,7 +8716,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8750,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8783,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8816,7 +8815,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="50" customFormat="1">
+    <row r="38" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8882,7 +8881,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="50" customFormat="1">
+    <row r="39" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8928,26 +8927,1486 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="S28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD50"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <v>0.2215</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="9">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="9">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T16" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>616</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1160</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1996</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2122</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2377</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2575</v>
+      </c>
+      <c r="P23" s="4">
+        <v>3308</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T29" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U29" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T43" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V43" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W43" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P49" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S49" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T49" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U49" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V49" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C50" s="21">
+        <v>9.0399361562071207E-2</v>
+      </c>
+      <c r="D50" s="21">
+        <v>9.0352495793761756E-2</v>
+      </c>
+      <c r="E50" s="21">
+        <v>9.0350910505525572E-2</v>
+      </c>
+      <c r="F50" s="21">
+        <v>9.0349112944317439E-2</v>
+      </c>
+      <c r="G50" s="21">
+        <v>9.0292047960886607E-2</v>
+      </c>
+      <c r="H50" s="21">
+        <v>8.3642402217548484E-2</v>
+      </c>
+      <c r="I50" s="21">
+        <v>8.3588880435537666E-2</v>
+      </c>
+      <c r="J50" s="21">
+        <v>8.3422244145891195E-2</v>
+      </c>
+      <c r="K50" s="21">
+        <v>8.3179781995007862E-2</v>
+      </c>
+      <c r="L50" s="21">
+        <v>8.2909632807747047E-2</v>
+      </c>
+      <c r="M50" s="21">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C52" s="21">
+        <v>9.0399361562071207E-2</v>
+      </c>
+      <c r="D52" s="21">
+        <v>9.0352495793761756E-2</v>
+      </c>
+      <c r="E52" s="21">
+        <v>9.0350910505525572E-2</v>
+      </c>
+      <c r="F52" s="21">
+        <v>9.0349112944317439E-2</v>
+      </c>
+      <c r="G52" s="21">
+        <v>9.0292047960886607E-2</v>
+      </c>
+      <c r="H52" s="21">
+        <v>8.3642402217548484E-2</v>
+      </c>
+      <c r="I52" s="21">
+        <v>8.3588880435537666E-2</v>
+      </c>
+      <c r="J52" s="21">
+        <v>8.3422244145891195E-2</v>
+      </c>
+      <c r="K52" s="21">
+        <v>8.3179781995007862E-2</v>
+      </c>
+      <c r="L52" s="21">
+        <v>8.2909632807747047E-2</v>
+      </c>
+      <c r="M52" s="21">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y52" s="8"/>
+    </row>
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R58" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S58" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T58" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U58" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W58" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="22">
+        <v>0.876</v>
+      </c>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y59" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9015,7 +10474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -9059,12 +10518,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -9132,7 +10591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -9166,12 +10625,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -9239,7 +10698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -9297,12 +10756,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -9370,7 +10829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -9428,7 +10887,7 @@
       </c>
       <c r="Y21" s="40"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
@@ -9467,7 +10926,7 @@
       <c r="AH25" s="29"/>
       <c r="AI25" s="29"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="31">
@@ -9568,7 +11027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="31" t="s">
         <v>25</v>
@@ -9609,12 +11068,12 @@
       </c>
       <c r="AI27" s="32"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -9682,7 +11141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -9740,12 +11199,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -9813,7 +11272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -9851,11 +11310,11 @@
       </c>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="42" spans="1:25" s="50" customFormat="1">
-      <c r="A42" s="68" t="s">
+    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
         <v>130</v>
       </c>
       <c r="B42" s="59"/>
@@ -9883,80 +11342,80 @@
       <c r="X42" s="59"/>
       <c r="Y42" s="59"/>
     </row>
-    <row r="43" spans="1:25" s="50" customFormat="1">
+    <row r="43" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="69">
+      <c r="C43" s="67">
         <v>2000</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="67">
         <v>2001</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="67">
         <v>2002</v>
       </c>
-      <c r="F43" s="69">
+      <c r="F43" s="67">
         <v>2003</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G43" s="67">
         <v>2004</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="67">
         <v>2005</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I43" s="67">
         <v>2006</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J43" s="67">
         <v>2007</v>
       </c>
-      <c r="K43" s="69">
+      <c r="K43" s="67">
         <v>2008</v>
       </c>
-      <c r="L43" s="69">
+      <c r="L43" s="67">
         <v>2009</v>
       </c>
-      <c r="M43" s="69">
+      <c r="M43" s="67">
         <v>2010</v>
       </c>
-      <c r="N43" s="69">
+      <c r="N43" s="67">
         <v>2011</v>
       </c>
-      <c r="O43" s="69">
+      <c r="O43" s="67">
         <v>2012</v>
       </c>
-      <c r="P43" s="69">
+      <c r="P43" s="67">
         <v>2013</v>
       </c>
-      <c r="Q43" s="69">
+      <c r="Q43" s="67">
         <v>2014</v>
       </c>
-      <c r="R43" s="69">
+      <c r="R43" s="67">
         <v>2015</v>
       </c>
-      <c r="S43" s="69">
+      <c r="S43" s="67">
         <v>2016</v>
       </c>
-      <c r="T43" s="69">
+      <c r="T43" s="67">
         <v>2017</v>
       </c>
-      <c r="U43" s="69">
+      <c r="U43" s="67">
         <v>2018</v>
       </c>
-      <c r="V43" s="69">
+      <c r="V43" s="67">
         <v>2019</v>
       </c>
-      <c r="W43" s="69">
+      <c r="W43" s="67">
         <v>2020</v>
       </c>
       <c r="X43" s="59"/>
-      <c r="Y43" s="69" t="s">
+      <c r="Y43" s="67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="50" customFormat="1">
+    <row r="44" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="63"/>
@@ -9980,1610 +11439,359 @@
       <c r="U44" s="63"/>
       <c r="V44" s="63"/>
       <c r="W44" s="63"/>
-      <c r="X44" s="70" t="s">
+      <c r="X44" s="68" t="s">
         <v>18</v>
       </c>
       <c r="Y44" s="63"/>
     </row>
-    <row r="45" spans="1:25" s="50" customFormat="1"/>
-    <row r="46" spans="1:25" s="50" customFormat="1"/>
-    <row r="47" spans="1:25" s="50" customFormat="1"/>
-    <row r="48" spans="1:25" s="50" customFormat="1">
-      <c r="A48" s="68" t="s">
+    <row r="45" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
-    </row>
-    <row r="49" spans="1:25" s="50" customFormat="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="69">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70"/>
+    </row>
+    <row r="49" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71">
         <v>2000</v>
       </c>
-      <c r="D49" s="69">
+      <c r="D49" s="71">
         <v>2001</v>
       </c>
-      <c r="E49" s="69">
+      <c r="E49" s="71">
         <v>2002</v>
       </c>
-      <c r="F49" s="69">
+      <c r="F49" s="71">
         <v>2003</v>
       </c>
-      <c r="G49" s="69">
+      <c r="G49" s="71">
         <v>2004</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="71">
         <v>2005</v>
       </c>
-      <c r="I49" s="69">
+      <c r="I49" s="71">
         <v>2006</v>
       </c>
-      <c r="J49" s="69">
+      <c r="J49" s="71">
         <v>2007</v>
       </c>
-      <c r="K49" s="69">
+      <c r="K49" s="71">
         <v>2008</v>
       </c>
-      <c r="L49" s="69">
+      <c r="L49" s="71">
         <v>2009</v>
       </c>
-      <c r="M49" s="69">
+      <c r="M49" s="71">
         <v>2010</v>
       </c>
-      <c r="N49" s="69">
+      <c r="N49" s="71">
         <v>2011</v>
       </c>
-      <c r="O49" s="69">
+      <c r="O49" s="71">
         <v>2012</v>
       </c>
-      <c r="P49" s="69">
+      <c r="P49" s="71">
         <v>2013</v>
       </c>
-      <c r="Q49" s="69">
+      <c r="Q49" s="71">
         <v>2014</v>
       </c>
-      <c r="R49" s="69">
+      <c r="R49" s="71">
         <v>2015</v>
       </c>
-      <c r="S49" s="69">
+      <c r="S49" s="71">
         <v>2016</v>
       </c>
-      <c r="T49" s="69">
+      <c r="T49" s="71">
         <v>2017</v>
       </c>
-      <c r="U49" s="69">
+      <c r="U49" s="71">
         <v>2018</v>
       </c>
-      <c r="V49" s="69">
+      <c r="V49" s="71">
         <v>2019</v>
       </c>
-      <c r="W49" s="69">
+      <c r="W49" s="71">
         <v>2020</v>
       </c>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="69" t="s">
+      <c r="X49" s="70"/>
+      <c r="Y49" s="71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="50" customFormat="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="69" t="s">
+    <row r="50" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
+      <c r="B50" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y50" s="63"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y50" s="73"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="71">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="71">
+        <v>2001</v>
+      </c>
+      <c r="E55" s="71">
+        <v>2002</v>
+      </c>
+      <c r="F55" s="71">
+        <v>2003</v>
+      </c>
+      <c r="G55" s="71">
+        <v>2004</v>
+      </c>
+      <c r="H55" s="71">
+        <v>2005</v>
+      </c>
+      <c r="I55" s="71">
+        <v>2006</v>
+      </c>
+      <c r="J55" s="71">
+        <v>2007</v>
+      </c>
+      <c r="K55" s="71">
+        <v>2008</v>
+      </c>
+      <c r="L55" s="71">
+        <v>2009</v>
+      </c>
+      <c r="M55" s="71">
+        <v>2010</v>
+      </c>
+      <c r="N55" s="71">
+        <v>2011</v>
+      </c>
+      <c r="O55" s="71">
+        <v>2012</v>
+      </c>
+      <c r="P55" s="71">
+        <v>2013</v>
+      </c>
+      <c r="Q55" s="71">
+        <v>2014</v>
+      </c>
+      <c r="R55" s="71">
+        <v>2015</v>
+      </c>
+      <c r="S55" s="71">
+        <v>2016</v>
+      </c>
+      <c r="T55" s="71">
+        <v>2017</v>
+      </c>
+      <c r="U55" s="71">
+        <v>2018</v>
+      </c>
+      <c r="V55" s="71">
+        <v>2019</v>
+      </c>
+      <c r="W55" s="71">
+        <v>2020</v>
+      </c>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y56" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="C2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="B3" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17">
-        <v>0.37</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="9"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="B4" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <v>0.2215</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17">
-        <v>0.35849999999999999</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="9"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="B5" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="9"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="B6" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="B7" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="B8" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
-        <v>0.38650000000000001</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="9">
-        <v>0.46350000000000002</v>
-      </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="B9" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="9">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
-      <c r="B10" s="3" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
-      <c r="B11" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="C16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P16" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T16" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U16" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W16" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="C22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>616</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1160</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1996</v>
-      </c>
-      <c r="M23" s="4">
-        <v>2122</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2377</v>
-      </c>
-      <c r="O23" s="4">
-        <v>2575</v>
-      </c>
-      <c r="P23" s="4">
-        <v>3308</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="C29" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G29" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I29" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K29" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M29" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N29" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O29" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P29" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R29" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S29" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T29" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U29" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V29" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W29" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="B30" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="B31" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="B32" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="B33" s="3" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="B34" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="B35" s="3" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="B36" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="50" customFormat="1">
-      <c r="B37" s="3" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
-      <c r="B38" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="C43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V43" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W43" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="B44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20">
-        <v>0.44</v>
-      </c>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y44" s="4"/>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="C49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="B50" s="3" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C50" s="21">
-        <v>9.0399361562071207E-2</v>
-      </c>
-      <c r="D50" s="21">
-        <v>9.0352495793761756E-2</v>
-      </c>
-      <c r="E50" s="21">
-        <v>9.0350910505525572E-2</v>
-      </c>
-      <c r="F50" s="21">
-        <v>9.0349112944317439E-2</v>
-      </c>
-      <c r="G50" s="21">
-        <v>9.0292047960886607E-2</v>
-      </c>
-      <c r="H50" s="21">
-        <v>8.3642402217548484E-2</v>
-      </c>
-      <c r="I50" s="21">
-        <v>8.3588880435537666E-2</v>
-      </c>
-      <c r="J50" s="21">
-        <v>8.3422244145891195E-2</v>
-      </c>
-      <c r="K50" s="21">
-        <v>8.3179781995007862E-2</v>
-      </c>
-      <c r="L50" s="21">
-        <v>8.2909632807747047E-2</v>
-      </c>
-      <c r="M50" s="21">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y50" s="8"/>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="B51" s="3" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="B52" s="3" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C52" s="21">
-        <v>9.0399361562071207E-2</v>
-      </c>
-      <c r="D52" s="21">
-        <v>9.0352495793761756E-2</v>
-      </c>
-      <c r="E52" s="21">
-        <v>9.0350910505525572E-2</v>
-      </c>
-      <c r="F52" s="21">
-        <v>9.0349112944317439E-2</v>
-      </c>
-      <c r="G52" s="21">
-        <v>9.0292047960886607E-2</v>
-      </c>
-      <c r="H52" s="21">
-        <v>8.3642402217548484E-2</v>
-      </c>
-      <c r="I52" s="21">
-        <v>8.3588880435537666E-2</v>
-      </c>
-      <c r="J52" s="21">
-        <v>8.3422244145891195E-2</v>
-      </c>
-      <c r="K52" s="21">
-        <v>8.3179781995007862E-2</v>
-      </c>
-      <c r="L52" s="21">
-        <v>8.2909632807747047E-2</v>
-      </c>
-      <c r="M52" s="21">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y52" s="8"/>
-    </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
-      <c r="B53" s="3" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="C58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2003</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2006</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2008</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2009</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2010</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2011</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2015</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2016</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2017</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2018</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2019</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2020</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
-      <c r="B59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="22">
-        <v>0.876</v>
-      </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y59" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11591,13 +11799,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD86"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>108</v>
       </c>
@@ -11626,7 +11834,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="50"/>
       <c r="C2" s="52">
@@ -11697,7 +11905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -11731,7 +11939,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -11765,7 +11973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -11799,7 +12007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -11833,7 +12041,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -11867,7 +12075,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -11900,7 +12108,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -11934,7 +12142,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
@@ -11968,7 +12176,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
@@ -12002,7 +12210,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>126</v>
       </c>
@@ -12031,7 +12239,7 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="50"/>
       <c r="C16" s="52">
@@ -12102,7 +12310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12135,7 +12343,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12169,7 +12377,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12203,7 +12411,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12237,7 +12445,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12271,7 +12479,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12304,7 +12512,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12338,7 +12546,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12371,7 +12579,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12404,7 +12612,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>109</v>
       </c>
@@ -12433,7 +12641,7 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="52">
@@ -12504,7 +12712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12538,7 +12746,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12572,7 +12780,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12606,7 +12814,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12640,7 +12848,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12674,7 +12882,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12708,7 +12916,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12742,7 +12950,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12775,7 +12983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12808,7 +13016,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
         <v>110</v>
       </c>
@@ -12837,7 +13045,7 @@
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52">
@@ -12908,7 +13116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12942,7 +13150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12976,7 +13184,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -13010,7 +13218,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -13044,7 +13252,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -13078,7 +13286,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -13112,7 +13320,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -13146,7 +13354,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13179,7 +13387,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13212,7 +13420,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>127</v>
       </c>
@@ -13241,7 +13449,7 @@
       <c r="X57" s="59"/>
       <c r="Y57" s="59"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="61">
@@ -13312,7 +13520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="61" t="s">
         <v>36</v>
@@ -13345,7 +13553,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>107</v>
       </c>
@@ -13374,7 +13582,7 @@
       <c r="X63" s="59"/>
       <c r="Y63" s="59"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="61">
@@ -13445,7 +13653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="61" t="s">
         <v>36</v>
@@ -13478,7 +13686,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
         <v>128</v>
       </c>
@@ -13507,7 +13715,7 @@
       <c r="X69" s="59"/>
       <c r="Y69" s="59"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="61">
@@ -13578,7 +13786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="59"/>
       <c r="B71" s="61" t="s">
         <v>36</v>
@@ -13611,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
         <v>129</v>
       </c>
@@ -13640,7 +13848,7 @@
       <c r="X75" s="59"/>
       <c r="Y75" s="59"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="61">
@@ -13711,7 +13919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="59"/>
       <c r="B77" s="61" t="s">
         <v>36</v>
@@ -13744,7 +13952,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
         <v>131</v>
       </c>
@@ -13773,7 +13981,7 @@
       <c r="X81" s="59"/>
       <c r="Y81" s="59"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="61">
@@ -13844,7 +14052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="59"/>
       <c r="B83" s="61" t="s">
         <v>36</v>
@@ -13877,7 +14085,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
         <v>132</v>
       </c>
@@ -13906,7 +14114,7 @@
       <c r="X87" s="59"/>
       <c r="Y87" s="59"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="61">
@@ -13977,7 +14185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="59"/>
       <c r="B89" s="61" t="s">
         <v>36</v>
@@ -14029,14 +14237,14 @@
       <selection activeCell="Y52" sqref="Y52:Y53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -14104,7 +14312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14137,7 +14345,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14170,7 +14378,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14203,7 +14411,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14236,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14269,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14302,7 +14510,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14335,7 +14543,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14368,7 +14576,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14401,12 +14609,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14474,7 +14682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14507,7 +14715,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14540,7 +14748,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14573,7 +14781,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14606,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14639,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14672,7 +14880,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14705,7 +14913,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14738,7 +14946,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14771,12 +14979,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -14844,7 +15052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14877,7 +15085,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14910,7 +15118,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14943,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14976,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15009,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15042,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15075,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15108,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15141,12 +15349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -15214,7 +15422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15247,7 +15455,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15280,7 +15488,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15313,7 +15521,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15346,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15379,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15412,7 +15620,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15445,7 +15653,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15478,7 +15686,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15511,12 +15719,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15584,7 +15792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15617,7 +15825,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15654,7 +15862,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15687,7 +15895,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15720,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15753,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15790,7 +15998,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15827,7 +16035,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="50" customFormat="1">
+    <row r="66" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15860,7 +16068,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="50" customFormat="1">
+    <row r="67" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15893,12 +16101,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -15966,7 +16174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -16001,7 +16209,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16034,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16067,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16100,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -16133,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16166,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16199,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="50" customFormat="1">
+    <row r="80" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16232,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="50" customFormat="1">
+    <row r="81" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16265,12 +16473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16338,7 +16546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16371,7 +16579,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16404,7 +16612,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16437,7 +16645,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16470,7 +16678,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="50" customFormat="1">
+    <row r="91" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -519,8 +524,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -744,12 +749,12 @@
   </borders>
   <cellStyleXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -812,7 +817,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1086,7 +1091,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,34 +1850,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="76"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="76"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="25"/>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="28">
       <c r="A5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="25"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="26" t="s">
         <v>97</v>
       </c>
@@ -1899,14 +1904,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2007,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2040,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2073,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2106,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2139,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2172,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2238,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2271,12 +2276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2344,7 +2349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2377,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2410,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2443,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2476,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2509,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2542,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2575,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2608,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2641,12 +2646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2765,18 +2770,18 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="50" customWidth="1"/>
+    <col min="3" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2814,7 +2819,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2829,7 +2834,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2850,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2867,7 +2872,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2882,7 +2887,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2897,7 +2902,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2918,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2933,7 +2938,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2954,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2969,12 +2974,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3012,7 +3017,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3027,7 +3032,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3048,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3065,7 +3070,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3080,7 +3085,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3095,7 +3100,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3116,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3131,7 +3136,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3152,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3167,12 +3172,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3210,7 +3215,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3225,7 +3230,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3242,7 +3247,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3257,7 +3262,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3272,7 +3277,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3287,7 +3292,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3302,7 +3307,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3317,7 +3322,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3332,7 +3337,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3347,12 +3352,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3390,7 +3395,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3405,7 +3410,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3420,7 +3425,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3435,7 +3440,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3450,7 +3455,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3465,7 +3470,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3480,7 +3485,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3495,7 +3500,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3510,7 +3515,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3525,12 +3530,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="50" customFormat="1">
       <c r="A57" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="50" customFormat="1">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3568,7 +3573,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="50" customFormat="1">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3587,7 +3592,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="50" customFormat="1">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3602,7 +3607,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="50" customFormat="1">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3621,7 +3626,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="50" customFormat="1">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3636,15 +3641,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="50" customFormat="1"/>
+    <row r="64" spans="1:11" s="50" customFormat="1"/>
+    <row r="65" spans="1:11" s="50" customFormat="1"/>
+    <row r="66" spans="1:11" s="50" customFormat="1">
       <c r="A66" s="51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="50" customFormat="1">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3682,7 +3687,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="50" customFormat="1">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3697,7 +3702,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="50" customFormat="1">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3712,7 +3717,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="50" customFormat="1">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3727,7 +3732,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="50" customFormat="1">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3744,7 +3749,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="50" customFormat="1">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3761,7 +3766,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="50" customFormat="1">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3778,7 +3783,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="50" customFormat="1">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3795,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="50" customFormat="1">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3810,7 +3815,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="50" customFormat="1">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3825,15 +3830,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="50" customFormat="1"/>
+    <row r="78" spans="1:11" s="50" customFormat="1"/>
+    <row r="79" spans="1:11" s="50" customFormat="1"/>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3871,7 +3876,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3890,7 +3895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3909,7 +3914,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3924,7 +3929,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3939,7 +3944,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3954,7 +3959,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3969,7 +3974,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3984,7 +3989,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" s="50" customFormat="1">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3999,7 +4004,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" s="50" customFormat="1">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4033,12 +4038,12 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
@@ -4047,7 +4052,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="46" t="s">
@@ -4060,7 +4065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="43"/>
       <c r="B3" s="45" t="s">
         <v>57</v>
@@ -4075,7 +4080,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
         <v>58</v>
@@ -4090,7 +4095,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
@@ -4105,7 +4110,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>60</v>
@@ -4120,7 +4125,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>61</v>
@@ -4135,7 +4140,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
@@ -4150,7 +4155,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>63</v>
@@ -4165,28 +4170,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +4200,7 @@
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -4208,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>65</v>
@@ -4223,7 +4228,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>66</v>
@@ -4238,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>67</v>
@@ -4253,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>68</v>
@@ -4268,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>69</v>
@@ -4283,7 +4288,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>70</v>
@@ -4298,28 +4303,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -4328,7 +4333,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="46" t="s">
@@ -4341,7 +4346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>72</v>
@@ -4356,7 +4361,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>67</v>
@@ -4371,7 +4376,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>103</v>
@@ -4386,7 +4391,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>73</v>
@@ -4401,7 +4406,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>74</v>
@@ -4416,28 +4421,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="44" t="s">
         <v>75</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="46" t="s">
@@ -4459,7 +4464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>76</v>
@@ -4474,7 +4479,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>77</v>
@@ -4489,7 +4494,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>78</v>
@@ -4504,7 +4509,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>79</v>
@@ -4519,28 +4524,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="35"/>
       <c r="B42" s="37"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="44" t="s">
         <v>80</v>
       </c>
@@ -4549,7 +4554,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="46" t="s">
@@ -4562,7 +4567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>65</v>
@@ -4577,7 +4582,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>66</v>
@@ -4592,7 +4597,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>81</v>
@@ -4607,7 +4612,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>68</v>
@@ -4622,7 +4627,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>69</v>
@@ -4641,7 +4646,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>70</v>
@@ -4660,7 +4665,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>82</v>
@@ -4679,7 +4684,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>83</v>
@@ -4698,7 +4703,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="35"/>
@@ -4709,7 +4714,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="35"/>
       <c r="B54" s="37"/>
       <c r="C54" s="35"/>
@@ -4720,7 +4725,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="35"/>
       <c r="B55" s="37"/>
       <c r="C55" s="35"/>
@@ -4731,7 +4736,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="44" t="s">
         <v>104</v>
       </c>
@@ -4744,7 +4749,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="46" t="s">
@@ -4761,7 +4766,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>84</v>
@@ -4780,7 +4785,7 @@
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>85</v>
@@ -4799,7 +4804,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>86</v>
@@ -4815,7 +4820,7 @@
       </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>100</v>
@@ -4834,7 +4839,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>87</v>
@@ -4853,7 +4858,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>16</v>
@@ -4872,7 +4877,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>88</v>
@@ -4891,7 +4896,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="39"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>105</v>
@@ -4910,7 +4915,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="39"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>106</v>
@@ -4929,7 +4934,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="35"/>
@@ -4940,7 +4945,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
@@ -4951,7 +4956,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="35"/>
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
@@ -4962,7 +4967,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="44" t="s">
         <v>89</v>
       </c>
@@ -4976,7 +4981,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="46" t="s">
@@ -4994,7 +4999,7 @@
       <c r="I71" s="35"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>90</v>
@@ -5014,7 +5019,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>91</v>
@@ -5033,7 +5038,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>92</v>
@@ -5052,7 +5057,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>93</v>
@@ -5071,7 +5076,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>94</v>
@@ -5090,7 +5095,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>95</v>
@@ -5105,7 +5110,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>96</v>
@@ -5138,20 +5143,20 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5206,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -5293,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -5322,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="50" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5409,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="50" customFormat="1">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5457,21 +5462,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5539,7 +5544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5573,7 +5578,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5629,7 +5634,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5663,7 +5668,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5697,7 +5702,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5753,7 +5758,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5787,7 +5792,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5821,7 +5826,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5877,7 +5882,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5911,7 +5916,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5924,7 +5929,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5958,7 +5963,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6014,7 +6019,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6048,7 +6053,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6082,7 +6087,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6138,7 +6143,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6172,7 +6177,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6206,7 +6211,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6262,7 +6267,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6296,7 +6301,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6330,7 +6335,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6386,7 +6391,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6420,7 +6425,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="50" customFormat="1">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6454,7 +6459,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="50" customFormat="1">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6520,7 +6525,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" s="50" customFormat="1">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6554,8 +6559,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="50" customFormat="1"/>
+    <row r="35" spans="2:26" s="50" customFormat="1">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6589,7 +6594,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" s="50" customFormat="1">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6655,7 +6660,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6689,7 +6694,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:26" s="50" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6709,19 +6714,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6829,7 +6834,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6869,7 +6874,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6909,7 +6914,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6943,7 +6948,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6979,7 +6984,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7013,7 +7018,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7049,7 +7054,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7091,7 +7096,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7127,7 +7132,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7161,7 +7166,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7197,7 +7202,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7231,7 +7236,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7265,7 +7270,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7301,7 +7306,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7335,7 +7340,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7369,7 +7374,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7417,7 +7422,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7451,7 +7456,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7485,7 +7490,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7533,7 +7538,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7567,8 +7572,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="50" customFormat="1"/>
+    <row r="31" spans="2:26" s="50" customFormat="1">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7602,7 +7607,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="50" customFormat="1">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7641,7 +7646,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" s="50" customFormat="1">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7675,8 +7680,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="50" customFormat="1"/>
+    <row r="35" spans="2:26" s="50" customFormat="1">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7710,7 +7715,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" s="50" customFormat="1">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7749,7 +7754,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7802,14 +7807,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7877,7 +7882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7910,7 +7915,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7943,7 +7948,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7976,7 +7981,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8009,7 +8014,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8042,7 +8047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8075,7 +8080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8108,7 +8113,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8141,7 +8146,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8174,12 +8179,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8280,7 +8285,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8313,7 +8318,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8346,7 +8351,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8379,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8412,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8445,7 +8450,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8478,7 +8483,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8511,7 +8516,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8544,12 +8549,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8617,7 +8622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8650,7 +8655,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8683,7 +8688,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8749,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8782,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8815,7 +8820,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8881,7 +8886,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8933,14 +8938,14 @@
       <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9008,7 +9013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9043,7 +9048,7 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9080,7 +9085,7 @@
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9113,7 +9118,7 @@
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9146,7 +9151,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9179,7 +9184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9216,7 +9221,7 @@
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9253,7 +9258,7 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9286,7 +9291,7 @@
       </c>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9319,12 +9324,12 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -9392,7 +9397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -9424,12 +9429,12 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="C22" s="3">
         <v>2000</v>
       </c>
@@ -9497,7 +9502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -9545,12 +9550,12 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="C29" s="3">
         <v>2000</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9651,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9684,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9717,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9750,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9783,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9816,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9849,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="50" customFormat="1">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9882,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9915,12 +9920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="C43" s="3">
         <v>2000</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
@@ -10022,12 +10027,12 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="C49" s="3">
         <v>2000</v>
       </c>
@@ -10095,7 +10100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10148,7 +10153,7 @@
       </c>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10181,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10234,7 +10239,7 @@
       </c>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10267,12 +10272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -10340,7 +10345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
@@ -10387,26 +10392,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875"/>
-    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -10518,12 +10521,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -10625,12 +10628,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -10756,12 +10759,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -10829,7 +10832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -10887,7 +10890,7 @@
       </c>
       <c r="Y21" s="40"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
@@ -10926,7 +10929,7 @@
       <c r="AH25" s="29"/>
       <c r="AI25" s="29"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="31">
@@ -11027,7 +11030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="29"/>
       <c r="B27" s="31" t="s">
         <v>25</v>
@@ -11068,12 +11071,12 @@
       </c>
       <c r="AI27" s="32"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -11141,7 +11144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -11199,12 +11202,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -11310,10 +11313,10 @@
       </c>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
+    <row r="42" spans="1:25" s="50" customFormat="1">
       <c r="A42" s="66" t="s">
         <v>130</v>
       </c>
@@ -11342,7 +11345,7 @@
       <c r="X42" s="59"/>
       <c r="Y42" s="59"/>
     </row>
-    <row r="43" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="50" customFormat="1">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="67">
@@ -11413,7 +11416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="50" customFormat="1">
       <c r="A44" s="59"/>
       <c r="B44" s="67" t="s">
         <v>36</v>
@@ -11444,10 +11447,10 @@
       </c>
       <c r="Y44" s="63"/>
     </row>
-    <row r="45" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="50" customFormat="1"/>
+    <row r="46" spans="1:25" s="50" customFormat="1"/>
+    <row r="47" spans="1:25" s="50" customFormat="1"/>
+    <row r="48" spans="1:25" s="50" customFormat="1">
       <c r="A48" s="74" t="s">
         <v>133</v>
       </c>
@@ -11476,7 +11479,7 @@
       <c r="X48" s="70"/>
       <c r="Y48" s="70"/>
     </row>
-    <row r="49" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="50" customFormat="1">
       <c r="A49" s="70"/>
       <c r="B49" s="70"/>
       <c r="C49" s="71">
@@ -11547,7 +11550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="50" customFormat="1">
       <c r="A50" s="70"/>
       <c r="B50" s="71" t="s">
         <v>36</v>
@@ -11578,7 +11581,7 @@
       </c>
       <c r="Y50" s="73"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="69"/>
       <c r="B51" s="69"/>
       <c r="C51" s="69"/>
@@ -11605,7 +11608,7 @@
       <c r="X51" s="69"/>
       <c r="Y51" s="69"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="69"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
@@ -11632,7 +11635,7 @@
       <c r="X52" s="69"/>
       <c r="Y52" s="69"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" s="69"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69"/>
@@ -11659,7 +11662,7 @@
       <c r="X53" s="69"/>
       <c r="Y53" s="69"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" s="74" t="s">
         <v>134</v>
       </c>
@@ -11688,7 +11691,7 @@
       <c r="X54" s="70"/>
       <c r="Y54" s="70"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" s="70"/>
       <c r="B55" s="70"/>
       <c r="C55" s="71">
@@ -11759,7 +11762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" s="70"/>
       <c r="B56" s="71" t="s">
         <v>36</v>
@@ -11792,6 +11795,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11803,9 +11811,9 @@
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="58" t="s">
         <v>108</v>
       </c>
@@ -11834,7 +11842,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="57"/>
       <c r="B2" s="50"/>
       <c r="C2" s="52">
@@ -11905,7 +11913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="57"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -11939,7 +11947,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="57"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -11973,7 +11981,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="50"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12007,7 +12015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="50"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12041,7 +12049,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12075,7 +12083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12108,7 +12116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="57"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12142,7 +12150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="A10" s="57"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
@@ -12176,7 +12184,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="A11" s="57"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
@@ -12210,7 +12218,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="58" t="s">
         <v>126</v>
       </c>
@@ -12239,7 +12247,7 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="57"/>
       <c r="B16" s="50"/>
       <c r="C16" s="52">
@@ -12310,7 +12318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12343,7 +12351,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="57"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12377,7 +12385,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="50"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12411,7 +12419,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="50"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12445,7 +12453,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12479,7 +12487,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12512,7 +12520,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="50"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12546,7 +12554,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12579,7 +12587,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12612,7 +12620,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="58" t="s">
         <v>109</v>
       </c>
@@ -12641,7 +12649,7 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="52">
@@ -12712,7 +12720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="50"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12746,7 +12754,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="50"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12780,7 +12788,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="50"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12814,7 +12822,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="50"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12848,7 +12856,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12882,7 +12890,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12916,7 +12924,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12950,7 +12958,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12983,7 +12991,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13016,7 +13024,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="58" t="s">
         <v>110</v>
       </c>
@@ -13045,7 +13053,7 @@
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52">
@@ -13116,7 +13124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -13150,7 +13158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -13184,7 +13192,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -13218,7 +13226,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -13252,7 +13260,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="50"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -13286,7 +13294,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -13320,7 +13328,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -13354,7 +13362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13387,7 +13395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13420,7 +13428,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="60" t="s">
         <v>127</v>
       </c>
@@ -13449,7 +13457,7 @@
       <c r="X57" s="59"/>
       <c r="Y57" s="59"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="61">
@@ -13520,7 +13528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" s="59"/>
       <c r="B59" s="61" t="s">
         <v>36</v>
@@ -13553,7 +13561,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="60" t="s">
         <v>107</v>
       </c>
@@ -13582,7 +13590,7 @@
       <c r="X63" s="59"/>
       <c r="Y63" s="59"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="61">
@@ -13653,7 +13661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="59"/>
       <c r="B65" s="61" t="s">
         <v>36</v>
@@ -13686,7 +13694,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="60" t="s">
         <v>128</v>
       </c>
@@ -13715,7 +13723,7 @@
       <c r="X69" s="59"/>
       <c r="Y69" s="59"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="61">
@@ -13786,7 +13794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="59"/>
       <c r="B71" s="61" t="s">
         <v>36</v>
@@ -13819,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="60" t="s">
         <v>129</v>
       </c>
@@ -13848,7 +13856,7 @@
       <c r="X75" s="59"/>
       <c r="Y75" s="59"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="61">
@@ -13919,7 +13927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" s="59"/>
       <c r="B77" s="61" t="s">
         <v>36</v>
@@ -13952,7 +13960,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" s="60" t="s">
         <v>131</v>
       </c>
@@ -13981,7 +13989,7 @@
       <c r="X81" s="59"/>
       <c r="Y81" s="59"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="61">
@@ -14052,7 +14060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="59"/>
       <c r="B83" s="61" t="s">
         <v>36</v>
@@ -14085,7 +14093,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" s="60" t="s">
         <v>132</v>
       </c>
@@ -14114,7 +14122,7 @@
       <c r="X87" s="59"/>
       <c r="Y87" s="59"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="61">
@@ -14185,7 +14193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" s="59"/>
       <c r="B89" s="61" t="s">
         <v>36</v>
@@ -14233,18 +14241,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52:Y53"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -14312,7 +14320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14345,7 +14353,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14378,7 +14386,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14411,7 +14419,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14444,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14477,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14510,7 +14518,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14543,7 +14551,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="50" customFormat="1">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14576,7 +14584,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="50" customFormat="1">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14609,12 +14617,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14682,7 +14690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14715,7 +14723,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14748,7 +14756,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14781,7 +14789,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14814,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14847,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14880,7 +14888,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14913,7 +14921,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="50" customFormat="1">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14946,7 +14954,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="50" customFormat="1">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14979,12 +14987,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -15052,7 +15060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15085,7 +15093,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15118,7 +15126,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15151,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15184,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15217,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15250,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15283,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="50" customFormat="1">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15316,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="50" customFormat="1">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15349,12 +15357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -15422,7 +15430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15455,7 +15463,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15488,7 +15496,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15521,7 +15529,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15554,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15587,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15620,7 +15628,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15653,7 +15661,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="50" customFormat="1">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15686,7 +15694,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="50" customFormat="1">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15719,12 +15727,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15792,7 +15800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15825,7 +15833,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15862,7 +15870,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15895,7 +15903,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15928,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15961,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15998,7 +16006,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16035,7 +16043,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" s="50" customFormat="1">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16068,7 +16076,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" s="50" customFormat="1">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16101,12 +16109,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -16174,7 +16182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -16209,7 +16217,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16242,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16275,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16308,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -16341,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16374,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16407,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" s="50" customFormat="1">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16440,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="50" customFormat="1">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16473,12 +16481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16546,7 +16554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16562,7 +16570,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -16579,7 +16587,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16595,7 +16603,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -16612,7 +16620,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16628,7 +16636,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -16645,7 +16653,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16661,7 +16669,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
@@ -16678,7 +16686,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" s="50" customFormat="1">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16694,7 +16702,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -477,9 +477,6 @@
     <t>F 50+</t>
   </si>
   <si>
-    <t>Males 15-49</t>
-  </si>
-  <si>
     <t>Females 15-49</t>
   </si>
   <si>
@@ -518,14 +515,17 @@
   <si>
     <t>PLHIV in care on treatment (%)</t>
   </si>
+  <si>
+    <t>Males 15-49kk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -749,12 +749,12 @@
   </borders>
   <cellStyleXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -817,7 +817,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1091,7 +1091,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,34 +1850,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
     </row>
-    <row r="5" spans="1:1" ht="28">
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>97</v>
       </c>
@@ -1904,14 +1904,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2276,12 +2276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2646,12 +2646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2770,18 +2770,18 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" style="50" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2819,7 +2819,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2834,7 +2834,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2872,7 +2872,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2887,7 +2887,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2902,7 +2902,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2938,7 +2938,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1">
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2959,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1">
+    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2974,12 +2974,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3017,7 +3017,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3032,7 +3032,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3070,7 +3070,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3085,7 +3085,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3100,7 +3100,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3136,7 +3136,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="50" customFormat="1">
+    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="50" customFormat="1">
+    <row r="25" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3172,12 +3172,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3215,7 +3215,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3230,7 +3230,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3247,7 +3247,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3262,7 +3262,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3277,7 +3277,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3292,7 +3292,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3307,7 +3307,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3322,7 +3322,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="50" customFormat="1">
+    <row r="38" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3337,7 +3337,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="50" customFormat="1">
+    <row r="39" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3352,12 +3352,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3395,7 +3395,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3410,7 +3410,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3425,7 +3425,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3440,7 +3440,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3455,7 +3455,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3470,7 +3470,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3485,7 +3485,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3500,7 +3500,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="50" customFormat="1">
+    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3515,7 +3515,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="50" customFormat="1">
+    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3530,12 +3530,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="50" customFormat="1">
+    <row r="57" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="50" customFormat="1">
+    <row r="58" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3573,7 +3573,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="50" customFormat="1">
+    <row r="59" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3592,7 +3592,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="50" customFormat="1">
+    <row r="60" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3607,7 +3607,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="50" customFormat="1">
+    <row r="61" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3626,7 +3626,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="50" customFormat="1">
+    <row r="62" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3641,15 +3641,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="50" customFormat="1"/>
-    <row r="64" spans="1:11" s="50" customFormat="1"/>
-    <row r="65" spans="1:11" s="50" customFormat="1"/>
-    <row r="66" spans="1:11" s="50" customFormat="1">
+    <row r="63" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="50" customFormat="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3687,7 +3687,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="50" customFormat="1">
+    <row r="68" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3702,7 +3702,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="50" customFormat="1">
+    <row r="69" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3717,7 +3717,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1">
+    <row r="70" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3732,7 +3732,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1">
+    <row r="71" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3749,7 +3749,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1">
+    <row r="72" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3766,7 +3766,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="50" customFormat="1">
+    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1">
+    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1">
+    <row r="75" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3815,7 +3815,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="50" customFormat="1">
+    <row r="76" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3830,15 +3830,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1"/>
-    <row r="78" spans="1:11" s="50" customFormat="1"/>
-    <row r="79" spans="1:11" s="50" customFormat="1"/>
-    <row r="80" spans="1:11">
+    <row r="77" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3876,7 +3876,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3895,7 +3895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3929,7 +3929,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3944,7 +3944,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3959,7 +3959,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3974,7 +3974,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3989,7 +3989,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="50" customFormat="1">
+    <row r="89" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -4004,7 +4004,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="50" customFormat="1">
+    <row r="90" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4038,12 +4038,12 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="46" t="s">
@@ -4065,7 +4065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="45" t="s">
         <v>57</v>
@@ -4080,7 +4080,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="45" t="s">
         <v>58</v>
@@ -4095,7 +4095,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="45" t="s">
         <v>59</v>
@@ -4110,7 +4110,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>60</v>
@@ -4125,7 +4125,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>61</v>
@@ -4140,7 +4140,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
@@ -4155,7 +4155,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>63</v>
@@ -4170,28 +4170,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -4213,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>65</v>
@@ -4228,7 +4228,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>66</v>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>67</v>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>68</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>69</v>
@@ -4288,7 +4288,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>70</v>
@@ -4303,28 +4303,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="46" t="s">
@@ -4346,7 +4346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>72</v>
@@ -4361,7 +4361,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>67</v>
@@ -4376,7 +4376,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>103</v>
@@ -4391,7 +4391,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>73</v>
@@ -4406,7 +4406,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>74</v>
@@ -4421,28 +4421,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>75</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="46" t="s">
@@ -4464,7 +4464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>76</v>
@@ -4479,7 +4479,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>77</v>
@@ -4494,7 +4494,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>78</v>
@@ -4509,7 +4509,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>79</v>
@@ -4524,28 +4524,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="37"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="37"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="37"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>80</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="46" t="s">
@@ -4567,7 +4567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>65</v>
@@ -4582,7 +4582,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>66</v>
@@ -4597,7 +4597,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>81</v>
@@ -4612,7 +4612,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>68</v>
@@ -4627,7 +4627,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>69</v>
@@ -4646,7 +4646,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>70</v>
@@ -4665,7 +4665,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>82</v>
@@ -4684,7 +4684,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>83</v>
@@ -4703,7 +4703,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="35"/>
@@ -4714,7 +4714,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="37"/>
       <c r="C54" s="35"/>
@@ -4725,7 +4725,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="37"/>
       <c r="C55" s="35"/>
@@ -4736,7 +4736,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>104</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="46" t="s">
@@ -4766,7 +4766,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>84</v>
@@ -4785,7 +4785,7 @@
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>85</v>
@@ -4804,7 +4804,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>86</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="F60" s="35"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>100</v>
@@ -4839,7 +4839,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>87</v>
@@ -4858,7 +4858,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>16</v>
@@ -4877,7 +4877,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>88</v>
@@ -4896,7 +4896,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="39"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>105</v>
@@ -4915,7 +4915,7 @@
       <c r="H65" s="39"/>
       <c r="I65" s="39"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>106</v>
@@ -4934,7 +4934,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="35"/>
@@ -4945,7 +4945,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
@@ -4956,7 +4956,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
@@ -4967,7 +4967,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
         <v>89</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="46" t="s">
@@ -4999,7 +4999,7 @@
       <c r="I71" s="35"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>90</v>
@@ -5019,7 +5019,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>91</v>
@@ -5038,7 +5038,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>92</v>
@@ -5057,7 +5057,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>93</v>
@@ -5076,7 +5076,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>94</v>
@@ -5095,7 +5095,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>95</v>
@@ -5110,7 +5110,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>96</v>
@@ -5139,24 +5139,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5269,9 +5269,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>101</v>
@@ -5298,9 +5298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>102</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="50" customFormat="1">
+    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="50" customFormat="1">
+    <row r="11" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -5462,21 +5462,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5929,7 +5929,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6559,8 +6559,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="50" customFormat="1"/>
+    <row r="38" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6714,19 +6714,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6984,7 +6984,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7202,7 +7202,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7306,7 +7306,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7572,8 +7572,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="50" customFormat="1"/>
-    <row r="31" spans="2:26" s="50" customFormat="1">
+    <row r="30" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="50" customFormat="1">
+    <row r="32" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7646,7 +7646,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="50" customFormat="1">
+    <row r="33" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7680,8 +7680,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="50" customFormat="1"/>
-    <row r="35" spans="2:26" s="50" customFormat="1">
+    <row r="34" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="50" customFormat="1">
+    <row r="36" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7754,7 +7754,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="50" customFormat="1">
+    <row r="37" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7807,14 +7807,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7915,7 +7915,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7948,7 +7948,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7981,7 +7981,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8014,7 +8014,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8047,7 +8047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8080,7 +8080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8113,7 +8113,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8146,7 +8146,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8179,12 +8179,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8318,7 +8318,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8450,7 +8450,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8483,7 +8483,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8516,7 +8516,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8549,12 +8549,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="50" customFormat="1">
+    <row r="38" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="50" customFormat="1">
+    <row r="39" spans="2:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8938,14 +8938,14 @@
       <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9151,7 +9151,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9184,7 +9184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9324,12 +9324,12 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -9429,12 +9429,12 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>2000</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -9550,12 +9550,12 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>2000</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="50" customFormat="1">
+    <row r="37" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9920,12 +9920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>2000</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
@@ -10027,12 +10027,12 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>2000</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10272,12 +10272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
@@ -10396,20 +10396,20 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -10759,12 +10759,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="Y21" s="40"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="AH25" s="29"/>
       <c r="AI25" s="29"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="31">
@@ -11030,7 +11030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="31" t="s">
         <v>25</v>
@@ -11071,12 +11071,12 @@
       </c>
       <c r="AI27" s="32"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -11202,12 +11202,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -11313,12 +11313,12 @@
       </c>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1"/>
-    <row r="42" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -11345,7 +11345,7 @@
       <c r="X42" s="59"/>
       <c r="Y42" s="59"/>
     </row>
-    <row r="43" spans="1:25" s="50" customFormat="1">
+    <row r="43" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="67">
@@ -11416,7 +11416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="50" customFormat="1">
+    <row r="44" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="67" t="s">
         <v>36</v>
@@ -11447,12 +11447,12 @@
       </c>
       <c r="Y44" s="63"/>
     </row>
-    <row r="45" spans="1:25" s="50" customFormat="1"/>
-    <row r="46" spans="1:25" s="50" customFormat="1"/>
-    <row r="47" spans="1:25" s="50" customFormat="1"/>
-    <row r="48" spans="1:25" s="50" customFormat="1">
+    <row r="45" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -11479,7 +11479,7 @@
       <c r="X48" s="70"/>
       <c r="Y48" s="70"/>
     </row>
-    <row r="49" spans="1:25" s="50" customFormat="1">
+    <row r="49" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
       <c r="B49" s="70"/>
       <c r="C49" s="71">
@@ -11550,7 +11550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="50" customFormat="1">
+    <row r="50" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
       <c r="B50" s="71" t="s">
         <v>36</v>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="Y50" s="73"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="69"/>
       <c r="B51" s="69"/>
       <c r="C51" s="69"/>
@@ -11608,7 +11608,7 @@
       <c r="X51" s="69"/>
       <c r="Y51" s="69"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="69"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
@@ -11635,7 +11635,7 @@
       <c r="X52" s="69"/>
       <c r="Y52" s="69"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="69"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69"/>
@@ -11662,9 +11662,9 @@
       <c r="X53" s="69"/>
       <c r="Y53" s="69"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="70"/>
       <c r="C54" s="70"/>
@@ -11691,7 +11691,7 @@
       <c r="X54" s="70"/>
       <c r="Y54" s="70"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="70"/>
       <c r="B55" s="70"/>
       <c r="C55" s="71">
@@ -11762,7 +11762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="70"/>
       <c r="B56" s="71" t="s">
         <v>36</v>
@@ -11811,9 +11811,9 @@
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>108</v>
       </c>
@@ -11842,7 +11842,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="50"/>
       <c r="C2" s="52">
@@ -11913,7 +11913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -11947,7 +11947,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -11981,7 +11981,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12015,7 +12015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12049,7 +12049,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12083,7 +12083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12116,7 +12116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12150,7 +12150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
@@ -12184,7 +12184,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
@@ -12218,9 +12218,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -12247,7 +12247,7 @@
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="50"/>
       <c r="C16" s="52">
@@ -12318,7 +12318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12351,7 +12351,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12385,7 +12385,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12419,7 +12419,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12453,7 +12453,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12487,7 +12487,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12520,7 +12520,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12554,7 +12554,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12587,7 +12587,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12620,7 +12620,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>109</v>
       </c>
@@ -12649,7 +12649,7 @@
       <c r="X29" s="50"/>
       <c r="Y29" s="50"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="52">
@@ -12720,7 +12720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12754,7 +12754,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12788,7 +12788,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12822,7 +12822,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12856,7 +12856,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12890,7 +12890,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12924,7 +12924,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12958,7 +12958,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12991,7 +12991,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13024,7 +13024,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
         <v>110</v>
       </c>
@@ -13053,7 +13053,7 @@
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52">
@@ -13124,7 +13124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -13158,7 +13158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -13192,7 +13192,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -13226,7 +13226,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -13260,7 +13260,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -13294,7 +13294,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -13328,7 +13328,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -13362,7 +13362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13395,7 +13395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13428,9 +13428,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -13457,7 +13457,7 @@
       <c r="X57" s="59"/>
       <c r="Y57" s="59"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="61">
@@ -13528,7 +13528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="61" t="s">
         <v>36</v>
@@ -13561,7 +13561,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>107</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="X63" s="59"/>
       <c r="Y63" s="59"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="61">
@@ -13661,7 +13661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="61" t="s">
         <v>36</v>
@@ -13694,9 +13694,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -13723,7 +13723,7 @@
       <c r="X69" s="59"/>
       <c r="Y69" s="59"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="61">
@@ -13794,7 +13794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="59"/>
       <c r="B71" s="61" t="s">
         <v>36</v>
@@ -13827,9 +13827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -13856,7 +13856,7 @@
       <c r="X75" s="59"/>
       <c r="Y75" s="59"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="61">
@@ -13927,7 +13927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="59"/>
       <c r="B77" s="61" t="s">
         <v>36</v>
@@ -13960,9 +13960,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -13989,7 +13989,7 @@
       <c r="X81" s="59"/>
       <c r="Y81" s="59"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="61">
@@ -14060,7 +14060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="59"/>
       <c r="B83" s="61" t="s">
         <v>36</v>
@@ -14093,9 +14093,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -14122,7 +14122,7 @@
       <c r="X87" s="59"/>
       <c r="Y87" s="59"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="61">
@@ -14193,7 +14193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="59"/>
       <c r="B89" s="61" t="s">
         <v>36</v>
@@ -14241,18 +14241,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -14320,7 +14318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14353,7 +14351,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14386,7 +14384,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14419,7 +14417,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14452,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14485,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14518,7 +14516,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14551,7 +14549,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="50" customFormat="1">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14584,7 +14582,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="50" customFormat="1">
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14617,12 +14615,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14690,7 +14688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14723,7 +14721,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14756,7 +14754,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14789,7 +14787,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14822,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14855,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14888,7 +14886,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14921,7 +14919,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="50" customFormat="1">
+    <row r="24" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14954,7 +14952,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="50" customFormat="1">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14987,12 +14985,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -15060,7 +15058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15093,7 +15091,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15126,7 +15124,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15159,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15192,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15225,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15258,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15291,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="50" customFormat="1">
+    <row r="38" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15324,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="50" customFormat="1">
+    <row r="39" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15357,12 +15355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -15430,7 +15428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15463,7 +15461,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15496,7 +15494,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15529,7 +15527,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15562,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15595,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15628,7 +15626,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15661,7 +15659,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="50" customFormat="1">
+    <row r="52" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15694,7 +15692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="50" customFormat="1">
+    <row r="53" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15727,12 +15725,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15800,7 +15798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15833,7 +15831,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15870,7 +15868,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15903,7 +15901,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15936,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15969,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16006,7 +16004,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16043,7 +16041,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="50" customFormat="1">
+    <row r="66" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16076,7 +16074,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="50" customFormat="1">
+    <row r="67" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16109,12 +16107,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -16182,7 +16180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -16217,7 +16215,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16250,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16283,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16316,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -16349,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16382,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16415,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="50" customFormat="1">
+    <row r="80" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16448,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="50" customFormat="1">
+    <row r="81" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16481,12 +16479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16554,7 +16552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16587,7 +16585,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16620,7 +16618,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16653,7 +16651,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16686,7 +16684,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="50" customFormat="1">
+    <row r="91" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -477,6 +477,9 @@
     <t>F 50+</t>
   </si>
   <si>
+    <t>Males 15-49</t>
+  </si>
+  <si>
     <t>Females 15-49</t>
   </si>
   <si>
@@ -514,9 +517,6 @@
   </si>
   <si>
     <t>PLHIV in care on treatment (%)</t>
-  </si>
-  <si>
-    <t>Males 15-49kk</t>
   </si>
 </sst>
 </file>
@@ -3646,7 +3646,7 @@
     <row r="65" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,7 +5335,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -5364,7 +5364,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -5393,7 +5393,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -5422,7 +5422,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -11318,7 +11318,7 @@
     <row r="41" spans="1:25" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -11452,7 +11452,7 @@
     <row r="47" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B54" s="70"/>
       <c r="C54" s="70"/>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -13696,7 +13696,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -13962,7 +13962,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1480" windowWidth="19420" windowHeight="10960" tabRatio="901" activeTab="5"/>
+    <workbookView xWindow="2205" yWindow="1485" windowWidth="19425" windowHeight="10965" tabRatio="901" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="10" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -112,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="136">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -518,14 +513,17 @@
   <si>
     <t>Number of women on PMTCT (Option B/B+)</t>
   </si>
+  <si>
+    <t>Number of voluntary medical male circumcisions performed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -747,14 +745,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="312">
+  <cellStyleXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -817,7 +815,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1060,8 +1058,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1097,7 +1109,7 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,8 +1253,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="312">
+  <cellStyles count="326">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1378,6 +1391,13 @@
     <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1546,6 +1566,13 @@
     <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -1859,34 +1886,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
     </row>
-    <row r="5" spans="1:1" ht="28">
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>96</v>
       </c>
@@ -1913,14 +1940,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -1988,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2021,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2054,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2087,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2120,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2153,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2186,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2219,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="49" customFormat="1">
+    <row r="10" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2252,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="49" customFormat="1">
+    <row r="11" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2285,12 +2312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -2358,7 +2385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2391,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2424,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2457,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2490,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2523,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2556,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2589,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="49" customFormat="1">
+    <row r="24" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2622,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="49" customFormat="1">
+    <row r="25" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2655,12 +2682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2779,18 +2806,18 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" style="49" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2828,7 +2855,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2843,7 +2870,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2864,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2881,7 +2908,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2896,7 +2923,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2911,7 +2938,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2932,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2947,7 +2974,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="49" customFormat="1">
+    <row r="10" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2968,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="49" customFormat="1">
+    <row r="11" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2983,12 +3010,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3026,7 +3053,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3041,7 +3068,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3062,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3079,7 +3106,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3094,7 +3121,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3109,7 +3136,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3130,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3145,7 +3172,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="49" customFormat="1">
+    <row r="24" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3166,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="49" customFormat="1">
+    <row r="25" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3181,12 +3208,12 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3224,7 +3251,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3239,7 +3266,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3256,7 +3283,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3271,7 +3298,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3286,7 +3313,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3301,7 +3328,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3316,7 +3343,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3331,7 +3358,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="49" customFormat="1">
+    <row r="38" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3346,7 +3373,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="49" customFormat="1">
+    <row r="39" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3361,12 +3388,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3404,7 +3431,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3419,7 +3446,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3434,7 +3461,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3449,7 +3476,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3464,7 +3491,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3479,7 +3506,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3494,7 +3521,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3509,7 +3536,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="49" customFormat="1">
+    <row r="52" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3524,7 +3551,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="49" customFormat="1">
+    <row r="53" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3539,12 +3566,12 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="49" customFormat="1">
+    <row r="57" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="49" customFormat="1">
+    <row r="58" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3582,7 +3609,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="49" customFormat="1">
+    <row r="59" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3601,7 +3628,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="49" customFormat="1">
+    <row r="60" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3616,7 +3643,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="49" customFormat="1">
+    <row r="61" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3635,7 +3662,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="49" customFormat="1">
+    <row r="62" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3650,15 +3677,15 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="49" customFormat="1"/>
-    <row r="64" spans="1:11" s="49" customFormat="1"/>
-    <row r="65" spans="1:11" s="49" customFormat="1"/>
-    <row r="66" spans="1:11" s="49" customFormat="1">
+    <row r="63" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="49" customFormat="1">
+    <row r="67" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3696,7 +3723,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="49" customFormat="1">
+    <row r="68" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3711,7 +3738,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="49" customFormat="1">
+    <row r="69" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3726,7 +3753,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="49" customFormat="1">
+    <row r="70" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3741,7 +3768,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="49" customFormat="1">
+    <row r="71" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3758,7 +3785,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="49" customFormat="1">
+    <row r="72" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3775,7 +3802,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="49" customFormat="1">
+    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3792,7 +3819,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="49" customFormat="1">
+    <row r="74" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3809,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="49" customFormat="1">
+    <row r="75" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3824,7 +3851,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="49" customFormat="1">
+    <row r="76" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3839,15 +3866,15 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="49" customFormat="1"/>
-    <row r="78" spans="1:11" s="49" customFormat="1"/>
-    <row r="79" spans="1:11" s="49" customFormat="1"/>
-    <row r="80" spans="1:11">
+    <row r="77" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3885,7 +3912,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3904,7 +3931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3923,7 +3950,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3938,7 +3965,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3953,7 +3980,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3968,7 +3995,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3983,7 +4010,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3998,7 +4025,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="2:11" s="49" customFormat="1">
+    <row r="89" spans="2:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -4013,7 +4040,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="2:11" s="49" customFormat="1">
+    <row r="90" spans="2:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4047,12 +4074,12 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>55</v>
       </c>
@@ -4061,7 +4088,7 @@
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="45" t="s">
@@ -4074,7 +4101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="44" t="s">
         <v>56</v>
@@ -4089,7 +4116,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="44" t="s">
         <v>57</v>
@@ -4104,7 +4131,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="44" t="s">
         <v>58</v>
@@ -4119,7 +4146,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="44" t="s">
         <v>59</v>
@@ -4134,7 +4161,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
         <v>60</v>
@@ -4149,7 +4176,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="44" t="s">
         <v>61</v>
@@ -4164,7 +4191,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="44" t="s">
         <v>62</v>
@@ -4179,28 +4206,28 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="36"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="36"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>63</v>
       </c>
@@ -4209,7 +4236,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="45" t="s">
@@ -4222,7 +4249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="44" t="s">
         <v>64</v>
@@ -4237,7 +4264,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="44" t="s">
         <v>65</v>
@@ -4252,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="44" t="s">
         <v>66</v>
@@ -4267,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
         <v>67</v>
@@ -4282,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="44" t="s">
         <v>68</v>
@@ -4297,7 +4324,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="44" t="s">
         <v>69</v>
@@ -4312,28 +4339,28 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="36"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="36"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="36"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>70</v>
       </c>
@@ -4342,7 +4369,7 @@
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="45" t="s">
@@ -4355,7 +4382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="44" t="s">
         <v>71</v>
@@ -4370,7 +4397,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="44" t="s">
         <v>66</v>
@@ -4385,7 +4412,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="44" t="s">
         <v>102</v>
@@ -4400,7 +4427,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="44" t="s">
         <v>72</v>
@@ -4415,7 +4442,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="44" t="s">
         <v>73</v>
@@ -4430,28 +4457,28 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="36"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="36"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="36"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>74</v>
       </c>
@@ -4460,7 +4487,7 @@
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="45" t="s">
@@ -4473,7 +4500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="44" t="s">
         <v>75</v>
@@ -4488,7 +4515,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="44" t="s">
         <v>76</v>
@@ -4503,7 +4530,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="44" t="s">
         <v>77</v>
@@ -4518,7 +4545,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="44" t="s">
         <v>78</v>
@@ -4533,28 +4560,28 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="36"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="36"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="36"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>79</v>
       </c>
@@ -4563,7 +4590,7 @@
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="45" t="s">
@@ -4576,7 +4603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="44" t="s">
         <v>64</v>
@@ -4591,7 +4618,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="44" t="s">
         <v>65</v>
@@ -4606,7 +4633,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="44" t="s">
         <v>80</v>
@@ -4621,7 +4648,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="44" t="s">
         <v>67</v>
@@ -4636,7 +4663,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="44" t="s">
         <v>68</v>
@@ -4655,7 +4682,7 @@
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="44" t="s">
         <v>69</v>
@@ -4674,7 +4701,7 @@
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="44" t="s">
         <v>81</v>
@@ -4693,7 +4720,7 @@
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="44" t="s">
         <v>82</v>
@@ -4712,7 +4739,7 @@
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="36"/>
       <c r="C53" s="34"/>
@@ -4723,7 +4750,7 @@
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="36"/>
       <c r="C54" s="34"/>
@@ -4734,7 +4761,7 @@
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="B55" s="36"/>
       <c r="C55" s="34"/>
@@ -4745,7 +4772,7 @@
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>103</v>
       </c>
@@ -4758,7 +4785,7 @@
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="45" t="s">
@@ -4775,7 +4802,7 @@
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="44" t="s">
         <v>83</v>
@@ -4794,7 +4821,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="44" t="s">
         <v>84</v>
@@ -4813,7 +4840,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="44" t="s">
         <v>85</v>
@@ -4829,7 +4856,7 @@
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="44" t="s">
         <v>99</v>
@@ -4848,7 +4875,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="44" t="s">
         <v>86</v>
@@ -4867,7 +4894,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="44" t="s">
         <v>16</v>
@@ -4886,7 +4913,7 @@
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="44" t="s">
         <v>87</v>
@@ -4905,7 +4932,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="44" t="s">
         <v>104</v>
@@ -4924,7 +4951,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="44" t="s">
         <v>105</v>
@@ -4943,7 +4970,7 @@
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
       <c r="B67" s="36"/>
       <c r="C67" s="34"/>
@@ -4954,7 +4981,7 @@
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="36"/>
       <c r="C68" s="34"/>
@@ -4965,7 +4992,7 @@
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37"/>
@@ -4976,7 +5003,7 @@
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>88</v>
       </c>
@@ -4990,7 +5017,7 @@
       <c r="I70" s="34"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="45" t="s">
@@ -5008,7 +5035,7 @@
       <c r="I71" s="34"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="44" t="s">
         <v>89</v>
@@ -5028,7 +5055,7 @@
       <c r="I72" s="34"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="44" t="s">
         <v>90</v>
@@ -5047,7 +5074,7 @@
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="44" t="s">
         <v>91</v>
@@ -5066,7 +5093,7 @@
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="44" t="s">
         <v>92</v>
@@ -5085,7 +5112,7 @@
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="44" t="s">
         <v>93</v>
@@ -5104,7 +5131,7 @@
       <c r="H76" s="34"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="44" t="s">
         <v>94</v>
@@ -5119,7 +5146,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="44" t="s">
         <v>95</v>
@@ -5152,20 +5179,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5220,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -5249,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5278,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="49" customFormat="1">
+    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>6</v>
       </c>
@@ -5307,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="49" customFormat="1">
+    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>7</v>
       </c>
@@ -5336,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -5365,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -5394,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="49" customFormat="1">
+    <row r="10" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -5423,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="49" customFormat="1">
+    <row r="11" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -5471,21 +5498,21 @@
       <selection activeCell="E36" sqref="E36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -5553,7 +5580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5587,7 +5614,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5643,7 +5670,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5677,7 +5704,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5711,7 +5738,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5767,7 +5794,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5801,7 +5828,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5835,7 +5862,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5891,7 +5918,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5925,7 +5952,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5938,7 +5965,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5972,7 +5999,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6028,7 +6055,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6062,7 +6089,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6096,7 +6123,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6152,7 +6179,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6186,7 +6213,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6220,7 +6247,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6276,7 +6303,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6310,7 +6337,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6344,7 +6371,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6400,7 +6427,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6434,7 +6461,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" s="49" customFormat="1">
+    <row r="31" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6468,7 +6495,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" s="49" customFormat="1">
+    <row r="32" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6534,7 +6561,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" s="49" customFormat="1">
+    <row r="33" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6568,8 +6595,8 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="2:26" s="49" customFormat="1"/>
-    <row r="35" spans="2:26" s="49" customFormat="1">
+    <row r="34" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6603,7 +6630,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" s="49" customFormat="1">
+    <row r="36" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6669,7 +6696,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" s="49" customFormat="1">
+    <row r="37" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6703,7 +6730,7 @@
       </c>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="2:26" s="49" customFormat="1"/>
+    <row r="38" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6723,19 +6750,19 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2000</v>
       </c>
@@ -6803,7 +6830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6843,7 +6870,7 @@
       </c>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6883,7 +6910,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6923,7 +6950,7 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6957,7 +6984,7 @@
       </c>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6993,7 +7020,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7027,7 +7054,7 @@
       </c>
       <c r="Z9" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7063,7 +7090,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7105,7 +7132,7 @@
       </c>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7141,7 +7168,7 @@
       </c>
       <c r="Z13" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7175,7 +7202,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7211,7 +7238,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7245,7 +7272,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7279,7 +7306,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7315,7 +7342,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7349,7 +7376,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7383,7 +7410,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7431,7 +7458,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7465,7 +7492,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7499,7 +7526,7 @@
       </c>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7547,7 +7574,7 @@
       </c>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7581,8 +7608,8 @@
       </c>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="2:26" s="49" customFormat="1"/>
-    <row r="31" spans="2:26" s="49" customFormat="1">
+    <row r="30" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7616,7 +7643,7 @@
       </c>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="2:26" s="49" customFormat="1">
+    <row r="32" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7655,7 +7682,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="49" customFormat="1">
+    <row r="33" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7689,8 +7716,8 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="2:26" s="49" customFormat="1"/>
-    <row r="35" spans="2:26" s="49" customFormat="1">
+    <row r="34" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7724,7 +7751,7 @@
       </c>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="2:26" s="49" customFormat="1">
+    <row r="36" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7763,7 +7790,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="49" customFormat="1">
+    <row r="37" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7816,14 +7843,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -7891,7 +7918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7924,7 +7951,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7957,7 +7984,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7990,7 +8017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8023,7 +8050,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8056,7 +8083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8089,7 +8116,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8122,7 +8149,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="49" customFormat="1">
+    <row r="10" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8155,7 +8182,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="49" customFormat="1">
+    <row r="11" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8188,12 +8215,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -8261,7 +8288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8294,7 +8321,7 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8327,7 +8354,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8360,7 +8387,7 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8393,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8426,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8459,7 +8486,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8492,7 +8519,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="49" customFormat="1">
+    <row r="24" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8525,7 +8552,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="49" customFormat="1">
+    <row r="25" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8558,12 +8585,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -8631,7 +8658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8664,7 +8691,7 @@
       </c>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8697,7 +8724,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8730,7 +8757,7 @@
       </c>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8763,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8796,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8829,7 +8856,7 @@
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8862,7 +8889,7 @@
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="49" customFormat="1">
+    <row r="38" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8895,7 +8922,7 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="49" customFormat="1">
+    <row r="39" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8943,18 +8970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -9022,7 +9049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9057,7 +9084,7 @@
       </c>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9094,7 +9121,7 @@
       </c>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9127,7 +9154,7 @@
       </c>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9160,7 +9187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9193,7 +9220,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9230,7 +9257,7 @@
       </c>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9267,7 +9294,7 @@
       </c>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="49" customFormat="1">
+    <row r="10" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9300,7 +9327,7 @@
       </c>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="49" customFormat="1">
+    <row r="11" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9333,12 +9360,12 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -9406,7 +9433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
@@ -9438,12 +9465,12 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>2000</v>
       </c>
@@ -9511,7 +9538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -9559,12 +9586,12 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>2000</v>
       </c>
@@ -9632,7 +9659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9665,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9698,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9731,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9764,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9797,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9830,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9863,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="49" customFormat="1">
+    <row r="37" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9896,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="49" customFormat="1">
+    <row r="38" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9929,12 +9956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>2000</v>
       </c>
@@ -10002,7 +10029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
@@ -10036,12 +10063,12 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>2000</v>
       </c>
@@ -10109,7 +10136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10162,7 +10189,7 @@
       </c>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10195,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10248,7 +10275,7 @@
       </c>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" s="49" customFormat="1">
+    <row r="53" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10281,12 +10308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -10354,7 +10381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
@@ -10405,20 +10432,20 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -10486,7 +10513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -10530,12 +10557,12 @@
       </c>
       <c r="Y3" s="8"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2000</v>
       </c>
@@ -10603,7 +10630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -10637,12 +10664,12 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>2000</v>
       </c>
@@ -10710,7 +10737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -10768,12 +10795,12 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>2000</v>
       </c>
@@ -10841,7 +10868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -10899,7 +10926,7 @@
       </c>
       <c r="Y21" s="39"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>97</v>
       </c>
@@ -10938,7 +10965,7 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="30">
@@ -11039,7 +11066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="30" t="s">
         <v>25</v>
@@ -11080,12 +11107,12 @@
       </c>
       <c r="AI27" s="31"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>2000</v>
       </c>
@@ -11153,7 +11180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -11211,12 +11238,12 @@
       </c>
       <c r="Y32" s="8"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>2000</v>
       </c>
@@ -11284,7 +11311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
@@ -11322,10 +11349,10 @@
       </c>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1"/>
-    <row r="40" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1"/>
-    <row r="42" spans="1:25" s="49" customFormat="1">
+    <row r="39" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:25" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>129</v>
       </c>
@@ -11354,7 +11381,7 @@
       <c r="X42" s="58"/>
       <c r="Y42" s="58"/>
     </row>
-    <row r="43" spans="1:25" s="49" customFormat="1">
+    <row r="43" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="66">
@@ -11425,7 +11452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="49" customFormat="1">
+    <row r="44" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58"/>
       <c r="B44" s="66" t="s">
         <v>36</v>
@@ -11456,10 +11483,10 @@
       </c>
       <c r="Y44" s="62"/>
     </row>
-    <row r="45" spans="1:25" s="49" customFormat="1"/>
-    <row r="46" spans="1:25" s="49" customFormat="1"/>
-    <row r="47" spans="1:25" s="49" customFormat="1"/>
-    <row r="48" spans="1:25" s="49" customFormat="1">
+    <row r="45" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="73" t="s">
         <v>132</v>
       </c>
@@ -11488,7 +11515,7 @@
       <c r="X48" s="69"/>
       <c r="Y48" s="69"/>
     </row>
-    <row r="49" spans="1:25" s="49" customFormat="1">
+    <row r="49" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69"/>
       <c r="B49" s="69"/>
       <c r="C49" s="70">
@@ -11559,7 +11586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="49" customFormat="1">
+    <row r="50" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69"/>
       <c r="B50" s="70" t="s">
         <v>36</v>
@@ -11590,7 +11617,7 @@
       </c>
       <c r="Y50" s="72"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -11617,7 +11644,7 @@
       <c r="X51" s="68"/>
       <c r="Y51" s="68"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
@@ -11644,7 +11671,7 @@
       <c r="X52" s="68"/>
       <c r="Y52" s="68"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
       <c r="C53" s="68"/>
@@ -11671,7 +11698,7 @@
       <c r="X53" s="68"/>
       <c r="Y53" s="68"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="73" t="s">
         <v>133</v>
       </c>
@@ -11700,7 +11727,7 @@
       <c r="X54" s="69"/>
       <c r="Y54" s="69"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="69"/>
       <c r="B55" s="69"/>
       <c r="C55" s="70">
@@ -11771,7 +11798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="69"/>
       <c r="B56" s="70" t="s">
         <v>36</v>
@@ -11820,9 +11847,9 @@
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>107</v>
       </c>
@@ -11851,7 +11878,7 @@
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="49"/>
       <c r="C2" s="51">
@@ -11922,7 +11949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -11956,7 +11983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -11990,7 +12017,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12024,7 +12051,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12058,7 +12085,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12092,7 +12119,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12125,7 +12152,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12159,7 +12186,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="49" customFormat="1">
+    <row r="10" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
@@ -12193,7 +12220,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="49" customFormat="1">
+    <row r="11" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
@@ -12227,7 +12254,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>125</v>
       </c>
@@ -12256,7 +12283,7 @@
       <c r="X15" s="49"/>
       <c r="Y15" s="49"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="49"/>
       <c r="C16" s="51">
@@ -12327,7 +12354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12360,7 +12387,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12394,7 +12421,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12428,7 +12455,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12462,7 +12489,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12496,7 +12523,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12529,7 +12556,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12563,7 +12590,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="49" customFormat="1">
+    <row r="24" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12596,7 +12623,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="49" customFormat="1">
+    <row r="25" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12629,7 +12656,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>108</v>
       </c>
@@ -12658,7 +12685,7 @@
       <c r="X29" s="49"/>
       <c r="Y29" s="49"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="51">
@@ -12729,7 +12756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -12763,7 +12790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -12797,7 +12824,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -12831,7 +12858,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -12865,7 +12892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -12899,7 +12926,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -12933,7 +12960,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -12967,7 +12994,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="49" customFormat="1">
+    <row r="38" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13000,7 +13027,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="49" customFormat="1">
+    <row r="39" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13033,7 +13060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>109</v>
       </c>
@@ -13062,7 +13089,7 @@
       <c r="X43" s="49"/>
       <c r="Y43" s="49"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="51">
@@ -13133,7 +13160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
@@ -13167,7 +13194,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
@@ -13201,7 +13228,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
@@ -13235,7 +13262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
@@ -13269,7 +13296,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
@@ -13303,7 +13330,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
@@ -13337,7 +13364,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
@@ -13371,7 +13398,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="49" customFormat="1">
+    <row r="52" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13404,7 +13431,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="49" customFormat="1">
+    <row r="53" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13437,7 +13464,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
         <v>126</v>
       </c>
@@ -13466,7 +13493,7 @@
       <c r="X57" s="58"/>
       <c r="Y57" s="58"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
       <c r="C58" s="60">
@@ -13537,7 +13564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="60" t="s">
         <v>36</v>
@@ -13570,7 +13597,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="s">
         <v>106</v>
       </c>
@@ -13599,7 +13626,7 @@
       <c r="X63" s="58"/>
       <c r="Y63" s="58"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="60">
@@ -13670,7 +13697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
       <c r="B65" s="60" t="s">
         <v>36</v>
@@ -13703,7 +13730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="59" t="s">
         <v>127</v>
       </c>
@@ -13732,7 +13759,7 @@
       <c r="X69" s="58"/>
       <c r="Y69" s="58"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
       <c r="C70" s="60">
@@ -13803,7 +13830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
       <c r="B71" s="60" t="s">
         <v>36</v>
@@ -13836,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="s">
         <v>128</v>
       </c>
@@ -13865,7 +13892,7 @@
       <c r="X75" s="58"/>
       <c r="Y75" s="58"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
       <c r="C76" s="60">
@@ -13936,7 +13963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
       <c r="B77" s="60" t="s">
         <v>36</v>
@@ -13969,7 +13996,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
         <v>130</v>
       </c>
@@ -13998,7 +14025,7 @@
       <c r="X81" s="58"/>
       <c r="Y81" s="58"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
       <c r="B82" s="58"/>
       <c r="C82" s="60">
@@ -14069,7 +14096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="58"/>
       <c r="B83" s="60" t="s">
         <v>36</v>
@@ -14102,7 +14129,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="s">
         <v>131</v>
       </c>
@@ -14131,7 +14158,7 @@
       <c r="X87" s="58"/>
       <c r="Y87" s="58"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="58"/>
       <c r="C88" s="60">
@@ -14202,7 +14229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="60" t="s">
         <v>36</v>
@@ -14248,18 +14275,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>2000</v>
       </c>
@@ -14327,7 +14356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14360,7 +14389,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14393,7 +14422,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14426,7 +14455,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14459,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14492,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14525,7 +14554,7 @@
       </c>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14558,7 +14587,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="49" customFormat="1">
+    <row r="10" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14591,7 +14620,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" s="49" customFormat="1">
+    <row r="11" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14624,12 +14653,12 @@
       </c>
       <c r="Y11" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>2000</v>
       </c>
@@ -14697,7 +14726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14730,7 +14759,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14763,7 +14792,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14796,7 +14825,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14829,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14862,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14895,7 +14924,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14928,7 +14957,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="49" customFormat="1">
+    <row r="24" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14961,7 +14990,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" s="49" customFormat="1">
+    <row r="25" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14994,12 +15023,12 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>2000</v>
       </c>
@@ -15067,7 +15096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15100,7 +15129,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15133,7 +15162,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15166,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15199,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15232,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15265,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15298,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="49" customFormat="1">
+    <row r="38" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15331,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="49" customFormat="1">
+    <row r="39" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15364,12 +15393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>2000</v>
       </c>
@@ -15437,7 +15466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15470,7 +15499,7 @@
       </c>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15503,7 +15532,7 @@
       </c>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15536,7 +15565,7 @@
       </c>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15569,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15602,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15635,7 +15664,7 @@
       </c>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15668,7 +15697,7 @@
       </c>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="49" customFormat="1">
+    <row r="52" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15701,7 +15730,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="49" customFormat="1">
+    <row r="53" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15734,12 +15763,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>2000</v>
       </c>
@@ -15807,7 +15836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15840,7 +15869,7 @@
       </c>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15877,7 +15906,7 @@
       </c>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15910,7 +15939,7 @@
       </c>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15943,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15976,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16013,7 +16042,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16050,7 +16079,7 @@
       </c>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" s="49" customFormat="1">
+    <row r="66" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16083,7 +16112,7 @@
       </c>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" s="49" customFormat="1">
+    <row r="67" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16116,12 +16145,12 @@
       </c>
       <c r="Y67" s="9"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>2000</v>
       </c>
@@ -16189,7 +16218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -16224,7 +16253,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16257,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16290,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16323,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -16356,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16389,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16422,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="49" customFormat="1">
+    <row r="80" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16455,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="49" customFormat="1">
+    <row r="81" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16488,12 +16517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>2000</v>
       </c>
@@ -16561,7 +16590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16594,7 +16623,7 @@
       </c>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16627,7 +16656,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16660,7 +16689,7 @@
       </c>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16693,7 +16722,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" s="49" customFormat="1">
+    <row r="91" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16726,14 +16755,237 @@
       </c>
       <c r="Y91" s="9"/>
     </row>
+    <row r="95" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2004</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2005</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2006</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L96" s="3">
+        <v>2009</v>
+      </c>
+      <c r="M96" s="3">
+        <v>2010</v>
+      </c>
+      <c r="N96" s="3">
+        <v>2011</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P96" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R96" s="3">
+        <v>2015</v>
+      </c>
+      <c r="S96" s="3">
+        <v>2016</v>
+      </c>
+      <c r="T96" s="3">
+        <v>2017</v>
+      </c>
+      <c r="U96" s="3">
+        <v>2018</v>
+      </c>
+      <c r="V96" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W96" s="3">
+        <v>2020</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y97" s="9"/>
+    </row>
+    <row r="98" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y98" s="9"/>
+    </row>
+    <row r="99" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y99" s="9"/>
+    </row>
+    <row r="100" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y100" s="9"/>
+    </row>
+    <row r="101" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y101" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1247,13 +1247,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="285" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="326">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1892,15 +1892,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+      <c r="A3" s="76"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -14278,7 +14278,7 @@
   <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+      <selection activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16756,7 +16756,7 @@
       <c r="Y91" s="9"/>
     </row>
     <row r="95" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -16857,7 +16857,9 @@
       <c r="X97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y97" s="9"/>
+      <c r="Y97" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="str">
@@ -16888,7 +16890,9 @@
       <c r="X98" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y98" s="9"/>
+      <c r="Y98" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="str">
@@ -16919,7 +16923,9 @@
       <c r="X99" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y99" s="9"/>
+      <c r="Y99" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="str">
@@ -16950,7 +16956,9 @@
       <c r="X100" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y100" s="9"/>
+      <c r="Y100" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="str">
@@ -16981,7 +16989,9 @@
       <c r="X101" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y101" s="9"/>
+      <c r="Y101" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -8250,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8380,17 +8380,17 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19">
-        <v>0.2215</v>
+        <v>0.122</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19">
-        <v>0.35849999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20">
-        <v>0.42599999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -8516,17 +8516,17 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19">
-        <v>0.23200000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19">
-        <v>0.38650000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="20"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20">
-        <v>0.46350000000000002</v>
+        <v>0.113</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
@@ -8553,17 +8553,17 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19">
-        <v>0.22900000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19">
-        <v>0.38250000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="20"/>
       <c r="O9" s="19"/>
       <c r="P9" s="20">
-        <v>0.46250000000000002</v>
+        <v>0.113</v>
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
@@ -8596,7 +8596,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="19"/>
       <c r="P10" s="20">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -8629,7 +8629,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="19"/>
       <c r="P11" s="20">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -13157,8 +13157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14731,7 +14731,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="44">
-        <v>0.378</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="M59" s="44"/>
       <c r="N59" s="20"/>
@@ -14766,13 +14766,13 @@
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="26">
-        <v>0.39</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="M60" s="26"/>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20">
-        <v>0.51249999999999996</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -14902,13 +14902,13 @@
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20">
-        <v>0.53749999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -14939,13 +14939,13 @@
       </c>
       <c r="K65" s="20"/>
       <c r="L65" s="26">
-        <v>0.39500000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="M65" s="26"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20">
-        <v>0.53500000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
@@ -14978,7 +14978,7 @@
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
@@ -15011,7 +15011,7 @@
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="Q67" s="20"/>
       <c r="R67" s="20"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -500,21 +500,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -565,8 +574,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +642,12 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18C1FF"/>
+        <bgColor rgb="FF18C1FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -628,33 +673,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -665,7 +815,7 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -692,7 +842,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -705,14 +855,14 @@
     <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -721,7 +871,7 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -731,10 +881,10 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -748,41 +898,147 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="10" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="114">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2 2" xfId="14"/>
+    <cellStyle name="Comma 3" xfId="12"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="8"/>
+    <cellStyle name="Followed Hyperlink 10" xfId="25"/>
+    <cellStyle name="Followed Hyperlink 11" xfId="26"/>
+    <cellStyle name="Followed Hyperlink 12" xfId="27"/>
+    <cellStyle name="Followed Hyperlink 13" xfId="28"/>
+    <cellStyle name="Followed Hyperlink 14" xfId="29"/>
+    <cellStyle name="Followed Hyperlink 15" xfId="30"/>
+    <cellStyle name="Followed Hyperlink 16" xfId="31"/>
+    <cellStyle name="Followed Hyperlink 17" xfId="32"/>
+    <cellStyle name="Followed Hyperlink 18" xfId="33"/>
+    <cellStyle name="Followed Hyperlink 19" xfId="34"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="17"/>
+    <cellStyle name="Followed Hyperlink 20" xfId="35"/>
+    <cellStyle name="Followed Hyperlink 21" xfId="36"/>
+    <cellStyle name="Followed Hyperlink 22" xfId="37"/>
+    <cellStyle name="Followed Hyperlink 23" xfId="38"/>
+    <cellStyle name="Followed Hyperlink 24" xfId="39"/>
+    <cellStyle name="Followed Hyperlink 25" xfId="40"/>
+    <cellStyle name="Followed Hyperlink 26" xfId="41"/>
+    <cellStyle name="Followed Hyperlink 27" xfId="42"/>
+    <cellStyle name="Followed Hyperlink 28" xfId="43"/>
+    <cellStyle name="Followed Hyperlink 29" xfId="44"/>
+    <cellStyle name="Followed Hyperlink 3" xfId="18"/>
+    <cellStyle name="Followed Hyperlink 30" xfId="45"/>
+    <cellStyle name="Followed Hyperlink 31" xfId="46"/>
+    <cellStyle name="Followed Hyperlink 32" xfId="47"/>
+    <cellStyle name="Followed Hyperlink 33" xfId="48"/>
+    <cellStyle name="Followed Hyperlink 34" xfId="49"/>
+    <cellStyle name="Followed Hyperlink 35" xfId="50"/>
+    <cellStyle name="Followed Hyperlink 36" xfId="51"/>
+    <cellStyle name="Followed Hyperlink 37" xfId="52"/>
+    <cellStyle name="Followed Hyperlink 38" xfId="53"/>
+    <cellStyle name="Followed Hyperlink 39" xfId="54"/>
+    <cellStyle name="Followed Hyperlink 4" xfId="19"/>
+    <cellStyle name="Followed Hyperlink 40" xfId="55"/>
+    <cellStyle name="Followed Hyperlink 41" xfId="56"/>
+    <cellStyle name="Followed Hyperlink 42" xfId="57"/>
+    <cellStyle name="Followed Hyperlink 43" xfId="58"/>
+    <cellStyle name="Followed Hyperlink 44" xfId="59"/>
+    <cellStyle name="Followed Hyperlink 45" xfId="60"/>
+    <cellStyle name="Followed Hyperlink 46" xfId="61"/>
+    <cellStyle name="Followed Hyperlink 47" xfId="62"/>
+    <cellStyle name="Followed Hyperlink 48" xfId="63"/>
+    <cellStyle name="Followed Hyperlink 49" xfId="64"/>
+    <cellStyle name="Followed Hyperlink 5" xfId="20"/>
+    <cellStyle name="Followed Hyperlink 50" xfId="65"/>
+    <cellStyle name="Followed Hyperlink 51" xfId="66"/>
+    <cellStyle name="Followed Hyperlink 52" xfId="67"/>
+    <cellStyle name="Followed Hyperlink 53" xfId="68"/>
+    <cellStyle name="Followed Hyperlink 54" xfId="69"/>
+    <cellStyle name="Followed Hyperlink 55" xfId="70"/>
+    <cellStyle name="Followed Hyperlink 56" xfId="71"/>
+    <cellStyle name="Followed Hyperlink 57" xfId="72"/>
+    <cellStyle name="Followed Hyperlink 58" xfId="73"/>
+    <cellStyle name="Followed Hyperlink 59" xfId="74"/>
+    <cellStyle name="Followed Hyperlink 6" xfId="21"/>
+    <cellStyle name="Followed Hyperlink 60" xfId="75"/>
+    <cellStyle name="Followed Hyperlink 61" xfId="76"/>
+    <cellStyle name="Followed Hyperlink 62" xfId="77"/>
+    <cellStyle name="Followed Hyperlink 63" xfId="78"/>
+    <cellStyle name="Followed Hyperlink 64" xfId="79"/>
+    <cellStyle name="Followed Hyperlink 65" xfId="80"/>
+    <cellStyle name="Followed Hyperlink 66" xfId="81"/>
+    <cellStyle name="Followed Hyperlink 67" xfId="82"/>
+    <cellStyle name="Followed Hyperlink 68" xfId="83"/>
+    <cellStyle name="Followed Hyperlink 69" xfId="84"/>
+    <cellStyle name="Followed Hyperlink 7" xfId="22"/>
+    <cellStyle name="Followed Hyperlink 70" xfId="85"/>
+    <cellStyle name="Followed Hyperlink 71" xfId="86"/>
+    <cellStyle name="Followed Hyperlink 72" xfId="87"/>
+    <cellStyle name="Followed Hyperlink 73" xfId="88"/>
+    <cellStyle name="Followed Hyperlink 74" xfId="89"/>
+    <cellStyle name="Followed Hyperlink 75" xfId="90"/>
+    <cellStyle name="Followed Hyperlink 76" xfId="91"/>
+    <cellStyle name="Followed Hyperlink 77" xfId="92"/>
+    <cellStyle name="Followed Hyperlink 78" xfId="93"/>
+    <cellStyle name="Followed Hyperlink 79" xfId="94"/>
+    <cellStyle name="Followed Hyperlink 8" xfId="23"/>
+    <cellStyle name="Followed Hyperlink 80" xfId="95"/>
+    <cellStyle name="Followed Hyperlink 81" xfId="96"/>
+    <cellStyle name="Followed Hyperlink 82" xfId="97"/>
+    <cellStyle name="Followed Hyperlink 83" xfId="98"/>
+    <cellStyle name="Followed Hyperlink 84" xfId="99"/>
+    <cellStyle name="Followed Hyperlink 85" xfId="100"/>
+    <cellStyle name="Followed Hyperlink 86" xfId="101"/>
+    <cellStyle name="Followed Hyperlink 87" xfId="102"/>
+    <cellStyle name="Followed Hyperlink 88" xfId="103"/>
+    <cellStyle name="Followed Hyperlink 89" xfId="104"/>
+    <cellStyle name="Followed Hyperlink 9" xfId="24"/>
+    <cellStyle name="Followed Hyperlink 90" xfId="105"/>
+    <cellStyle name="Followed Hyperlink 91" xfId="106"/>
+    <cellStyle name="Followed Hyperlink 92" xfId="107"/>
+    <cellStyle name="Followed Hyperlink 93" xfId="108"/>
+    <cellStyle name="Followed Hyperlink 94" xfId="109"/>
+    <cellStyle name="Followed Hyperlink 95" xfId="110"/>
+    <cellStyle name="Followed Hyperlink 96" xfId="111"/>
+    <cellStyle name="Followed Hyperlink 97" xfId="112"/>
+    <cellStyle name="Followed Hyperlink 98" xfId="113"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="15"/>
     <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="16"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 6" xfId="9"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7"/>
+    <cellStyle name="Percent 2 2" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3755,7 +4011,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,14 +4176,14 @@
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="40">
-        <v>26.03</v>
-      </c>
-      <c r="D15" s="40">
-        <v>2</v>
-      </c>
-      <c r="E15" s="40">
-        <v>48.02</v>
+      <c r="C15" s="53">
+        <v>5.6</v>
+      </c>
+      <c r="D15" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="53">
+        <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -266,12 +271,6 @@
   </si>
   <si>
     <t>People on ART with viral suppression (%)</t>
-  </si>
-  <si>
-    <t>Linkage to care from diagnosis within 1 month (%)</t>
-  </si>
-  <si>
-    <t>Linkage to care rate (%/year)</t>
   </si>
   <si>
     <t>Percentage of people who receive ART in the year who stop taking ART (%/year)</t>
@@ -495,6 +494,9 @@
   <si>
     <t>People lost to follow up who are still in care (%)</t>
   </si>
+  <si>
+    <t>Average time taken to be linked to care (years)</t>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +512,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -604,6 +606,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -673,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -788,8 +806,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -919,18 +941,23 @@
     <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="4" fontId="10" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="118">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
     <cellStyle name="Comma 3" xfId="12"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1028,6 +1055,8 @@
     <cellStyle name="Followed Hyperlink 96" xfId="111"/>
     <cellStyle name="Followed Hyperlink 97" xfId="112"/>
     <cellStyle name="Followed Hyperlink 98" xfId="113"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -1838,39 +1867,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="112.42578125"/>
-    <col min="2" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
+      <c r="A2" s="54"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="54"/>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="406">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="140">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1881,6 +1906,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1888,21 +1918,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -1970,7 +1997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2003,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2036,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2069,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2102,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2135,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2168,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2201,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2234,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2267,12 +2294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -2340,7 +2367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2373,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2406,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2439,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2472,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2505,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2538,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2571,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2604,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2637,12 +2664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -2710,7 +2737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
@@ -2745,6 +2772,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2752,23 +2784,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.140625"/>
-    <col min="3" max="11" width="15.85546875"/>
-    <col min="12" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2806,7 +2833,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2821,7 +2848,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2842,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2859,7 +2886,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2874,7 +2901,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2889,7 +2916,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2910,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2925,7 +2952,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2946,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2961,12 +2988,12 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="C16" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3004,7 +3031,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3019,7 +3046,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3040,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3057,7 +3084,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3072,7 +3099,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3087,7 +3114,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3108,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3123,7 +3150,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3144,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3159,12 +3186,12 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="C30" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3202,7 +3229,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3217,7 +3244,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3234,7 +3261,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3249,7 +3276,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3264,7 +3291,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3279,7 +3306,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3294,7 +3321,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3309,7 +3336,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3324,7 +3351,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3339,12 +3366,12 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="C44" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3382,7 +3409,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="B45" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3397,7 +3424,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3412,7 +3439,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3427,7 +3454,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3442,7 +3469,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="B49" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3457,7 +3484,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3472,7 +3499,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3487,7 +3514,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3502,7 +3529,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3517,12 +3544,12 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="C58" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3560,7 +3587,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="B59" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3579,7 +3606,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="B60" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3594,7 +3621,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="B61" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3613,7 +3640,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="B62" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3628,12 +3655,12 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="C67" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3671,7 +3698,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="B68" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3686,7 +3713,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="B69" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3701,7 +3728,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="B70" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3716,7 +3743,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="B71" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3733,7 +3760,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="B72" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3750,7 +3777,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="B73" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3767,7 +3794,7 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="B74" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3784,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="B75" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3799,7 +3826,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="B76" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3814,12 +3841,12 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
       <c r="C81" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3857,7 +3884,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3876,7 +3903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11">
       <c r="B83" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3895,7 +3922,7 @@
       </c>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11">
       <c r="B84" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3910,7 +3937,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11">
       <c r="B85" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3925,7 +3952,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11">
       <c r="B86" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3940,7 +3967,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11">
       <c r="B87" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3955,7 +3982,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11">
       <c r="B88" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3970,7 +3997,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11">
       <c r="B89" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3985,7 +4012,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11">
       <c r="B90" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4003,6 +4030,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4010,23 +4042,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625"/>
-    <col min="2" max="2" width="51.28515625"/>
-    <col min="3" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
@@ -4037,9 +4064,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="38">
         <v>4.0000000000000002E-4</v>
@@ -4051,9 +4078,9 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="38">
         <v>8.0000000000000004E-4</v>
@@ -4065,9 +4092,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="38">
         <v>1.1000000000000001E-3</v>
@@ -4079,9 +4106,9 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="38">
         <v>1.38E-2</v>
@@ -4093,9 +4120,9 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="38">
         <v>8.0000000000000002E-3</v>
@@ -4107,9 +4134,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="38">
         <v>0.36699999999999999</v>
@@ -4121,9 +4148,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="38">
         <v>0.20499999999999999</v>
@@ -4135,33 +4162,33 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="25"/>
       <c r="B10" s="39"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="25"/>
       <c r="B11" s="39"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="25"/>
       <c r="B12" s="39"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
@@ -4172,23 +4199,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="53">
+        <v>95</v>
+      </c>
+      <c r="C15" s="52">
         <v>5.6</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="52">
         <v>3.3</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="40">
         <v>1</v>
@@ -4200,9 +4227,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="40">
         <v>1</v>
@@ -4214,9 +4241,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="40">
         <v>1</v>
@@ -4228,9 +4255,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="40">
         <v>3.49</v>
@@ -4242,9 +4269,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="40">
         <v>7.17</v>
@@ -4256,33 +4283,33 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="25"/>
       <c r="B21" s="39"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="25"/>
       <c r="B22" s="39"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="25"/>
       <c r="B23" s="39"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
@@ -4293,9 +4320,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="34">
         <v>4.1399999999999997</v>
@@ -4307,9 +4334,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="34">
         <v>1.05</v>
@@ -4321,9 +4348,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="34">
         <v>0.33</v>
@@ -4335,9 +4362,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="34">
         <v>0.27</v>
@@ -4349,9 +4376,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="34">
         <v>0.67</v>
@@ -4363,33 +4390,33 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="25"/>
       <c r="B31" s="39"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="25"/>
       <c r="B32" s="39"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="25"/>
       <c r="B33" s="39"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4400,9 +4427,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="34">
         <v>0.45</v>
@@ -4414,9 +4441,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="34">
         <v>0.7</v>
@@ -4428,9 +4455,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="34">
         <v>0.47</v>
@@ -4442,9 +4469,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C39" s="34">
         <v>1.52</v>
@@ -4456,33 +4483,33 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="25"/>
       <c r="B40" s="39"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="25"/>
       <c r="B41" s="39"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="25"/>
       <c r="B42" s="39"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="C44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4493,9 +4520,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="38">
         <v>3.5999999999999999E-3</v>
@@ -4507,9 +4534,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="38">
         <v>3.5999999999999999E-3</v>
@@ -4521,9 +4548,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" s="38">
         <v>5.7999999999999996E-3</v>
@@ -4535,9 +4562,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="38">
         <v>8.8000000000000005E-3</v>
@@ -4549,9 +4576,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="38">
         <v>5.8999999999999997E-2</v>
@@ -4567,9 +4594,9 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="38">
         <v>0.32300000000000001</v>
@@ -4585,9 +4612,9 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="B51" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="38">
         <v>0.23</v>
@@ -4603,9 +4630,9 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" s="38">
         <v>2.17</v>
@@ -4621,7 +4648,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="25"/>
       <c r="B53" s="39"/>
       <c r="C53" s="25"/>
@@ -4632,7 +4659,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="25"/>
       <c r="B54" s="39"/>
       <c r="C54" s="25"/>
@@ -4643,7 +4670,7 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="25"/>
       <c r="B55" s="39"/>
       <c r="C55" s="25"/>
@@ -4654,16 +4681,16 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="C57" s="6" t="s">
         <v>36</v>
       </c>
@@ -4678,9 +4705,9 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" s="34">
         <v>0.95</v>
@@ -4696,9 +4723,9 @@
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="34">
         <v>0.57999999999999996</v>
@@ -4714,9 +4741,9 @@
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="34">
         <v>0</v>
@@ -4729,9 +4756,9 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="B61" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" s="34">
         <v>2.65</v>
@@ -4747,9 +4774,9 @@
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" s="34">
         <v>0.54</v>
@@ -4765,9 +4792,9 @@
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="34">
         <v>0.9</v>
@@ -4783,9 +4810,9 @@
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="34">
         <v>0.73</v>
@@ -4801,9 +4828,9 @@
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C65" s="34">
         <v>0.5</v>
@@ -4819,9 +4846,9 @@
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="34">
         <v>0.92</v>
@@ -4837,7 +4864,7 @@
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="25"/>
       <c r="B67" s="39"/>
       <c r="C67" s="25"/>
@@ -4848,7 +4875,7 @@
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="20"/>
       <c r="B68" s="39"/>
       <c r="C68" s="25"/>
@@ -4859,7 +4886,7 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="25"/>
       <c r="B69" s="39"/>
       <c r="C69" s="26"/>
@@ -4870,9 +4897,9 @@
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="50"/>
       <c r="C70" s="50"/>
@@ -4883,7 +4910,7 @@
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="50"/>
       <c r="B71" s="50"/>
       <c r="C71" s="44" t="s">
@@ -4900,10 +4927,10 @@
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="50"/>
       <c r="B72" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="51">
         <v>0.4</v>
@@ -4919,10 +4946,10 @@
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="50"/>
       <c r="B73" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" s="51">
         <v>0.4</v>
@@ -4938,10 +4965,10 @@
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="50"/>
       <c r="B74" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C74" s="51">
         <v>0.4</v>
@@ -4957,7 +4984,7 @@
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4968,7 +4995,7 @@
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4979,23 +5006,23 @@
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
       <c r="E77" s="42"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="47" t="s">
@@ -5008,10 +5035,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="42"/>
       <c r="B80" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" s="49">
         <v>0.14599999999999999</v>
@@ -5023,10 +5050,10 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="42"/>
       <c r="B81" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" s="49">
         <v>8.0000000000000002E-3</v>
@@ -5038,10 +5065,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="42"/>
       <c r="B82" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" s="49">
         <v>0.02</v>
@@ -5053,10 +5080,10 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="42"/>
       <c r="B83" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="49">
         <v>7.0000000000000007E-2</v>
@@ -5068,10 +5095,10 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
       <c r="A84" s="42"/>
       <c r="B84" s="48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" s="49">
         <v>0.26500000000000001</v>
@@ -5083,10 +5110,10 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
       <c r="A85" s="42"/>
       <c r="B85" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85" s="49">
         <v>0.54700000000000004</v>
@@ -5098,10 +5125,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="42"/>
       <c r="B86" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="49">
         <v>5.2999999999999999E-2</v>
@@ -5116,6 +5143,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5123,27 +5155,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.140625"/>
-    <col min="3" max="3" width="19.7109375"/>
-    <col min="4" max="4" width="51.28515625"/>
-    <col min="5" max="6" width="11.140625"/>
-    <col min="7" max="7" width="15.85546875"/>
-    <col min="8" max="8" width="21"/>
-    <col min="9" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5169,7 +5192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -5198,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -5227,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -5256,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="6">
         <v>6</v>
       </c>
@@ -5285,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="6">
         <v>7</v>
       </c>
@@ -5314,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -5343,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -5372,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -5401,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -5433,6 +5456,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5440,27 +5468,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="11.140625"/>
-    <col min="4" max="12" width="13"/>
-    <col min="13" max="13" width="14.28515625"/>
-    <col min="14" max="14" width="15.85546875"/>
-    <col min="15" max="15" width="12.85546875"/>
-    <col min="16" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -5528,7 +5548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5562,7 +5582,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5618,7 +5638,7 @@
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5652,7 +5672,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5686,7 +5706,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5742,7 +5762,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5776,7 +5796,7 @@
       </c>
       <c r="Z9" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5810,7 +5830,7 @@
       </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5866,7 +5886,7 @@
       </c>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5900,7 +5920,7 @@
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5913,7 +5933,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5947,7 +5967,7 @@
       </c>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6003,7 +6023,7 @@
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6037,7 +6057,7 @@
       </c>
       <c r="Z17" s="10"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6071,7 +6091,7 @@
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6127,7 +6147,7 @@
       </c>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6161,7 +6181,7 @@
       </c>
       <c r="Z21" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6195,7 +6215,7 @@
       </c>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6251,7 +6271,7 @@
       </c>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6285,7 +6305,7 @@
       </c>
       <c r="Z25" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6319,7 +6339,7 @@
       </c>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6375,7 +6395,7 @@
       </c>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6409,7 +6429,7 @@
       </c>
       <c r="Z29" s="10"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6443,7 +6463,7 @@
       </c>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6509,7 +6529,7 @@
       </c>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6543,7 +6563,7 @@
       </c>
       <c r="Z33" s="10"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6577,7 +6597,7 @@
       </c>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6643,7 +6663,7 @@
       </c>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6680,6 +6700,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6687,25 +6712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="N16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N16" workbookViewId="0">
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.140625"/>
-    <col min="3" max="16" width="18.42578125"/>
-    <col min="17" max="24" width="11.140625"/>
-    <col min="26" max="27" width="12.42578125"/>
-    <col min="28" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -6773,7 +6791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6813,7 +6831,7 @@
       </c>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6853,7 +6871,7 @@
       </c>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6893,7 +6911,7 @@
       </c>
       <c r="Z5" s="15"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6927,7 +6945,7 @@
       </c>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6963,7 +6981,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6997,7 +7015,7 @@
       </c>
       <c r="Z9" s="15"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7033,7 +7051,7 @@
       </c>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7075,7 +7093,7 @@
       </c>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7111,7 +7129,7 @@
       </c>
       <c r="Z13" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7145,7 +7163,7 @@
       </c>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7181,7 +7199,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7215,7 +7233,7 @@
       </c>
       <c r="Z17" s="15"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7249,7 +7267,7 @@
       </c>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7285,7 +7303,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7319,7 +7337,7 @@
       </c>
       <c r="Z21" s="15"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7353,7 +7371,7 @@
       </c>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7401,7 +7419,7 @@
       </c>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7435,7 +7453,7 @@
       </c>
       <c r="Z25" s="15"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7469,7 +7487,7 @@
       </c>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7517,7 +7535,7 @@
       </c>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7551,7 +7569,7 @@
       </c>
       <c r="Z29" s="15"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7585,7 +7603,7 @@
       </c>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7624,7 +7642,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7658,7 +7676,7 @@
       </c>
       <c r="Z33" s="15"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7692,7 +7710,7 @@
       </c>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7731,7 +7749,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7768,6 +7786,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7775,21 +7798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -7857,7 +7877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7890,7 +7910,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7923,7 +7943,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7956,7 +7976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7989,7 +8009,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8022,7 +8042,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8055,7 +8075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8088,7 +8108,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8121,7 +8141,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8154,12 +8174,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -8227,7 +8247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8260,7 +8280,7 @@
       </c>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8293,7 +8313,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8326,7 +8346,7 @@
       </c>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8359,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8392,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8425,7 +8445,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8458,7 +8478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8491,7 +8511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8524,12 +8544,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -8597,7 +8617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8630,7 +8650,7 @@
       </c>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8663,7 +8683,7 @@
       </c>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8696,7 +8716,7 @@
       </c>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8729,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8762,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8795,7 +8815,7 @@
       </c>
       <c r="Y36" s="15"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8828,7 +8848,7 @@
       </c>
       <c r="Y37" s="15"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8861,7 +8881,7 @@
       </c>
       <c r="Y38" s="15"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8897,6 +8917,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8904,21 +8929,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -8986,7 +9008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9021,7 +9043,7 @@
       </c>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9058,7 +9080,7 @@
       </c>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9091,7 +9113,7 @@
       </c>
       <c r="Y5" s="18"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9124,7 +9146,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9157,7 +9179,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9194,7 +9216,7 @@
       </c>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9231,7 +9253,7 @@
       </c>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9264,7 +9286,7 @@
       </c>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9297,12 +9319,12 @@
       </c>
       <c r="Y11" s="18"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -9370,7 +9392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
@@ -9402,12 +9424,12 @@
       </c>
       <c r="Y17" s="7"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -9475,7 +9497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
@@ -9523,12 +9545,12 @@
       </c>
       <c r="Y23" s="7"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="C29" s="6">
         <v>2000</v>
       </c>
@@ -9596,7 +9618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="B30" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9629,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9662,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9695,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9728,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9761,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9794,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9827,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9860,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9893,12 +9915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="C43" s="6">
         <v>2000</v>
       </c>
@@ -9966,7 +9988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
@@ -10000,12 +10022,12 @@
       </c>
       <c r="Y44" s="7"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="C49" s="6">
         <v>2000</v>
       </c>
@@ -10073,7 +10095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10126,7 +10148,7 @@
       </c>
       <c r="Y50" s="23"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10159,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10212,7 +10234,7 @@
       </c>
       <c r="Y52" s="23"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10245,12 +10267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="C58" s="6">
         <v>2000</v>
       </c>
@@ -10318,7 +10340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="6" t="s">
         <v>46</v>
       </c>
@@ -10350,7 +10372,7 @@
       </c>
       <c r="Y59" s="18"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="20" t="s">
         <v>51</v>
       </c>
@@ -10379,7 +10401,7 @@
       <c r="X63" s="25"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26">
@@ -10450,7 +10472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="25"/>
       <c r="B65" s="26" t="s">
         <v>44</v>
@@ -10486,6 +10508,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10493,28 +10520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="11.140625"/>
-    <col min="10" max="10" width="11.28515625"/>
-    <col min="11" max="11" width="12.42578125"/>
-    <col min="12" max="12" width="11.140625"/>
-    <col min="13" max="13" width="11.28515625"/>
-    <col min="14" max="14" width="11.140625"/>
-    <col min="15" max="16" width="12.42578125"/>
-    <col min="17" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -10582,7 +10599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -10626,12 +10643,12 @@
       </c>
       <c r="Y3" s="23"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -10699,7 +10716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="s">
         <v>46</v>
       </c>
@@ -10733,12 +10750,12 @@
       </c>
       <c r="Y9" s="23"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -10806,7 +10823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
@@ -10864,12 +10881,12 @@
       </c>
       <c r="Y15" s="23"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -10937,7 +10954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
@@ -10995,7 +11012,7 @@
       </c>
       <c r="Y21" s="32"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="20" t="s">
         <v>56</v>
       </c>
@@ -11034,7 +11051,7 @@
       <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26">
@@ -11135,7 +11152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>46</v>
@@ -11176,12 +11193,12 @@
       </c>
       <c r="AI27" s="33"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="C31" s="6">
         <v>2000</v>
       </c>
@@ -11249,7 +11266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -11307,12 +11324,12 @@
       </c>
       <c r="Y32" s="23"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="C37" s="6">
         <v>2000</v>
       </c>
@@ -11380,7 +11397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
@@ -11418,7 +11435,7 @@
       </c>
       <c r="Y38" s="23"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="20" t="s">
         <v>59</v>
       </c>
@@ -11447,7 +11464,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26">
@@ -11518,7 +11535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="25"/>
       <c r="B44" s="26" t="s">
         <v>44</v>
@@ -11549,7 +11566,7 @@
       </c>
       <c r="Y44" s="27"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="20" t="s">
         <v>60</v>
       </c>
@@ -11578,7 +11595,7 @@
       <c r="X48" s="25"/>
       <c r="Y48" s="25"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26">
@@ -11649,7 +11666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>44</v>
@@ -11680,7 +11697,7 @@
       </c>
       <c r="Y50" s="27"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -11707,7 +11724,7 @@
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -11734,7 +11751,7 @@
       <c r="X52" s="25"/>
       <c r="Y52" s="25"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -11761,7 +11778,7 @@
       <c r="X53" s="25"/>
       <c r="Y53" s="25"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="20" t="s">
         <v>61</v>
       </c>
@@ -11790,7 +11807,7 @@
       <c r="X54" s="25"/>
       <c r="Y54" s="25"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26">
@@ -11861,7 +11878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>44</v>
@@ -11892,12 +11909,12 @@
       </c>
       <c r="Y56" s="27"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="C61" s="6">
         <v>2000</v>
       </c>
@@ -11995,7 +12012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="B62" s="6" t="s">
         <v>44</v>
       </c>
@@ -12040,28 +12057,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="11.140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="25"/>
       <c r="C2" s="6">
         <v>2000</v>
@@ -12130,7 +12149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="25"/>
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
@@ -12160,11 +12179,11 @@
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y3" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="25"/>
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
@@ -12194,11 +12213,11 @@
       <c r="X4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12227,11 +12246,11 @@
       <c r="X5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12260,11 +12279,11 @@
       <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12293,11 +12312,11 @@
       <c r="X7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12326,11 +12345,11 @@
       <c r="X8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="25"/>
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
@@ -12360,11 +12379,11 @@
       <c r="X9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="25"/>
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
@@ -12394,11 +12413,11 @@
       <c r="X10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="25"/>
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
@@ -12428,17 +12447,16 @@
       <c r="X11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -12506,7 +12524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12539,8 +12557,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12573,7 +12590,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12606,7 +12623,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12639,7 +12656,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12672,7 +12689,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12705,7 +12722,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -12738,7 +12755,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12771,7 +12788,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12804,12 +12821,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -12877,7 +12894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12910,7 +12927,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12943,7 +12960,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12976,7 +12993,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13009,7 +13026,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -13042,7 +13059,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -13075,7 +13092,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -13108,7 +13125,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13141,7 +13158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13174,778 +13191,413 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="26">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="26">
+        <v>2002</v>
+      </c>
+      <c r="F44" s="26">
+        <v>2003</v>
+      </c>
+      <c r="G44" s="26">
+        <v>2004</v>
+      </c>
+      <c r="H44" s="26">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="26">
+        <v>2006</v>
+      </c>
+      <c r="J44" s="26">
+        <v>2007</v>
+      </c>
+      <c r="K44" s="26">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="26">
+        <v>2009</v>
+      </c>
+      <c r="M44" s="26">
+        <v>2010</v>
+      </c>
+      <c r="N44" s="26">
+        <v>2011</v>
+      </c>
+      <c r="O44" s="26">
+        <v>2012</v>
+      </c>
+      <c r="P44" s="26">
+        <v>2013</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>2014</v>
+      </c>
+      <c r="R44" s="26">
+        <v>2015</v>
+      </c>
+      <c r="S44" s="26">
+        <v>2016</v>
+      </c>
+      <c r="T44" s="26">
+        <v>2017</v>
+      </c>
+      <c r="U44" s="26">
+        <v>2018</v>
+      </c>
+      <c r="V44" s="26">
+        <v>2019</v>
+      </c>
+      <c r="W44" s="26">
+        <v>2020</v>
+      </c>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C44" s="6">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26">
         <v>2000</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D50" s="26">
         <v>2001</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E50" s="26">
         <v>2002</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F50" s="26">
         <v>2003</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G50" s="26">
         <v>2004</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H50" s="26">
         <v>2005</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I50" s="26">
         <v>2006</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J50" s="26">
         <v>2007</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K50" s="26">
         <v>2008</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L50" s="26">
         <v>2009</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M50" s="26">
         <v>2010</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N50" s="26">
         <v>2011</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O50" s="26">
         <v>2012</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P50" s="26">
         <v>2013</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q50" s="26">
         <v>2014</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R50" s="26">
         <v>2015</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S50" s="26">
         <v>2016</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T50" s="26">
         <v>2017</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U50" s="26">
         <v>2018</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V50" s="26">
         <v>2019</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W50" s="26">
         <v>2020</v>
       </c>
-      <c r="Y44" s="6" t="s">
+      <c r="X50" s="25"/>
+      <c r="Y50" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y46" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y47" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y48" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y49" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y50" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y52" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y53" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="51" spans="1:25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26">
         <v>2000</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D56" s="26">
         <v>2001</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E56" s="26">
         <v>2002</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F56" s="26">
         <v>2003</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G56" s="26">
         <v>2004</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H56" s="26">
         <v>2005</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I56" s="26">
         <v>2006</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J56" s="26">
         <v>2007</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K56" s="26">
         <v>2008</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L56" s="26">
         <v>2009</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M56" s="26">
         <v>2010</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N56" s="26">
         <v>2011</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O56" s="26">
         <v>2012</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P56" s="26">
         <v>2013</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q56" s="26">
         <v>2014</v>
       </c>
-      <c r="R58" s="26">
+      <c r="R56" s="26">
         <v>2015</v>
       </c>
-      <c r="S58" s="26">
+      <c r="S56" s="26">
         <v>2016</v>
       </c>
-      <c r="T58" s="26">
+      <c r="T56" s="26">
         <v>2017</v>
       </c>
-      <c r="U58" s="26">
+      <c r="U56" s="26">
         <v>2018</v>
       </c>
-      <c r="V58" s="26">
+      <c r="V56" s="26">
         <v>2019</v>
       </c>
-      <c r="W58" s="26">
+      <c r="W56" s="26">
         <v>2020</v>
       </c>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="26" t="s">
+      <c r="X56" s="25"/>
+      <c r="Y56" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26" t="s">
+    <row r="57" spans="1:25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y59" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E64" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F64" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G64" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H64" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I64" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J64" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K64" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L64" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M64" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N64" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O64" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P64" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q64" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R64" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S64" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T64" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U64" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V64" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W64" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D70" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E70" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F70" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G70" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H70" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I70" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J70" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K70" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L70" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M70" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N70" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O70" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P70" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q70" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R70" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S70" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T70" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U70" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V70" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W70" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y71" s="27">
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y57" s="27">
         <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13953,18 +13605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -14032,7 +13684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14065,7 +13717,7 @@
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14098,7 +13750,7 @@
       </c>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14131,7 +13783,7 @@
       </c>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14164,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14197,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14230,7 +13882,7 @@
       </c>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14263,7 +13915,7 @@
       </c>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14296,7 +13948,7 @@
       </c>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14329,12 +13981,12 @@
       </c>
       <c r="Y11" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -14402,7 +14054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14435,7 +14087,7 @@
       </c>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14468,7 +14120,7 @@
       </c>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14501,7 +14153,7 @@
       </c>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14534,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14567,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14600,7 +14252,7 @@
       </c>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14633,7 +14285,7 @@
       </c>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14666,7 +14318,7 @@
       </c>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14699,12 +14351,12 @@
       </c>
       <c r="Y25" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -14772,7 +14424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14805,7 +14457,7 @@
       </c>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14838,7 +14490,7 @@
       </c>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14871,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14904,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14937,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14970,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15003,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15036,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15069,12 +14721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="C44" s="6">
         <v>2000</v>
       </c>
@@ -15142,7 +14794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15175,7 +14827,7 @@
       </c>
       <c r="Y45" s="18"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="B46" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15208,7 +14860,7 @@
       </c>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="B47" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15241,7 +14893,7 @@
       </c>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="B48" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15274,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="B49" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15307,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15340,7 +14992,7 @@
       </c>
       <c r="Y50" s="18"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15373,7 +15025,7 @@
       </c>
       <c r="Y51" s="18"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15406,7 +15058,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15439,12 +15091,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="C58" s="6">
         <v>2000</v>
       </c>
@@ -15512,7 +15164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="B59" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15545,7 +15197,7 @@
       </c>
       <c r="Y59" s="18"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="B60" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15582,7 +15234,7 @@
       </c>
       <c r="Y60" s="18"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="B61" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15615,7 +15267,7 @@
       </c>
       <c r="Y61" s="18"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="B62" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15648,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="B63" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15681,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="B64" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15718,7 +15370,7 @@
       </c>
       <c r="Y64" s="18"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="B65" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15755,7 +15407,7 @@
       </c>
       <c r="Y65" s="18"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="B66" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15788,7 +15440,7 @@
       </c>
       <c r="Y66" s="18"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="B67" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15821,12 +15473,12 @@
       </c>
       <c r="Y67" s="18"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="C72" s="6">
         <v>2000</v>
       </c>
@@ -15894,7 +15546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="B73" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15929,7 +15581,7 @@
       </c>
       <c r="Y73" s="18"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="B74" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15962,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="B75" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15995,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="B76" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16028,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="B77" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -16061,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="B78" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16094,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="B79" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -16127,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="B80" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16160,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="B81" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -16193,12 +15845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="C86" s="6">
         <v>2000</v>
       </c>
@@ -16266,7 +15918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="B87" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16299,7 +15951,7 @@
       </c>
       <c r="Y87" s="18"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="B88" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16332,7 +15984,7 @@
       </c>
       <c r="Y88" s="18"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="B89" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16365,7 +16017,7 @@
       </c>
       <c r="Y89" s="18"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="B90" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16398,7 +16050,7 @@
       </c>
       <c r="Y90" s="18"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="B91" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16431,12 +16083,12 @@
       </c>
       <c r="Y91" s="18"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="C96" s="6">
         <v>2000</v>
       </c>
@@ -16504,7 +16156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25">
       <c r="B97" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16537,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25">
       <c r="B98" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16570,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25">
       <c r="B99" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16603,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25">
       <c r="B100" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16636,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25">
       <c r="B101" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16674,5 +16326,10 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -691,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -806,6 +806,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -949,7 +953,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="122">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -958,6 +962,8 @@
     <cellStyle name="Explanatory Text 2" xfId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1057,6 +1063,8 @@
     <cellStyle name="Followed Hyperlink 98" xfId="113"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -691,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -806,6 +806,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -953,7 +955,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="124">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -964,6 +966,7 @@
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1065,6 +1068,7 @@
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -12078,7 +12082,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y11"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12188,7 +12192,7 @@
         <v>35</v>
       </c>
       <c r="Y3" s="53">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -12222,7 +12226,7 @@
         <v>35</v>
       </c>
       <c r="Y4" s="53">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="136">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -387,9 +387,6 @@
     <t>CD4(&lt;50)</t>
   </si>
   <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
     <t>Acute to CD4(&gt;500)</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>CD4(50-200) to CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate (% per year)</t>
   </si>
   <si>
     <t>CD4(350-500) to CD4(&gt;500)</t>
@@ -483,19 +477,19 @@
     <t>Treated HIV</t>
   </si>
   <si>
-    <t>Cascade parameters</t>
-  </si>
-  <si>
-    <t>People on unsuppressive ART who progress (%)</t>
-  </si>
-  <si>
     <t>People on unsuppressive ART who recover (%)</t>
   </si>
   <si>
-    <t>People lost to follow up who are still in care (%)</t>
+    <t>Average time taken to be linked to care (years)</t>
   </si>
   <si>
-    <t>Average time taken to be linked to care (years)</t>
+    <t>Disease progression (average years to move)</t>
+  </si>
+  <si>
+    <t>Treatment recovery on suppressive ART (average years to move)</t>
+  </si>
+  <si>
+    <t>Treatment recovery on unsuppressive ART</t>
   </si>
 </sst>
 </file>
@@ -691,7 +685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -816,8 +810,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -954,8 +950,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="126">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -967,6 +965,7 @@
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1069,6 +1068,7 @@
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4052,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4334,101 +4334,101 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="34">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D26" s="34">
-        <v>2</v>
-      </c>
-      <c r="E26" s="34">
-        <v>9.76</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="34">
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="34">
-        <v>0.86</v>
-      </c>
-      <c r="E27" s="34">
-        <v>1.61</v>
+      <c r="C27" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0.62</v>
+      </c>
+      <c r="E27" s="53">
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="D28" s="34">
-        <v>0.32</v>
-      </c>
-      <c r="E28" s="34">
-        <v>0.35</v>
+        <v>102</v>
+      </c>
+      <c r="C28" s="53">
+        <v>3</v>
+      </c>
+      <c r="D28" s="53">
+        <v>2.83</v>
+      </c>
+      <c r="E28" s="53">
+        <v>3.16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="D29" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0.28999999999999998</v>
+        <v>103</v>
+      </c>
+      <c r="C29" s="53">
+        <v>3.74</v>
+      </c>
+      <c r="D29" s="53">
+        <v>3.48</v>
+      </c>
+      <c r="E29" s="53">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="34">
-        <v>0.67</v>
-      </c>
-      <c r="D30" s="34">
-        <v>0.44</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0.88</v>
+        <v>104</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E30" s="53">
+        <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="25"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4439,263 +4439,263 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:9">
       <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D36" s="53">
+        <v>1.07</v>
+      </c>
+      <c r="E36" s="53">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="53">
+        <v>1.42</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="53">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="34">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E36" s="34">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="3" t="s">
+      <c r="C38" s="53">
+        <v>2.14</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1.39</v>
+      </c>
+      <c r="E38" s="53">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="34">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E37" s="34">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="34">
-        <v>0.47</v>
-      </c>
-      <c r="D38" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="34">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="34">
-        <v>1.52</v>
-      </c>
-      <c r="D39" s="34">
-        <v>1.06</v>
-      </c>
-      <c r="E39" s="34">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="53">
+        <v>0.66</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0.51</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="25"/>
       <c r="B40" s="39"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:9">
       <c r="A41" s="25"/>
       <c r="B41" s="39"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:9">
       <c r="A42" s="25"/>
       <c r="B42" s="39"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" s="6" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="44" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D45" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E45" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D46" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E46" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="38">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D47" s="38">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E47" s="38">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="38">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D48" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E48" s="38">
-        <v>1.01E-2</v>
-      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="50"/>
+      <c r="B45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="B49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="38">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D49" s="38">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E49" s="38">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
+      <c r="A49" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="B50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="38">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D50" s="38">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E50" s="38">
-        <v>0.432</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C51" s="38">
-        <v>0.23</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D51" s="38">
-        <v>0.15</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E51" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C52" s="38">
-        <v>2.17</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D52" s="38">
-        <v>1.27</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E52" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="25"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="38">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D53" s="38">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E53" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="25"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="38">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D54" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="25"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D55" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E55" s="38">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="2" t="s">
-        <v>115</v>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D56" s="38">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0.432</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -4703,14 +4703,17 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="C57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>34</v>
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="38">
+        <v>0.23</v>
+      </c>
+      <c r="D57" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0.3</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
@@ -4719,121 +4722,91 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="D58" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E58" s="34">
-        <v>0.98</v>
+        <v>112</v>
+      </c>
+      <c r="C58" s="38">
+        <v>2.17</v>
+      </c>
+      <c r="D58" s="38">
+        <v>1.27</v>
+      </c>
+      <c r="E58" s="38">
+        <v>3.71</v>
       </c>
       <c r="F58" s="25"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D59" s="34">
-        <v>0.47</v>
-      </c>
-      <c r="E59" s="34">
-        <v>0.67</v>
-      </c>
+      <c r="A59" s="25"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0</v>
-      </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>0.68</v>
-      </c>
+      <c r="A60" s="25"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="D61" s="34">
-        <v>1.35</v>
-      </c>
-      <c r="E61" s="34">
-        <v>5.19</v>
-      </c>
+      <c r="A61" s="25"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="34">
-        <v>0.54</v>
-      </c>
-      <c r="D62" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E62" s="34">
-        <v>0.68</v>
+      <c r="A62" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F62" s="25"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="B63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D63" s="34">
-        <v>0.82</v>
-      </c>
-      <c r="E63" s="34">
-        <v>0.93</v>
+      <c r="C63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F63" s="25"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
     </row>
     <row r="64" spans="1:9">
       <c r="B64" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C64" s="34">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="D64" s="34">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E64" s="34">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="41"/>
@@ -4842,16 +4815,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C65" s="34">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D65" s="34">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="E65" s="34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="41"/>
@@ -4860,98 +4833,121 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C66" s="34">
+        <v>0</v>
+      </c>
+      <c r="D66" s="34">
+        <v>0</v>
+      </c>
+      <c r="E66" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="D67" s="34">
+        <v>1.35</v>
+      </c>
+      <c r="E67" s="34">
+        <v>5.19</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="34">
+        <v>0.54</v>
+      </c>
+      <c r="D68" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="E68" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="34">
+        <v>0.82</v>
+      </c>
+      <c r="E69" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="E70" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E71" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="34">
         <v>0.92</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D72" s="34">
         <v>0.8</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E72" s="34">
         <v>0.95</v>
-      </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="25"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="20"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="25"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="50"/>
-      <c r="B72" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="D72" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E72" s="51">
-        <v>0.5</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -4959,92 +4955,88 @@
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="50"/>
-      <c r="B73" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="D73" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E73" s="51">
-        <v>0.5</v>
-      </c>
+      <c r="A73" s="25"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="50"/>
-      <c r="B74" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="D74" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E74" s="51">
-        <v>0.5</v>
-      </c>
+      <c r="A74" s="20"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="42"/>
+      <c r="A76" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
       <c r="E76" s="42"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
+      <c r="C77" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D78" s="49">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E78" s="49">
+        <v>0.20499999999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>34</v>
+      <c r="B79" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="49">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D79" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E79" s="49">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5053,13 +5045,13 @@
         <v>126</v>
       </c>
       <c r="C80" s="49">
-        <v>0.14599999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D80" s="49">
-        <v>9.6000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E80" s="49">
-        <v>0.20499999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5068,93 +5060,63 @@
         <v>127</v>
       </c>
       <c r="C81" s="49">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D81" s="49">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E81" s="49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
       <c r="A82" s="42"/>
       <c r="B82" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="49">
-        <v>0.02</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D82" s="49">
-        <v>1.2999999999999999E-2</v>
+        <v>0.114</v>
       </c>
       <c r="E82" s="49">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
       <c r="A83" s="42"/>
       <c r="B83" s="48" t="s">
         <v>129</v>
       </c>
       <c r="C83" s="49">
-        <v>7.0000000000000007E-2</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D83" s="49">
-        <v>4.8000000000000001E-2</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E83" s="49">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="42"/>
       <c r="B84" s="48" t="s">
         <v>130</v>
       </c>
       <c r="C84" s="49">
-        <v>0.26500000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D84" s="49">
-        <v>0.114</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E84" s="49">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D85" s="49">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E85" s="49">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="42"/>
-      <c r="B86" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="49">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D86" s="49">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E86" s="49">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12081,7 +12043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -12089,7 +12051,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8903,8 +8903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12043,8 +12043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="135">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Treated HIV</t>
   </si>
   <si>
-    <t>People on unsuppressive ART who recover (%)</t>
-  </si>
-  <si>
     <t>Average time taken to be linked to care (years)</t>
   </si>
   <si>
@@ -489,7 +486,7 @@
     <t>Treatment recovery on suppressive ART (average years to move)</t>
   </si>
   <si>
-    <t>Treatment recovery on unsuppressive ART</t>
+    <t>CD4 change due to non-suppressive ART (% per year)</t>
   </si>
 </sst>
 </file>
@@ -813,7 +810,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -928,7 +925,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -940,18 +936,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="126">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4052,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4215,13 +4213,13 @@
       <c r="B15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="50">
         <v>5.6</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="50">
         <v>3.3</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="50">
         <v>9.1</v>
       </c>
     </row>
@@ -4318,7 +4316,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4336,13 +4334,13 @@
       <c r="B26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.24</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="51">
         <v>0.1</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -4350,13 +4348,13 @@
       <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.95</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="51">
         <v>0.62</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="51">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -4364,13 +4362,13 @@
       <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>3</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="51">
         <v>2.83</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="51">
         <v>3.16</v>
       </c>
     </row>
@@ -4378,13 +4376,13 @@
       <c r="B29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="51">
         <v>3.74</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="51">
         <v>3.48</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="51">
         <v>4</v>
       </c>
     </row>
@@ -4392,43 +4390,43 @@
       <c r="B30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="51">
         <v>1.5</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="51">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="51">
         <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4439,99 +4437,95 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="51">
         <v>1.07</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="51">
         <v>7.28</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="51">
         <v>1.42</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="51">
         <v>0.9</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="51">
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:5">
       <c r="B38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="51">
         <v>2.14</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="51">
         <v>1.39</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="51">
         <v>3.58</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:5">
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="51">
         <v>0.66</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="51">
         <v>0.51</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="51">
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:5">
       <c r="A40" s="25"/>
       <c r="B40" s="39"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:5">
       <c r="A41" s="25"/>
       <c r="B41" s="39"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:5">
       <c r="A42" s="25"/>
       <c r="B42" s="39"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="A43" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="44" t="s">
         <v>36</v>
       </c>
@@ -4541,239 +4535,231 @@
       <c r="E44" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="50"/>
-      <c r="B45" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="D45" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E45" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="45" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="49"/>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="56">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D45" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E45" s="56">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="49"/>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="D46" s="56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E46" s="56">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="49"/>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E47" s="56">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A48" s="49"/>
+      <c r="B48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="56">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D48" s="56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E48" s="56">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="49"/>
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="56">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D49" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="56">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="49"/>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="56">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D50" s="56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E50" s="56">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="49"/>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="D51" s="56">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E51" s="56">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="49"/>
+      <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="56">
+        <v>0.111</v>
+      </c>
+      <c r="D52" s="56">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E52" s="56">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+    </row>
+    <row r="54" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+    </row>
+    <row r="55" spans="1:9" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="C50" s="6" t="s">
+    <row r="57" spans="1:9">
+      <c r="C57" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="B51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D51" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E51" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="B52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D52" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E52" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="38">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D53" s="38">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E53" s="38">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="38">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D54" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E54" s="38">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="38">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D55" s="38">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E55" s="38">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="38">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D56" s="38">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E56" s="38">
-        <v>0.432</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="38">
-        <v>0.23</v>
-      </c>
-      <c r="D57" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="E57" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C58" s="38">
-        <v>2.17</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D58" s="38">
-        <v>1.27</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E58" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="25"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="B59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="38">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D59" s="38">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E59" s="38">
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="25"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="38">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D60" s="38">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E60" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="25"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="B61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="38">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D61" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E61" s="38">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="2" t="s">
-        <v>113</v>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D62" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E62" s="38">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
@@ -4781,14 +4767,17 @@
       <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="C63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>34</v>
+      <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D63" s="38">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E63" s="38">
+        <v>0.432</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
@@ -4797,139 +4786,109 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="D64" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E64" s="34">
-        <v>0.98</v>
+        <v>111</v>
+      </c>
+      <c r="C64" s="38">
+        <v>0.23</v>
+      </c>
+      <c r="D64" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="E64" s="38">
+        <v>0.3</v>
       </c>
       <c r="F64" s="25"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D65" s="34">
-        <v>0.47</v>
-      </c>
-      <c r="E65" s="34">
-        <v>0.67</v>
+        <v>112</v>
+      </c>
+      <c r="C65" s="38">
+        <v>2.17</v>
+      </c>
+      <c r="D65" s="38">
+        <v>1.27</v>
+      </c>
+      <c r="E65" s="38">
+        <v>3.71</v>
       </c>
       <c r="F65" s="25"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="B66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="34">
-        <v>0</v>
-      </c>
-      <c r="D66" s="34">
-        <v>0</v>
-      </c>
-      <c r="E66" s="34">
-        <v>0.68</v>
-      </c>
+      <c r="A66" s="25"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="B67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="D67" s="34">
-        <v>1.35</v>
-      </c>
-      <c r="E67" s="34">
-        <v>5.19</v>
-      </c>
+      <c r="A67" s="25"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="34">
-        <v>0.54</v>
-      </c>
-      <c r="D68" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E68" s="34">
-        <v>0.68</v>
-      </c>
+      <c r="A68" s="25"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D69" s="34">
-        <v>0.82</v>
-      </c>
-      <c r="E69" s="34">
-        <v>0.93</v>
+      <c r="A69" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F69" s="25"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="34">
-        <v>0.73</v>
-      </c>
-      <c r="D70" s="34">
-        <v>0.65</v>
-      </c>
-      <c r="E70" s="34">
-        <v>0.8</v>
+      <c r="C70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F70" s="25"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:9">
       <c r="B71" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C71" s="34">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D71" s="34">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E71" s="34">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="41"/>
@@ -4938,179 +4897,302 @@
     </row>
     <row r="72" spans="1:9">
       <c r="B72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="34">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D72" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="E72" s="34">
+        <v>0.67</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="34">
+        <v>0</v>
+      </c>
+      <c r="D73" s="34">
+        <v>0</v>
+      </c>
+      <c r="E73" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="D74" s="34">
+        <v>1.35</v>
+      </c>
+      <c r="E74" s="34">
+        <v>5.19</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="34">
+        <v>0.54</v>
+      </c>
+      <c r="D75" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="E75" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="34">
+        <v>0.82</v>
+      </c>
+      <c r="E76" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="D77" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="E77" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E78" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C79" s="34">
         <v>0.92</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D79" s="34">
         <v>0.8</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E79" s="34">
         <v>0.95</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="25"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="20"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="25"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="46" t="s">
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="25"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="20"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="25"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="47" t="s">
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D84" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E84" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="42"/>
-      <c r="B78" s="48" t="s">
+    <row r="85" spans="1:9">
+      <c r="A85" s="42"/>
+      <c r="B85" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C85" s="48">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D85" s="48">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E85" s="48">
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="42"/>
-      <c r="B79" s="48" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="42"/>
+      <c r="B86" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C86" s="48">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D86" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E86" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="42"/>
-      <c r="B80" s="48" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" s="42"/>
+      <c r="B87" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="49">
+      <c r="C87" s="48">
         <v>0.02</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D87" s="48">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E87" s="48">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="42"/>
-      <c r="B81" s="48" t="s">
+    <row r="88" spans="1:9">
+      <c r="A88" s="42"/>
+      <c r="B88" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C88" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D88" s="48">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E88" s="48">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="48" t="s">
+    <row r="89" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A89" s="42"/>
+      <c r="B89" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="49">
+      <c r="C89" s="48">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D89" s="48">
         <v>0.114</v>
       </c>
-      <c r="E82" s="49">
+      <c r="E89" s="48">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="48" t="s">
+    <row r="90" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A90" s="42"/>
+      <c r="B90" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="49">
+      <c r="C90" s="48">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D90" s="48">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E90" s="48">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="42"/>
-      <c r="B84" s="48" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" s="42"/>
+      <c r="B91" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="49">
+      <c r="C91" s="48">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D91" s="48">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E91" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -8903,7 +8985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -12051,7 +12133,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12153,7 +12235,7 @@
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="53">
+      <c r="Y3" s="51">
         <v>0.2</v>
       </c>
     </row>
@@ -12187,7 +12269,7 @@
       <c r="X4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="53">
+      <c r="Y4" s="51">
         <v>0.2</v>
       </c>
     </row>
@@ -12220,7 +12302,7 @@
       <c r="X5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="53">
+      <c r="Y5" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12253,7 +12335,7 @@
       <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="53">
+      <c r="Y6" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12286,7 +12368,7 @@
       <c r="X7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="53">
+      <c r="Y7" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12319,7 +12401,7 @@
       <c r="X8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="53">
+      <c r="Y8" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12353,7 +12435,7 @@
       <c r="X9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="53">
+      <c r="Y9" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12387,7 +12469,7 @@
       <c r="X10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="53">
+      <c r="Y10" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -12421,7 +12503,7 @@
       <c r="X11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="53">
+      <c r="Y11" s="51">
         <v>0.5</v>
       </c>
     </row>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="133">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -273,9 +273,6 @@
     <t>People on ART with viral suppression (%)</t>
   </si>
   <si>
-    <t>Percentage of people who receive ART in the year who stop taking ART (%/year)</t>
-  </si>
-  <si>
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>Viral load monitoring (number/year)</t>
-  </si>
-  <si>
-    <t>Rate of ART re-initiation (%/year)</t>
   </si>
   <si>
     <t>Average number of acts with regular partners per person per year</t>
@@ -503,7 +497,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -572,11 +566,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -614,7 +603,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,12 +640,6 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
-        <bgColor rgb="FF18C1FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -682,7 +665,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -698,119 +681,123 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -936,7 +923,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -951,7 +937,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="130">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -964,6 +950,8 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1067,6 +1055,8 @@
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -1884,15 +1874,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1936,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2306,7 +2296,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2676,7 +2666,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2802,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3000,7 +2990,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3198,7 +3188,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3378,7 +3368,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3556,7 +3546,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3667,7 +3657,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3853,7 +3843,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4052,15 +4042,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4076,7 +4066,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="38">
         <v>4.0000000000000002E-4</v>
@@ -4090,7 +4080,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="38">
         <v>8.0000000000000004E-4</v>
@@ -4104,7 +4094,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="38">
         <v>1.1000000000000001E-3</v>
@@ -4118,7 +4108,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="38">
         <v>1.38E-2</v>
@@ -4132,7 +4122,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="38">
         <v>8.0000000000000002E-3</v>
@@ -4146,7 +4136,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="38">
         <v>0.36699999999999999</v>
@@ -4160,7 +4150,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="38">
         <v>0.20499999999999999</v>
@@ -4195,7 +4185,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4211,21 +4201,21 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="50">
+        <v>93</v>
+      </c>
+      <c r="C15" s="40">
         <v>5.6</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="40">
         <v>3.3</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="40">
         <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="40">
         <v>1</v>
@@ -4239,7 +4229,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="40">
         <v>1</v>
@@ -4253,7 +4243,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="40">
         <v>1</v>
@@ -4267,7 +4257,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="40">
         <v>3.49</v>
@@ -4281,7 +4271,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="40">
         <v>7.17</v>
@@ -4316,7 +4306,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4332,98 +4322,98 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="51">
+        <v>99</v>
+      </c>
+      <c r="C26" s="50">
         <v>0.24</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="50">
         <v>0.1</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="51">
+        <v>95</v>
+      </c>
+      <c r="C27" s="50">
         <v>0.95</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="50">
         <v>0.62</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="50">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="51">
+        <v>100</v>
+      </c>
+      <c r="C28" s="50">
         <v>3</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <v>2.83</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="50">
         <v>3.16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="51">
+        <v>101</v>
+      </c>
+      <c r="C29" s="50">
         <v>3.74</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="50">
         <v>3.48</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="51">
+        <v>102</v>
+      </c>
+      <c r="C30" s="50">
         <v>1.5</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="50">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="50">
         <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4439,57 +4429,57 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="51">
+        <v>103</v>
+      </c>
+      <c r="C36" s="50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="50">
         <v>1.07</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="50">
         <v>7.28</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="51">
+        <v>104</v>
+      </c>
+      <c r="C37" s="50">
         <v>1.42</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <v>0.9</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="50">
         <v>3.42</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="51">
+        <v>105</v>
+      </c>
+      <c r="C38" s="50">
         <v>2.14</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="50">
         <v>1.39</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="50">
         <v>3.58</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="51">
+        <v>106</v>
+      </c>
+      <c r="C39" s="50">
         <v>0.66</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="50">
         <v>0.51</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="50">
         <v>0.94</v>
       </c>
     </row>
@@ -4514,16 +4504,16 @@
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="43" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A43" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
     </row>
-    <row r="44" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="44" t="s">
@@ -4536,149 +4526,149 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="45" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="56">
+        <v>95</v>
+      </c>
+      <c r="C45" s="55">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="55">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="46" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="56">
+        <v>103</v>
+      </c>
+      <c r="C46" s="55">
         <v>0.15</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="55">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="55">
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="47" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="56">
+        <v>100</v>
+      </c>
+      <c r="C47" s="55">
         <v>0.1</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="55">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="55">
         <v>0.87</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="48" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="49"/>
       <c r="B48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="56">
+        <v>104</v>
+      </c>
+      <c r="C48" s="55">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="55">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="55">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A49" s="49"/>
       <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="56">
+        <v>101</v>
+      </c>
+      <c r="C49" s="55">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="55">
         <v>0.05</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="55">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="49"/>
       <c r="B50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="56">
+        <v>105</v>
+      </c>
+      <c r="C50" s="55">
         <v>0.11700000000000001</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="55">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="55">
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="56">
+        <v>102</v>
+      </c>
+      <c r="C51" s="55">
         <v>0.09</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="55">
         <v>1.9E-2</v>
       </c>
-      <c r="E51" s="56">
+      <c r="E51" s="55">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="56">
+        <v>106</v>
+      </c>
+      <c r="C52" s="55">
         <v>0.111</v>
       </c>
-      <c r="D52" s="56">
+      <c r="D52" s="55">
         <v>4.7E-2</v>
       </c>
-      <c r="E52" s="56">
+      <c r="E52" s="55">
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-    </row>
-    <row r="54" spans="1:9" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-    </row>
-    <row r="55" spans="1:9" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+    <row r="53" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+    </row>
+    <row r="54" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+    </row>
+    <row r="55" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4694,7 +4684,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" s="38">
         <v>3.5999999999999999E-3</v>
@@ -4708,7 +4698,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59" s="38">
         <v>3.5999999999999999E-3</v>
@@ -4722,7 +4712,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="38">
         <v>5.7999999999999996E-3</v>
@@ -4736,7 +4726,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C61" s="38">
         <v>8.8000000000000005E-3</v>
@@ -4750,7 +4740,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C62" s="38">
         <v>5.8999999999999997E-2</v>
@@ -4768,7 +4758,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="38">
         <v>0.32300000000000001</v>
@@ -4786,7 +4776,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" s="38">
         <v>0.23</v>
@@ -4804,7 +4794,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="38">
         <v>2.17</v>
@@ -4855,7 +4845,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
@@ -4879,7 +4869,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="B71" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="34">
         <v>0.95</v>
@@ -4897,7 +4887,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="B72" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="34">
         <v>0.57999999999999996</v>
@@ -4915,7 +4905,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="B73" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" s="34">
         <v>0</v>
@@ -4930,7 +4920,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="B74" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" s="34">
         <v>2.65</v>
@@ -4948,7 +4938,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="B75" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C75" s="34">
         <v>0.54</v>
@@ -4966,7 +4956,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="B76" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C76" s="34">
         <v>0.9</v>
@@ -4984,7 +4974,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="B77" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C77" s="34">
         <v>0.73</v>
@@ -5002,7 +4992,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C78" s="34">
         <v>0.5</v>
@@ -5020,7 +5010,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" s="34">
         <v>0.92</v>
@@ -5071,7 +5061,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -5094,7 +5084,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="42"/>
       <c r="B85" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="48">
         <v>0.14599999999999999</v>
@@ -5109,7 +5099,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="42"/>
       <c r="B86" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="48">
         <v>8.0000000000000002E-3</v>
@@ -5124,7 +5114,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="42"/>
       <c r="B87" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="48">
         <v>0.02</v>
@@ -5139,7 +5129,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="42"/>
       <c r="B88" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="48">
         <v>7.0000000000000007E-2</v>
@@ -5154,7 +5144,7 @@
     <row r="89" spans="1:9" ht="13.5" customHeight="1">
       <c r="A89" s="42"/>
       <c r="B89" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="48">
         <v>0.26500000000000001</v>
@@ -5169,7 +5159,7 @@
     <row r="90" spans="1:9" ht="13.5" customHeight="1">
       <c r="A90" s="42"/>
       <c r="B90" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="48">
         <v>0.54700000000000004</v>
@@ -5184,7 +5174,7 @@
     <row r="91" spans="1:9">
       <c r="A91" s="42"/>
       <c r="B91" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="48">
         <v>5.2999999999999999E-2</v>
@@ -8985,8 +8975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10576,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -12123,17 +12113,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12235,7 +12225,7 @@
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="51">
+      <c r="Y3" s="50">
         <v>0.2</v>
       </c>
     </row>
@@ -12269,7 +12259,7 @@
       <c r="X4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="51">
+      <c r="Y4" s="50">
         <v>0.2</v>
       </c>
     </row>
@@ -12302,7 +12292,7 @@
       <c r="X5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="51">
+      <c r="Y5" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12335,7 +12325,7 @@
       <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="51">
+      <c r="Y6" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12368,7 +12358,7 @@
       <c r="X7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="51">
+      <c r="Y7" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12401,7 +12391,7 @@
       <c r="X8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="51">
+      <c r="Y8" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12435,7 +12425,7 @@
       <c r="X9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="Y9" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12469,7 +12459,7 @@
       <c r="X10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="51">
+      <c r="Y10" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12503,7 +12493,7 @@
       <c r="X11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="51">
+      <c r="Y11" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -12881,769 +12871,266 @@
       <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:25">
-      <c r="C30" s="6">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26">
         <v>2000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="26">
         <v>2001</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="26">
         <v>2002</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="26">
         <v>2003</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="26">
         <v>2004</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="26">
         <v>2005</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="26">
         <v>2006</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="26">
         <v>2007</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="26">
         <v>2008</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="26">
         <v>2009</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="26">
         <v>2010</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="26">
         <v>2011</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="26">
         <v>2012</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="26">
         <v>2013</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="26">
         <v>2014</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="26">
         <v>2015</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="26">
         <v>2016</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="26">
         <v>2017</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="26">
         <v>2018</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="26">
         <v>2019</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="26">
         <v>2020</v>
       </c>
-      <c r="Y30" s="6" t="s">
+      <c r="X30" s="25"/>
+      <c r="Y30" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="B31" s="6" t="str">
-        <f>Populations!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="B32" s="6" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y32" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="B33" s="6" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y33" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="B34" s="6" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="34">
-        <v>0.8</v>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="27">
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="B35" s="6" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y35" s="34">
-        <v>0.8</v>
-      </c>
+      <c r="A35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="B36" s="6" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y36" s="34">
-        <v>0.8</v>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="26">
+        <v>2001</v>
+      </c>
+      <c r="E36" s="26">
+        <v>2002</v>
+      </c>
+      <c r="F36" s="26">
+        <v>2003</v>
+      </c>
+      <c r="G36" s="26">
+        <v>2004</v>
+      </c>
+      <c r="H36" s="26">
+        <v>2005</v>
+      </c>
+      <c r="I36" s="26">
+        <v>2006</v>
+      </c>
+      <c r="J36" s="26">
+        <v>2007</v>
+      </c>
+      <c r="K36" s="26">
+        <v>2008</v>
+      </c>
+      <c r="L36" s="26">
+        <v>2009</v>
+      </c>
+      <c r="M36" s="26">
+        <v>2010</v>
+      </c>
+      <c r="N36" s="26">
+        <v>2011</v>
+      </c>
+      <c r="O36" s="26">
+        <v>2012</v>
+      </c>
+      <c r="P36" s="26">
+        <v>2013</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>2014</v>
+      </c>
+      <c r="R36" s="26">
+        <v>2015</v>
+      </c>
+      <c r="S36" s="26">
+        <v>2016</v>
+      </c>
+      <c r="T36" s="26">
+        <v>2017</v>
+      </c>
+      <c r="U36" s="26">
+        <v>2018</v>
+      </c>
+      <c r="V36" s="26">
+        <v>2019</v>
+      </c>
+      <c r="W36" s="26">
+        <v>2020</v>
+      </c>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:25">
-      <c r="B37" s="6" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="B38" s="6" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="B39" s="6" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D44" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E44" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F44" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G44" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H44" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I44" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J44" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K44" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L44" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M44" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N44" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O44" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P44" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R44" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S44" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T44" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U44" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V44" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W44" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D50" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E50" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F50" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G50" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H50" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I50" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J50" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K50" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L50" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M50" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N50" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O50" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P50" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q50" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R50" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S50" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T50" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U50" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V50" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W50" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="36">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y37" s="36">
         <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-    </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D56" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E56" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F56" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G56" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H56" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I56" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J56" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K56" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L56" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M56" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N56" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O56" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P56" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q56" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R56" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S56" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T56" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U56" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V56" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W56" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y57" s="27">
-        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -13661,15 +13148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -14039,7 +13526,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -14409,7 +13896,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -14779,7 +14266,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -15149,7 +14636,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -15531,7 +15018,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -15903,7 +15390,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -16141,7 +15628,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="133">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>Percentage of HIV-positive women who breastfeed</t>
-  </si>
-  <si>
-    <t>Viral suppression when initiating ART (%)</t>
   </si>
   <si>
     <t>Number of HIV tests per year</t>
@@ -482,6 +479,9 @@
   <si>
     <t>CD4 change due to non-suppressive ART (% per year)</t>
   </si>
+  <si>
+    <t>Average time from initiating ART to achieving viral suppression (years)</t>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +665,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -796,8 +796,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -928,16 +938,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="140">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -952,6 +965,11 @@
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1057,6 +1075,11 @@
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -1874,15 +1897,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="53"/>
+      <c r="A2" s="56"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="56"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1926,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2296,7 +2319,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2666,7 +2689,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2792,7 +2815,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2990,7 +3013,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3188,7 +3211,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3368,7 +3391,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3546,7 +3569,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3657,7 +3680,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3843,7 +3866,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4040,17 +4063,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4066,7 +4089,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="38">
         <v>4.0000000000000002E-4</v>
@@ -4080,7 +4103,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="38">
         <v>8.0000000000000004E-4</v>
@@ -4094,7 +4117,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="38">
         <v>1.1000000000000001E-3</v>
@@ -4108,7 +4131,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="38">
         <v>1.38E-2</v>
@@ -4122,7 +4145,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="38">
         <v>8.0000000000000002E-3</v>
@@ -4136,7 +4159,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="38">
         <v>0.36699999999999999</v>
@@ -4150,7 +4173,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="38">
         <v>0.20499999999999999</v>
@@ -4185,7 +4208,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4201,7 +4224,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="40">
         <v>5.6</v>
@@ -4215,7 +4238,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="40">
         <v>1</v>
@@ -4229,7 +4252,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="40">
         <v>1</v>
@@ -4243,7 +4266,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="40">
         <v>1</v>
@@ -4257,7 +4280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="40">
         <v>3.49</v>
@@ -4271,7 +4294,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="40">
         <v>7.17</v>
@@ -4306,7 +4329,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4322,7 +4345,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="50">
         <v>0.24</v>
@@ -4336,7 +4359,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="50">
         <v>0.95</v>
@@ -4350,7 +4373,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="50">
         <v>3</v>
@@ -4364,7 +4387,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="50">
         <v>3.74</v>
@@ -4378,7 +4401,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="50">
         <v>1.5</v>
@@ -4404,19 +4427,19 @@
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="51"/>
       <c r="B33" s="52"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4427,9 +4450,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="50">
         <v>2.2000000000000002</v>
@@ -4441,9 +4464,9 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="50">
         <v>1.42</v>
@@ -4455,9 +4478,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="50">
         <v>2.14</v>
@@ -4469,9 +4492,9 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="50">
         <v>0.66</v>
@@ -4483,28 +4506,28 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="25"/>
       <c r="B40" s="39"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="25"/>
       <c r="B41" s="39"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="25"/>
       <c r="B42" s="39"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A43" s="43" t="s">
         <v>132</v>
       </c>
@@ -4513,7 +4536,7 @@
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
     </row>
-    <row r="44" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="44" t="s">
@@ -4526,326 +4549,308 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="55">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D45" s="55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E45" s="55">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="49"/>
-      <c r="B46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="D46" s="55">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E46" s="55">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="49"/>
-      <c r="B47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="55">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E47" s="55">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="55">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D48" s="55">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E48" s="55">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="55">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D49" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="E49" s="55">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="25"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="49"/>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="55">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D50" s="55">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E50" s="55">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B50" s="49"/>
+      <c r="C50" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="D51" s="55">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E51" s="55">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="C51" s="54">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D51" s="54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E51" s="54">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="D52" s="54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E52" s="54">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="49"/>
+      <c r="B53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="54">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E53" s="54">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="49"/>
+      <c r="B54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="54">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D54" s="54">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E54" s="54">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A55" s="49"/>
+      <c r="B55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D55" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="E55" s="54">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A56" s="49"/>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="54">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D56" s="54">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E56" s="54">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A57" s="49"/>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.09</v>
+      </c>
+      <c r="D57" s="54">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E57" s="54">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A58" s="49"/>
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.111</v>
+      </c>
+      <c r="D58" s="54">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E58" s="54">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+    </row>
+    <row r="60" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+    </row>
+    <row r="61" spans="1:5" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="55">
-        <v>0.111</v>
-      </c>
-      <c r="D52" s="55">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E52" s="55">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:9" s="54" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-    </row>
-    <row r="55" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="C57" s="6" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="C63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="38">
+    <row r="64" spans="1:5">
+      <c r="B64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="38">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D64" s="38">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E64" s="38">
         <v>4.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D59" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E59" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="38">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D60" s="38">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E60" s="38">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="38">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D61" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E61" s="38">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="38">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D62" s="38">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E62" s="38">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="38">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D63" s="38">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E63" s="38">
-        <v>0.432</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="38">
-        <v>0.23</v>
-      </c>
-      <c r="D64" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="E64" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C65" s="38">
-        <v>2.17</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D65" s="38">
-        <v>1.27</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E65" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="25"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
+      <c r="B66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="38">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D66" s="38">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E66" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="25"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
+      <c r="B67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="38">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D67" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E67" s="38">
+        <v>1.01E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="25"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="B68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D68" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E68" s="38">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="2" t="s">
-        <v>111</v>
+      <c r="B69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D69" s="38">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E69" s="38">
+        <v>0.432</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
@@ -4853,14 +4858,17 @@
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="C70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>34</v>
+      <c r="B70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="38">
+        <v>0.23</v>
+      </c>
+      <c r="D70" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="E70" s="38">
+        <v>0.3</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
@@ -4869,121 +4877,91 @@
     </row>
     <row r="71" spans="1:9">
       <c r="B71" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="D71" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E71" s="34">
-        <v>0.98</v>
+        <v>109</v>
+      </c>
+      <c r="C71" s="38">
+        <v>2.17</v>
+      </c>
+      <c r="D71" s="38">
+        <v>1.27</v>
+      </c>
+      <c r="E71" s="38">
+        <v>3.71</v>
       </c>
       <c r="F71" s="25"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="B72" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D72" s="34">
-        <v>0.47</v>
-      </c>
-      <c r="E72" s="34">
-        <v>0.67</v>
-      </c>
+      <c r="A72" s="25"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="B73" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="34">
-        <v>0</v>
-      </c>
-      <c r="D73" s="34">
-        <v>0</v>
-      </c>
-      <c r="E73" s="34">
-        <v>0.68</v>
-      </c>
+      <c r="A73" s="25"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="B74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="D74" s="34">
-        <v>1.35</v>
-      </c>
-      <c r="E74" s="34">
-        <v>5.19</v>
-      </c>
+      <c r="A74" s="25"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="B75" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="34">
-        <v>0.54</v>
-      </c>
-      <c r="D75" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E75" s="34">
-        <v>0.68</v>
+      <c r="A75" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F75" s="25"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="B76" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D76" s="34">
-        <v>0.82</v>
-      </c>
-      <c r="E76" s="34">
-        <v>0.93</v>
+      <c r="C76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F76" s="25"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="1:9">
       <c r="B77" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C77" s="34">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="D77" s="34">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E77" s="34">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="41"/>
@@ -4992,16 +4970,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C78" s="34">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D78" s="34">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="E78" s="34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="41"/>
@@ -5010,179 +4988,284 @@
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="34">
+        <v>0</v>
+      </c>
+      <c r="D79" s="34">
+        <v>0</v>
+      </c>
+      <c r="E79" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="D80" s="34">
+        <v>1.35</v>
+      </c>
+      <c r="E80" s="34">
+        <v>5.19</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="B81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="34">
+        <v>0.54</v>
+      </c>
+      <c r="D81" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="E81" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="F81" s="25"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="B82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D82" s="34">
+        <v>0.82</v>
+      </c>
+      <c r="E82" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="B83" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="D83" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="E83" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F83" s="25"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="B84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E84" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F84" s="25"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="B85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="D85" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="E85" s="34">
+        <v>0.95</v>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="25"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="20"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="25"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="34">
-        <v>0.92</v>
-      </c>
-      <c r="D79" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E79" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="25"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="20"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="25"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="46" t="s">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D90" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E90" s="46" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="42"/>
-      <c r="B85" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="48">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D85" s="48">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E85" s="48">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="42"/>
-      <c r="B86" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="48">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D86" s="48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E86" s="48">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="42"/>
-      <c r="B87" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="48">
-        <v>0.02</v>
-      </c>
-      <c r="D87" s="48">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E87" s="48">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="42"/>
-      <c r="B88" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="48">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D88" s="48">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E88" s="48">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="48">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D89" s="48">
-        <v>0.114</v>
-      </c>
-      <c r="E89" s="48">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="48">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D90" s="48">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E90" s="48">
-        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="42"/>
       <c r="B91" s="47" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" s="48">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D91" s="48">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E91" s="48">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="42"/>
+      <c r="B92" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="48">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D92" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E92" s="48">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="42"/>
+      <c r="B93" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="D93" s="48">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E93" s="48">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="42"/>
+      <c r="B94" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D94" s="48">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E94" s="48">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A95" s="42"/>
+      <c r="B95" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="48">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D95" s="48">
+        <v>0.114</v>
+      </c>
+      <c r="E95" s="48">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A96" s="42"/>
+      <c r="B96" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="48">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D96" s="48">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E96" s="48">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="42"/>
+      <c r="B97" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="48">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D97" s="48">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E91" s="48">
+      <c r="E97" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -8973,10 +9056,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10417,139 +10500,6 @@
         <v>35</v>
       </c>
       <c r="Y59" s="18"/>
-    </row>
-    <row r="63" spans="1:25">
-      <c r="A63" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-    </row>
-    <row r="64" spans="1:25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E64" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F64" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G64" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H64" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I64" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J64" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K64" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L64" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M64" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N64" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O64" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P64" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q64" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R64" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S64" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T64" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U64" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V64" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W64" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="27">
-        <v>0.9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10574,7 +10524,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -10691,7 +10641,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -10798,7 +10748,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -10929,7 +10879,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -11060,7 +11010,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -11241,7 +11191,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -11372,7 +11322,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -11483,7 +11433,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -11614,7 +11564,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -11826,7 +11776,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -11957,7 +11907,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -12123,7 +12073,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12499,7 +12449,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -12869,7 +12819,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -13002,7 +12952,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -13156,7 +13106,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13526,7 +13476,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -13896,7 +13846,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -14266,7 +14216,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -14636,7 +14586,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -15018,7 +14968,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -15390,7 +15340,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -15628,7 +15578,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="134">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
   </si>
   <si>
-    <t>Biological failure rate (%/year)</t>
-  </si>
-  <si>
     <t>Viral load monitoring (number/year)</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>CD4(350-500)</t>
   </si>
   <si>
-    <t>On treatment</t>
-  </si>
-  <si>
     <t>Tuberculosis cofactor</t>
   </si>
   <si>
@@ -474,13 +468,22 @@
     <t>Disease progression (average years to move)</t>
   </si>
   <si>
-    <t>Treatment recovery on suppressive ART (average years to move)</t>
+    <t>Time after initiating ART to achieve viral suppression (years)</t>
   </si>
   <si>
-    <t>CD4 change due to non-suppressive ART (% per year)</t>
+    <t>Relative death rate on suppressive ART</t>
   </si>
   <si>
-    <t>Average time from initiating ART to achieving viral suppression (years)</t>
+    <t>Relative death rate on non-suppressive ART</t>
+  </si>
+  <si>
+    <t>Treatment recovery due to suppressive ART (average years to move)</t>
+  </si>
+  <si>
+    <t>CD4 change due to non-suppressive ART (%/year)</t>
+  </si>
+  <si>
+    <t>Treatment failure rate</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +643,12 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18C1FF"/>
+        <bgColor rgb="FF18C1FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -665,7 +674,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -806,8 +815,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -909,14 +921,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -929,28 +933,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="7" borderId="1" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="143">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -970,6 +984,7 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1080,6 +1095,7 @@
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -1087,6 +1103,7 @@
     <cellStyle name="Normal 3 2" xfId="16"/>
     <cellStyle name="Normal 4" xfId="11"/>
     <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 5 2" xfId="140"/>
     <cellStyle name="Normal 6" xfId="9"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7"/>
@@ -1897,15 +1914,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="56"/>
+      <c r="A2" s="63"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="63"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1949,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2319,7 +2336,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2689,7 +2706,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2815,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3013,7 +3030,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3211,7 +3228,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3391,7 +3408,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3569,7 +3586,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3680,7 +3697,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3866,7 +3883,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4063,152 +4080,169 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="49"/>
+      <c r="B3" s="51" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="52">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C4" s="52">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="52">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5" s="52">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D3" s="38">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="38">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="38">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4" s="38">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="52">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="49"/>
+      <c r="B6" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="38">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D5" s="38">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E5" s="38">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="52">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E6" s="52">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="49"/>
+      <c r="B7" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="38">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E6" s="38">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="52">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="52">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="49"/>
+      <c r="B8" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="38">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="38">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E7" s="38">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="52">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="49"/>
+      <c r="B9" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="38">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="38">
+      <c r="C9" s="52">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="52">
         <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4224,115 +4258,115 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="40">
+        <v>91</v>
+      </c>
+      <c r="C15" s="53">
         <v>5.6</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="53">
         <v>3.3</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="53">
         <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="53">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53">
+        <v>1</v>
+      </c>
+      <c r="E16" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C17" s="53">
         <v>1</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D17" s="53">
         <v>1</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E17" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C18" s="53">
         <v>1</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D18" s="53">
         <v>1</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E18" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="40">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40">
-        <v>1</v>
-      </c>
-      <c r="E18" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="53">
+        <v>3.49</v>
+      </c>
+      <c r="D19" s="53">
+        <v>1.76</v>
+      </c>
+      <c r="E19" s="53">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="40">
-        <v>3.49</v>
-      </c>
-      <c r="D19" s="40">
-        <v>1.76</v>
-      </c>
-      <c r="E19" s="40">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="40">
+      <c r="C20" s="53">
         <v>7.17</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="53">
         <v>3.9</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="53">
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="25"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5">
+    <row r="21" spans="1:7">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
@@ -4343,103 +4377,104 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0.62</v>
+      </c>
+      <c r="E27" s="53">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G27" s="57"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="D26" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="50">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="50">
-        <v>0.62</v>
-      </c>
-      <c r="E27" s="50">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="53">
+        <v>3</v>
+      </c>
+      <c r="D28" s="53">
+        <v>2.83</v>
+      </c>
+      <c r="E28" s="53">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="50">
-        <v>3</v>
-      </c>
-      <c r="D28" s="50">
-        <v>2.83</v>
-      </c>
-      <c r="E28" s="50">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="53">
+        <v>3.74</v>
+      </c>
+      <c r="D29" s="53">
+        <v>3.48</v>
+      </c>
+      <c r="E29" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="50">
-        <v>3.74</v>
-      </c>
-      <c r="D29" s="50">
-        <v>3.48</v>
-      </c>
-      <c r="E29" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="50">
+      <c r="C30" s="53">
         <v>1.5</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="53">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="53">
         <v>2.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-    </row>
-    <row r="34" spans="1:6">
+    <row r="31" spans="1:7">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4450,825 +4485,839 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D36" s="53">
+        <v>1.07</v>
+      </c>
+      <c r="E36" s="53">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="50">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D36" s="50">
-        <v>1.07</v>
-      </c>
-      <c r="E36" s="50">
-        <v>7.28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="53">
+        <v>1.42</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="53">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="50">
-        <v>1.42</v>
-      </c>
-      <c r="D37" s="50">
-        <v>0.9</v>
-      </c>
-      <c r="E37" s="50">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="53">
+        <v>2.14</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1.39</v>
+      </c>
+      <c r="E38" s="53">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="50">
-        <v>2.14</v>
-      </c>
-      <c r="D38" s="50">
-        <v>1.39</v>
-      </c>
-      <c r="E38" s="50">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="53">
+        <v>0.66</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0.51</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="46" customFormat="1">
+      <c r="A40" s="44"/>
+      <c r="B40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="44"/>
+      <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D46" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E46" s="52">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="44"/>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="D47" s="52">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E47" s="52">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="52">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E48" s="52">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="52">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D49" s="52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E49" s="52">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="44"/>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="52">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D50" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="E50" s="52">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="44"/>
+      <c r="B51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="52">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D51" s="52">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E51" s="52">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="44"/>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="D52" s="52">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E52" s="52">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="44"/>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="52">
+        <v>0.111</v>
+      </c>
+      <c r="D53" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E53" s="52">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="44"/>
+      <c r="B54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="D54" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="E54" s="52">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+    </row>
+    <row r="56" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+    </row>
+    <row r="57" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="50">
-        <v>0.66</v>
-      </c>
-      <c r="D39" s="50">
-        <v>0.51</v>
-      </c>
-      <c r="E39" s="50">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="25"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-    </row>
-    <row r="44" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="44" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1">
+      <c r="C59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E59" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="57">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="25"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-    </row>
-    <row r="50" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="3" t="s">
+    <row r="60" spans="1:6" ht="13.5" customHeight="1">
+      <c r="B60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="52">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D60" s="52">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E60" s="52">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="52">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D61" s="52">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E61" s="52">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="52">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D62" s="52">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E62" s="52">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="B63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="54">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D51" s="54">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E51" s="54">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="D52" s="54">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E52" s="54">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="D53" s="54">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E53" s="54">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="54">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D54" s="54">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E54" s="54">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="54">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D55" s="54">
-        <v>0.05</v>
-      </c>
-      <c r="E55" s="54">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="54">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D56" s="54">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E56" s="54">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="54">
-        <v>0.09</v>
-      </c>
-      <c r="D57" s="54">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E57" s="54">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="54">
-        <v>0.111</v>
-      </c>
-      <c r="D58" s="54">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E58" s="54">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-    </row>
-    <row r="60" spans="1:5" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-    </row>
-    <row r="61" spans="1:5" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="C63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="C63" s="52">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D63" s="52">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E63" s="52">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D64" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E64" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C64" s="52">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D64" s="52">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E64" s="52">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F64" s="55"/>
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="38">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D65" s="38">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E65" s="38">
-        <v>4.4000000000000003E-3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C65" s="52">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D65" s="52">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E65" s="52">
+        <v>0.432</v>
+      </c>
+      <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="38">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="D66" s="38">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E66" s="38">
-        <v>7.1000000000000004E-3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C66" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="D66" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="E66" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="38">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D67" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E67" s="38">
-        <v>1.01E-2</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C67" s="52">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="D67" s="52">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="E67" s="52">
+        <v>0.8417</v>
+      </c>
+      <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:9">
       <c r="B68" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="38">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D68" s="38">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E68" s="38">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="C68" s="52">
+        <v>2.17</v>
+      </c>
+      <c r="D68" s="52">
+        <v>1.27</v>
+      </c>
+      <c r="E68" s="52">
+        <v>3.71</v>
+      </c>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="38">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D69" s="38">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E69" s="38">
-        <v>0.432</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="38">
-        <v>0.23</v>
-      </c>
-      <c r="D70" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="E70" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="3" t="s">
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="C73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="38">
-        <v>2.17</v>
-      </c>
-      <c r="D71" s="38">
-        <v>1.27</v>
-      </c>
-      <c r="E71" s="38">
-        <v>3.71</v>
-      </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="25"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="25"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="25"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="C74" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="D74" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="E74" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="F74" s="55"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
+      <c r="C75" s="54">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D75" s="54">
+        <v>0.47</v>
+      </c>
+      <c r="E75" s="54">
+        <v>0.67</v>
+      </c>
+      <c r="F75" s="55"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="C76" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
+      <c r="B76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="54">
+        <v>0</v>
+      </c>
+      <c r="D76" s="54">
+        <v>0</v>
+      </c>
+      <c r="E76" s="54">
+        <v>0.68</v>
+      </c>
+      <c r="F76" s="55"/>
     </row>
     <row r="77" spans="1:9">
       <c r="B77" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="D77" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E77" s="34">
-        <v>0.98</v>
-      </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
+        <v>112</v>
+      </c>
+      <c r="C77" s="54">
+        <v>2.65</v>
+      </c>
+      <c r="D77" s="54">
+        <v>1.35</v>
+      </c>
+      <c r="E77" s="54">
+        <v>5.19</v>
+      </c>
+      <c r="F77" s="55"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D78" s="34">
-        <v>0.47</v>
-      </c>
-      <c r="E78" s="34">
-        <v>0.67</v>
-      </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="C78" s="54">
+        <v>0.54</v>
+      </c>
+      <c r="D78" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="E78" s="54">
+        <v>0.68</v>
+      </c>
+      <c r="F78" s="55"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="34">
-        <v>0</v>
-      </c>
-      <c r="D79" s="34">
-        <v>0</v>
-      </c>
-      <c r="E79" s="34">
-        <v>0.68</v>
-      </c>
-      <c r="F79" s="25"/>
+        <v>114</v>
+      </c>
+      <c r="C79" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="D79" s="54">
+        <v>0.82</v>
+      </c>
+      <c r="E79" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="F79" s="55"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
     </row>
     <row r="80" spans="1:9">
       <c r="B80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="D80" s="34">
-        <v>1.35</v>
-      </c>
-      <c r="E80" s="34">
-        <v>5.19</v>
-      </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
+        <v>115</v>
+      </c>
+      <c r="C80" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="D80" s="54">
+        <v>0.65</v>
+      </c>
+      <c r="E80" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="F80" s="55"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
     </row>
     <row r="81" spans="1:9">
       <c r="B81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="34">
-        <v>0.54</v>
-      </c>
-      <c r="D81" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="E81" s="34">
-        <v>0.68</v>
-      </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
+        <v>116</v>
+      </c>
+      <c r="C81" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="E81" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="F81" s="55"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
     </row>
     <row r="82" spans="1:9">
       <c r="B82" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="D82" s="34">
-        <v>0.82</v>
-      </c>
-      <c r="E82" s="34">
-        <v>0.93</v>
-      </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
+        <v>117</v>
+      </c>
+      <c r="C82" s="54">
+        <v>0.92</v>
+      </c>
+      <c r="D82" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="E82" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="B83" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="34">
-        <v>0.73</v>
-      </c>
-      <c r="D83" s="34">
-        <v>0.65</v>
-      </c>
-      <c r="E83" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="F83" s="25"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="59"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="55"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="61"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="55"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="D84" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="E84" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="38"/>
+      <c r="B88" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="34">
-        <v>0.92</v>
-      </c>
-      <c r="D85" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E85" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="25"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="20"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="25"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
+      <c r="C88" s="53">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D88" s="53">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E88" s="53">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="45" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
+      <c r="C89" s="53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D89" s="53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E89" s="53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="46" t="s">
-        <v>34</v>
-      </c>
+      <c r="A90" s="38"/>
+      <c r="B90" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="D90" s="53">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E90" s="53">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="42"/>
-      <c r="B91" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="48">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D91" s="48">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E91" s="48">
-        <v>0.20499999999999999</v>
-      </c>
+      <c r="A91" s="38"/>
+      <c r="B91" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D91" s="53">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E91" s="53">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="42"/>
-      <c r="B92" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="48">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D92" s="48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E92" s="48">
-        <v>1.0999999999999999E-2</v>
-      </c>
+      <c r="A92" s="38"/>
+      <c r="B92" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="53">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D92" s="53">
+        <v>0.114</v>
+      </c>
+      <c r="E92" s="53">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="42"/>
-      <c r="B93" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="48">
-        <v>0.02</v>
-      </c>
-      <c r="D93" s="48">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E93" s="48">
-        <v>2.9000000000000001E-2</v>
-      </c>
+      <c r="A93" s="38"/>
+      <c r="B93" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="53">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D93" s="53">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E93" s="53">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="42"/>
-      <c r="B94" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="48">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D94" s="48">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E94" s="48">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="47" t="s">
+      <c r="A94" s="38"/>
+      <c r="B94" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="48">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D95" s="48">
-        <v>0.114</v>
-      </c>
-      <c r="E95" s="48">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="48">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D96" s="48">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E96" s="48">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="42"/>
-      <c r="B97" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="48">
+      <c r="C94" s="53">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D97" s="48">
+      <c r="D94" s="53">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E97" s="48">
+      <c r="E94" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="6:8" ht="13.5" customHeight="1">
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="6:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9058,8 +9107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD66"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10503,7 +10552,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10516,8 +10565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="O18" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10877,12 +10926,12 @@
       </c>
       <c r="Y15" s="23"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:25">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -10950,7 +10999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
@@ -11008,7 +11057,7 @@
       </c>
       <c r="Y21" s="32"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:25">
       <c r="A25" s="20" t="s">
         <v>55</v>
       </c>
@@ -11036,18 +11085,8 @@
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-    </row>
-    <row r="26" spans="1:35">
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26">
@@ -11113,42 +11152,12 @@
       <c r="W26" s="26">
         <v>2020</v>
       </c>
-      <c r="X26" s="26">
-        <v>2021</v>
-      </c>
-      <c r="Y26" s="26">
-        <v>2022</v>
-      </c>
-      <c r="Z26" s="26">
-        <v>2023</v>
-      </c>
-      <c r="AA26" s="26">
-        <v>2024</v>
-      </c>
-      <c r="AB26" s="26">
-        <v>2025</v>
-      </c>
-      <c r="AC26" s="26">
-        <v>2026</v>
-      </c>
-      <c r="AD26" s="26">
-        <v>2027</v>
-      </c>
-      <c r="AE26" s="26">
-        <v>2028</v>
-      </c>
-      <c r="AF26" s="26">
-        <v>2029</v>
-      </c>
-      <c r="AG26" s="26">
-        <v>2030</v>
-      </c>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="26" t="s">
+      <c r="X26" s="25"/>
+      <c r="Y26" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:25">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>46</v>
@@ -11174,27 +11183,17 @@
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
+      <c r="X27" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI27" s="33"/>
-    </row>
-    <row r="30" spans="1:35">
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:25">
       <c r="C31" s="6">
         <v>2000</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:25">
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -12063,17 +12062,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12175,7 +12174,7 @@
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="50">
+      <c r="Y3" s="45">
         <v>0.2</v>
       </c>
     </row>
@@ -12209,7 +12208,7 @@
       <c r="X4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="50">
+      <c r="Y4" s="45">
         <v>0.2</v>
       </c>
     </row>
@@ -12242,7 +12241,7 @@
       <c r="X5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="50">
+      <c r="Y5" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12275,7 +12274,7 @@
       <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="50">
+      <c r="Y6" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12308,7 +12307,7 @@
       <c r="X7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="50">
+      <c r="Y7" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12341,7 +12340,7 @@
       <c r="X8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="50">
+      <c r="Y8" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12375,7 +12374,7 @@
       <c r="X9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="50">
+      <c r="Y9" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12409,7 +12408,7 @@
       <c r="X10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12443,7 +12442,7 @@
       <c r="X11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="50">
+      <c r="Y11" s="45">
         <v>0.5</v>
       </c>
     </row>
@@ -12922,164 +12921,31 @@
       <c r="B31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
       <c r="X31" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Y31" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F36" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G36" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H36" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I36" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J36" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K36" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L36" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M36" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N36" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O36" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P36" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q36" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R36" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S36" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T36" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U36" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V36" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W36" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="36">
+      <c r="Y31" s="36">
         <v>1</v>
       </c>
     </row>
@@ -13106,7 +12972,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13476,7 +13342,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -13846,7 +13712,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -14216,7 +14082,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -14586,7 +14452,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -14968,7 +14834,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -15340,7 +15206,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -15578,7 +15444,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12795" tabRatio="748" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="139">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Average time taken to be linked to care (years)</t>
+  </si>
+  <si>
+    <t>Pregnant women and mothers on PMTCT (%)</t>
   </si>
 </sst>
 </file>
@@ -1883,31 +1886,31 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="406">
+    <row r="5" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="140">
+    <row r="7" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1934,14 +1937,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2042,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2075,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2141,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2207,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2240,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2273,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2306,12 +2309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2412,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2445,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2478,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2511,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2544,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2643,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2676,12 +2679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
@@ -2800,14 +2803,14 @@
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2845,7 +2848,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2860,7 +2863,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2881,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2898,7 +2901,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2913,7 +2916,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2928,7 +2931,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2949,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2964,7 +2967,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2985,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3000,12 +3003,12 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3043,7 +3046,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3058,7 +3061,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3079,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3096,7 +3099,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3111,7 +3114,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3126,7 +3129,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3162,7 +3165,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3198,12 +3201,12 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3241,7 +3244,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3256,7 +3259,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3273,7 +3276,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3288,7 +3291,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3303,7 +3306,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3318,7 +3321,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3333,7 +3336,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3348,7 +3351,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3363,7 +3366,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3378,12 +3381,12 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3421,7 +3424,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3436,7 +3439,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3451,7 +3454,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3466,7 +3469,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3481,7 +3484,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3496,7 +3499,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3511,7 +3514,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3526,7 +3529,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3541,7 +3544,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3556,12 +3559,12 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3599,7 +3602,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3618,7 +3621,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3633,7 +3636,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3652,7 +3655,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3667,12 +3670,12 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3710,7 +3713,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3725,7 +3728,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3740,7 +3743,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3755,7 +3758,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3772,7 +3775,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3789,7 +3792,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3806,7 +3809,7 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3823,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3838,7 +3841,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3853,12 +3856,12 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3896,7 +3899,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3915,7 +3918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3934,7 +3937,7 @@
       </c>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3949,7 +3952,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3964,7 +3967,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3979,7 +3982,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3994,7 +3997,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -4009,7 +4012,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -4024,7 +4027,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4058,14 +4061,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>91</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>92</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>93</v>
       </c>
@@ -4174,33 +4177,33 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="39"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="39"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="39"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>99</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>100</v>
       </c>
@@ -4295,33 +4298,33 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="39"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="39"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="39"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>102</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>103</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>104</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
@@ -4402,33 +4405,33 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="39"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="39"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="39"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>107</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>109</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
@@ -4495,33 +4498,33 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="39"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="39"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="39"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>95</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>96</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>112</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>98</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
@@ -4606,7 +4609,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
@@ -4624,7 +4627,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>113</v>
       </c>
@@ -4642,7 +4645,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>114</v>
       </c>
@@ -4660,7 +4663,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="39"/>
       <c r="C53" s="25"/>
@@ -4671,7 +4674,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="39"/>
       <c r="C54" s="25"/>
@@ -4682,7 +4685,7 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="39"/>
       <c r="C55" s="25"/>
@@ -4693,7 +4696,7 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>115</v>
       </c>
@@ -4702,7 +4705,7 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="6" t="s">
         <v>36</v>
       </c>
@@ -4717,7 +4720,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>116</v>
       </c>
@@ -4735,7 +4738,7 @@
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>117</v>
       </c>
@@ -4753,7 +4756,7 @@
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>118</v>
       </c>
@@ -4768,7 +4771,7 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
@@ -4786,7 +4789,7 @@
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>120</v>
       </c>
@@ -4804,7 +4807,7 @@
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>121</v>
       </c>
@@ -4822,7 +4825,7 @@
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>122</v>
       </c>
@@ -4840,7 +4843,7 @@
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>123</v>
       </c>
@@ -4858,7 +4861,7 @@
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>124</v>
       </c>
@@ -4876,7 +4879,7 @@
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="39"/>
       <c r="C67" s="25"/>
@@ -4887,7 +4890,7 @@
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="39"/>
       <c r="C68" s="25"/>
@@ -4898,7 +4901,7 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="39"/>
       <c r="C69" s="26"/>
@@ -4909,7 +4912,7 @@
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>133</v>
       </c>
@@ -4922,7 +4925,7 @@
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="50"/>
       <c r="B71" s="50"/>
       <c r="C71" s="44" t="s">
@@ -4939,7 +4942,7 @@
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="50"/>
       <c r="B72" s="45" t="s">
         <v>134</v>
@@ -4958,7 +4961,7 @@
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="50"/>
       <c r="B73" s="45" t="s">
         <v>135</v>
@@ -4977,7 +4980,7 @@
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="50"/>
       <c r="B74" s="45" t="s">
         <v>136</v>
@@ -4996,7 +4999,7 @@
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -5007,7 +5010,7 @@
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -5018,14 +5021,14 @@
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
       <c r="E77" s="42"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
         <v>125</v>
       </c>
@@ -5034,7 +5037,7 @@
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="47" t="s">
@@ -5047,7 +5050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="48" t="s">
         <v>126</v>
@@ -5062,7 +5065,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="48" t="s">
         <v>127</v>
@@ -5077,7 +5080,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="48" t="s">
         <v>128</v>
@@ -5092,7 +5095,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="48" t="s">
         <v>129</v>
@@ -5107,7 +5110,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="48" t="s">
         <v>130</v>
@@ -5122,7 +5125,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="48" t="s">
         <v>131</v>
@@ -5137,7 +5140,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="48" t="s">
         <v>132</v>
@@ -5171,14 +5174,14 @@
       <selection activeCell="I2" sqref="I2:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>6</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>7</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -5484,15 +5487,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5594,7 +5597,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5650,7 +5653,7 @@
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5684,7 +5687,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5718,7 +5721,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5774,7 +5777,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5808,7 +5811,7 @@
       </c>
       <c r="Z9" s="10"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5842,7 +5845,7 @@
       </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5898,7 +5901,7 @@
       </c>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -5932,7 +5935,7 @@
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5945,7 +5948,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -5979,7 +5982,7 @@
       </c>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6035,7 +6038,7 @@
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6069,7 +6072,7 @@
       </c>
       <c r="Z17" s="10"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6103,7 +6106,7 @@
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6159,7 +6162,7 @@
       </c>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6193,7 +6196,7 @@
       </c>
       <c r="Z21" s="10"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6227,7 +6230,7 @@
       </c>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6283,7 +6286,7 @@
       </c>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6317,7 +6320,7 @@
       </c>
       <c r="Z25" s="10"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6351,7 +6354,7 @@
       </c>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6407,7 +6410,7 @@
       </c>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6441,7 +6444,7 @@
       </c>
       <c r="Z29" s="10"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6475,7 +6478,7 @@
       </c>
       <c r="Z31" s="10"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6541,7 +6544,7 @@
       </c>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6575,7 +6578,7 @@
       </c>
       <c r="Z33" s="10"/>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6609,7 +6612,7 @@
       </c>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6675,7 +6678,7 @@
       </c>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6728,14 +6731,14 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6843,7 +6846,7 @@
       </c>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6883,7 +6886,7 @@
       </c>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -6923,7 +6926,7 @@
       </c>
       <c r="Z5" s="15"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6957,7 +6960,7 @@
       </c>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -6993,7 +6996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7027,7 +7030,7 @@
       </c>
       <c r="Z9" s="15"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7063,7 +7066,7 @@
       </c>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7105,7 +7108,7 @@
       </c>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7141,7 +7144,7 @@
       </c>
       <c r="Z13" s="15"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7175,7 +7178,7 @@
       </c>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7211,7 +7214,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7245,7 +7248,7 @@
       </c>
       <c r="Z17" s="15"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7279,7 +7282,7 @@
       </c>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7315,7 +7318,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7349,7 +7352,7 @@
       </c>
       <c r="Z21" s="15"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7383,7 +7386,7 @@
       </c>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7431,7 +7434,7 @@
       </c>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7465,7 +7468,7 @@
       </c>
       <c r="Z25" s="15"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7499,7 +7502,7 @@
       </c>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7547,7 +7550,7 @@
       </c>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7581,7 +7584,7 @@
       </c>
       <c r="Z29" s="15"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7615,7 +7618,7 @@
       </c>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7654,7 +7657,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7688,7 +7691,7 @@
       </c>
       <c r="Z33" s="15"/>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7722,7 +7725,7 @@
       </c>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7761,7 +7764,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7814,14 +7817,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7922,7 +7925,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7955,7 +7958,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7988,7 +7991,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8021,7 +8024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8054,7 +8057,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8087,7 +8090,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8120,7 +8123,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8153,7 +8156,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8186,12 +8189,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8292,7 +8295,7 @@
       </c>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8325,7 +8328,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8358,7 +8361,7 @@
       </c>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8391,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8424,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8457,7 +8460,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8490,7 +8493,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8523,7 +8526,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8556,12 +8559,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8662,7 +8665,7 @@
       </c>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8695,7 +8698,7 @@
       </c>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8728,7 +8731,7 @@
       </c>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8761,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8794,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8827,7 +8830,7 @@
       </c>
       <c r="Y36" s="15"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8860,7 +8863,7 @@
       </c>
       <c r="Y37" s="15"/>
     </row>
-    <row r="38" spans="2:25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8893,7 +8896,7 @@
       </c>
       <c r="Y38" s="15"/>
     </row>
-    <row r="39" spans="2:25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8945,14 +8948,14 @@
       <selection activeCell="A63" sqref="A63:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -9020,7 +9023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9055,7 +9058,7 @@
       </c>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9092,7 +9095,7 @@
       </c>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9125,7 +9128,7 @@
       </c>
       <c r="Y5" s="18"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9158,7 +9161,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9191,7 +9194,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9228,7 +9231,7 @@
       </c>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9265,7 +9268,7 @@
       </c>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9298,7 +9301,7 @@
       </c>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9331,12 +9334,12 @@
       </c>
       <c r="Y11" s="18"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
@@ -9436,12 +9439,12 @@
       </c>
       <c r="Y17" s="7"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
@@ -9557,12 +9560,12 @@
       </c>
       <c r="Y23" s="7"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C29" s="6">
         <v>2000</v>
       </c>
@@ -9630,7 +9633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9663,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9696,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9729,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9795,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9828,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9861,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9894,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9927,12 +9930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C43" s="6">
         <v>2000</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
@@ -10034,12 +10037,12 @@
       </c>
       <c r="Y44" s="7"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C49" s="6">
         <v>2000</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -10160,7 +10163,7 @@
       </c>
       <c r="Y50" s="23"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -10193,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -10246,7 +10249,7 @@
       </c>
       <c r="Y52" s="23"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -10279,12 +10282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="6">
         <v>2000</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>46</v>
       </c>
@@ -10384,7 +10387,7 @@
       </c>
       <c r="Y59" s="18"/>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>51</v>
       </c>
@@ -10413,7 +10416,7 @@
       <c r="X63" s="25"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26">
@@ -10484,7 +10487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="26" t="s">
         <v>44</v>
@@ -10530,20 +10533,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -10655,12 +10658,12 @@
       </c>
       <c r="Y3" s="23"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>46</v>
       </c>
@@ -10762,12 +10765,12 @@
       </c>
       <c r="Y9" s="23"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
@@ -10893,12 +10896,12 @@
       </c>
       <c r="Y15" s="23"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
@@ -11024,7 +11027,7 @@
       </c>
       <c r="Y21" s="32"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>56</v>
       </c>
@@ -11063,7 +11066,7 @@
       <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26">
@@ -11164,7 +11167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>46</v>
@@ -11205,12 +11208,12 @@
       </c>
       <c r="AI27" s="33"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="6">
         <v>2000</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -11336,12 +11339,12 @@
       </c>
       <c r="Y32" s="23"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C37" s="6">
         <v>2000</v>
       </c>
@@ -11409,7 +11412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
@@ -11447,7 +11450,7 @@
       </c>
       <c r="Y38" s="23"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>59</v>
       </c>
@@ -11476,7 +11479,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26">
@@ -11547,7 +11550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="26" t="s">
         <v>44</v>
@@ -11578,7 +11581,7 @@
       </c>
       <c r="Y44" s="27"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>60</v>
       </c>
@@ -11607,7 +11610,7 @@
       <c r="X48" s="25"/>
       <c r="Y48" s="25"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26">
@@ -11678,7 +11681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>44</v>
@@ -11709,7 +11712,7 @@
       </c>
       <c r="Y50" s="27"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -11736,7 +11739,7 @@
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -11763,7 +11766,7 @@
       <c r="X52" s="25"/>
       <c r="Y52" s="25"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -11790,7 +11793,7 @@
       <c r="X53" s="25"/>
       <c r="Y53" s="25"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>61</v>
       </c>
@@ -11819,7 +11822,7 @@
       <c r="X54" s="25"/>
       <c r="Y54" s="25"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26">
@@ -11890,7 +11893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>44</v>
@@ -11921,12 +11924,12 @@
       </c>
       <c r="Y56" s="27"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="6">
         <v>2000</v>
       </c>
@@ -11990,41 +11993,11 @@
       <c r="W61" s="6">
         <v>2020</v>
       </c>
-      <c r="X61" s="6">
-        <v>2021</v>
-      </c>
-      <c r="Y61" s="6">
-        <v>2022</v>
-      </c>
-      <c r="Z61" s="6">
-        <v>2023</v>
-      </c>
-      <c r="AA61" s="6">
-        <v>2024</v>
-      </c>
-      <c r="AB61" s="6">
-        <v>2025</v>
-      </c>
-      <c r="AC61" s="6">
-        <v>2026</v>
-      </c>
-      <c r="AD61" s="6">
-        <v>2027</v>
-      </c>
-      <c r="AE61" s="6">
-        <v>2028</v>
-      </c>
-      <c r="AF61" s="6">
-        <v>2029</v>
-      </c>
-      <c r="AG61" s="6">
-        <v>2030</v>
-      </c>
-      <c r="AI61" s="6" t="s">
+      <c r="Y61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>44</v>
       </c>
@@ -12049,20 +12022,113 @@
       <c r="U62" s="34"/>
       <c r="V62" s="34"/>
       <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
+      <c r="X62" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI62" s="34">
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C67" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G67" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H67" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I67" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K67" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L67" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M67" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N67" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O67" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P67" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R67" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S67" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T67" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U67" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V67" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W67" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y67" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="34">
         <v>0.85</v>
       </c>
     </row>
@@ -12081,18 +12147,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="C2" s="6">
         <v>2000</v>
@@ -12161,7 +12227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
@@ -12195,7 +12261,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
@@ -12229,7 +12295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12262,7 +12328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12295,7 +12361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12328,7 +12394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12361,7 +12427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
@@ -12395,7 +12461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
@@ -12429,7 +12495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
@@ -12463,12 +12529,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -12536,7 +12602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12569,7 +12635,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12602,7 +12668,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12635,7 +12701,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12668,7 +12734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12701,7 +12767,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12734,7 +12800,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -12767,7 +12833,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12800,7 +12866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12833,12 +12899,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -12906,7 +12972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12939,7 +13005,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12972,7 +13038,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -13005,7 +13071,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13038,7 +13104,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -13071,7 +13137,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -13104,7 +13170,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -13137,7 +13203,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13170,7 +13236,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13203,7 +13269,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>65</v>
       </c>
@@ -13232,7 +13298,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26">
@@ -13303,7 +13369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>44</v>
@@ -13336,7 +13402,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>66</v>
       </c>
@@ -13365,7 +13431,7 @@
       <c r="X49" s="25"/>
       <c r="Y49" s="25"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26">
@@ -13436,7 +13502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>44</v>
@@ -13469,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>67</v>
       </c>
@@ -13498,7 +13564,7 @@
       <c r="X55" s="25"/>
       <c r="Y55" s="25"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26">
@@ -13569,7 +13635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="26" t="s">
         <v>44</v>
@@ -13621,14 +13687,14 @@
       <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -13696,7 +13762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -13729,7 +13795,7 @@
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -13762,7 +13828,7 @@
       </c>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -13795,7 +13861,7 @@
       </c>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -13828,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -13861,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -13894,7 +13960,7 @@
       </c>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -13927,7 +13993,7 @@
       </c>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -13960,7 +14026,7 @@
       </c>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -13993,12 +14059,12 @@
       </c>
       <c r="Y11" s="7"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2000</v>
       </c>
@@ -14066,7 +14132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14099,7 +14165,7 @@
       </c>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14132,7 +14198,7 @@
       </c>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14165,7 +14231,7 @@
       </c>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14198,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14231,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14264,7 +14330,7 @@
       </c>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14297,7 +14363,7 @@
       </c>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14330,7 +14396,7 @@
       </c>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14363,12 +14429,12 @@
       </c>
       <c r="Y25" s="7"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -14436,7 +14502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14469,7 +14535,7 @@
       </c>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14502,7 +14568,7 @@
       </c>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14535,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14568,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14601,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -14634,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -14667,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -14700,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -14733,12 +14799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C44" s="6">
         <v>2000</v>
       </c>
@@ -14806,7 +14872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -14839,7 +14905,7 @@
       </c>
       <c r="Y45" s="18"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -14872,7 +14938,7 @@
       </c>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -14905,7 +14971,7 @@
       </c>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -14938,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -14971,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15004,7 +15070,7 @@
       </c>
       <c r="Y50" s="18"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15037,7 +15103,7 @@
       </c>
       <c r="Y51" s="18"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15070,7 +15136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15103,12 +15169,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C58" s="6">
         <v>2000</v>
       </c>
@@ -15176,7 +15242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15209,7 +15275,7 @@
       </c>
       <c r="Y59" s="18"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15246,7 +15312,7 @@
       </c>
       <c r="Y60" s="18"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15279,7 +15345,7 @@
       </c>
       <c r="Y61" s="18"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15312,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15345,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15382,7 +15448,7 @@
       </c>
       <c r="Y64" s="18"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15419,7 +15485,7 @@
       </c>
       <c r="Y65" s="18"/>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15452,7 +15518,7 @@
       </c>
       <c r="Y66" s="18"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15485,12 +15551,12 @@
       </c>
       <c r="Y67" s="18"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C72" s="6">
         <v>2000</v>
       </c>
@@ -15558,7 +15624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -15593,7 +15659,7 @@
       </c>
       <c r="Y73" s="18"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15626,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15659,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -15692,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -15725,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -15758,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -15791,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -15824,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -15857,12 +15923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C86" s="6">
         <v>2000</v>
       </c>
@@ -15930,7 +15996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -15963,7 +16029,7 @@
       </c>
       <c r="Y87" s="18"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -15996,7 +16062,7 @@
       </c>
       <c r="Y88" s="18"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16029,7 +16095,7 @@
       </c>
       <c r="Y89" s="18"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16062,7 +16128,7 @@
       </c>
       <c r="Y90" s="18"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -16095,12 +16161,12 @@
       </c>
       <c r="Y91" s="18"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C96" s="6">
         <v>2000</v>
       </c>
@@ -16168,7 +16234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -16201,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -16234,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -16267,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -16300,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="130">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -256,18 +256,6 @@
   </si>
   <si>
     <t>Number of people initiating ART each year</t>
-  </si>
-  <si>
-    <t>PLHIV aware of their status (%)</t>
-  </si>
-  <si>
-    <t>Diagnosed PLHIV in care (%)</t>
-  </si>
-  <si>
-    <t>PLHIV in care on treatment (%)</t>
-  </si>
-  <si>
-    <t>People on ART with viral suppression (%)</t>
   </si>
   <si>
     <t>Percentage of people in care who are lost to follow-up per year (%/year)</t>
@@ -484,9 +472,6 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
-  </si>
-  <si>
-    <t>Pregnant women and mothers on PMTCT (%)</t>
   </si>
 </sst>
 </file>
@@ -824,7 +809,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -893,9 +878,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -967,17 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="145">
@@ -1932,15 +1903,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="62"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="62"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1984,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2354,7 +2325,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2724,7 +2695,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2850,7 +2821,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3048,7 +3019,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3246,7 +3217,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3426,7 +3397,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3604,7 +3575,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3715,7 +3686,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3901,7 +3872,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4111,156 +4082,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="51">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="51">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="48"/>
+      <c r="B4" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="51">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="51">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="51">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="48"/>
+      <c r="B5" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5" s="51">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E5" s="51">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51" t="s">
+      <c r="C6" s="51">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D6" s="51">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E6" s="51">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="52">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="52">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51" t="s">
+      <c r="C7" s="51">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="51">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E7" s="51">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="52">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4" s="52">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51" t="s">
+      <c r="C8" s="51">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="48"/>
+      <c r="B9" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D5" s="52">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E5" s="52">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="52">
-        <v>1.38E-2</v>
-      </c>
-      <c r="D6" s="52">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E6" s="52">
-        <v>1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="52">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="52">
-        <v>6.3E-3</v>
-      </c>
-      <c r="E7" s="52">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="52">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="52">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4276,112 +4247,112 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="53">
+        <v>87</v>
+      </c>
+      <c r="C15" s="52">
         <v>5.6</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="52">
         <v>3.3</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="53">
+        <v>88</v>
+      </c>
+      <c r="C16" s="52">
         <v>1</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="52">
         <v>1</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="53">
+        <v>89</v>
+      </c>
+      <c r="C17" s="52">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="52">
         <v>1</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="53">
+        <v>90</v>
+      </c>
+      <c r="C18" s="52">
         <v>1</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="52">
         <v>1</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="53">
+        <v>91</v>
+      </c>
+      <c r="C19" s="52">
         <v>3.49</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>1.76</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>6.92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="53">
+        <v>92</v>
+      </c>
+      <c r="C20" s="52">
         <v>7.17</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>3.9</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>12.08</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4397,99 +4368,99 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="53">
+        <v>93</v>
+      </c>
+      <c r="C26" s="52">
         <v>0.24</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="52">
         <v>0.1</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="53">
+        <v>89</v>
+      </c>
+      <c r="C27" s="52">
         <v>0.95</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>0.62</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="52">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G27" s="57"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="53">
+        <v>94</v>
+      </c>
+      <c r="C28" s="52">
         <v>3</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <v>2.83</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="52">
         <v>3.16</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="53">
+        <v>95</v>
+      </c>
+      <c r="C29" s="52">
         <v>3.74</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="52">
         <v>3.48</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="53">
+        <v>96</v>
+      </c>
+      <c r="C30" s="52">
         <v>1.5</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4505,277 +4476,277 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="53">
+        <v>97</v>
+      </c>
+      <c r="C36" s="52">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="52">
         <v>1.07</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="52">
         <v>7.28</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="53">
+        <v>98</v>
+      </c>
+      <c r="C37" s="52">
         <v>1.42</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="52">
         <v>0.9</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="52">
         <v>3.42</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="53">
+        <v>99</v>
+      </c>
+      <c r="C38" s="52">
         <v>2.14</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="52">
         <v>1.39</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="52">
         <v>3.58</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="53">
+        <v>100</v>
+      </c>
+      <c r="C39" s="52">
         <v>0.66</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="52">
         <v>0.51</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="52">
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="46" customFormat="1">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:5" s="45" customFormat="1">
+      <c r="A40" s="43"/>
       <c r="B40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="D40" s="53">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+    </row>
+    <row r="45" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="43"/>
+      <c r="B46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="51">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D46" s="51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E46" s="51">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="43"/>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="D47" s="51">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E47" s="51">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A48" s="43"/>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="51">
         <v>0.1</v>
       </c>
-      <c r="E40" s="53">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-    </row>
-    <row r="45" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="44"/>
-      <c r="B46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="52">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D46" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="44"/>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="D47" s="52">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E47" s="52">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="3" t="s">
+      <c r="D48" s="51">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E48" s="51">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="D48" s="52">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E48" s="52">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="52">
+      <c r="C49" s="51">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="51">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="44"/>
+    <row r="50" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="43"/>
       <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="51">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D50" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="E50" s="51">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="43"/>
+      <c r="B51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="52">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D50" s="52">
+      <c r="C51" s="51">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D51" s="51">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E51" s="51">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="43"/>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="D52" s="51">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E52" s="51">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="43"/>
+      <c r="B53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="51">
+        <v>0.111</v>
+      </c>
+      <c r="D53" s="51">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E53" s="51">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="43"/>
+      <c r="B54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="D54" s="51">
         <v>0.05</v>
       </c>
-      <c r="E50" s="52">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="44"/>
-      <c r="B51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="52">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D51" s="52">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="44"/>
-      <c r="B52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="D52" s="52">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E52" s="52">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="52">
-        <v>0.111</v>
-      </c>
-      <c r="D53" s="52">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E53" s="52">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="44"/>
-      <c r="B54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="52">
-        <v>0.16</v>
-      </c>
-      <c r="D54" s="52">
-        <v>0.05</v>
-      </c>
-      <c r="E54" s="52">
+      <c r="E54" s="51">
         <v>0.26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="1:6" s="46" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+    <row r="55" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1">
@@ -4791,173 +4762,173 @@
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1">
       <c r="B60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="52">
+        <v>87</v>
+      </c>
+      <c r="C60" s="51">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="51">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="51">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="52">
+        <v>88</v>
+      </c>
+      <c r="C61" s="51">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="51">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="E61" s="52">
+      <c r="E61" s="51">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="52">
+        <v>102</v>
+      </c>
+      <c r="C62" s="51">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="51">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="51">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="52">
+        <v>90</v>
+      </c>
+      <c r="C63" s="51">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="51">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="51">
         <v>1.01E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="52">
+        <v>91</v>
+      </c>
+      <c r="C64" s="51">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="51">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="52">
+        <v>92</v>
+      </c>
+      <c r="C65" s="51">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="51">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="51">
         <v>0.432</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="54"/>
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="52">
+        <v>125</v>
+      </c>
+      <c r="C66" s="51">
         <v>0.23</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="51">
         <v>0.15</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="51">
         <v>0.3</v>
       </c>
-      <c r="F66" s="55"/>
+      <c r="F66" s="54"/>
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="52">
+        <v>126</v>
+      </c>
+      <c r="C67" s="51">
         <v>0.48780000000000001</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="51">
         <v>0.28349999999999997</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="51">
         <v>0.8417</v>
       </c>
-      <c r="F67" s="55"/>
+      <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:9">
       <c r="B68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="52">
+        <v>103</v>
+      </c>
+      <c r="C68" s="51">
         <v>2.17</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="51">
         <v>1.27</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="51">
         <v>3.71</v>
       </c>
-      <c r="F68" s="55"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="55"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="55"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
+        <v>104</v>
+      </c>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="1:9">
       <c r="C73" s="6" t="s">
@@ -4969,371 +4940,371 @@
       <c r="E73" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
     </row>
     <row r="74" spans="1:9">
       <c r="B74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="54">
+        <v>105</v>
+      </c>
+      <c r="C74" s="53">
         <v>0.95</v>
       </c>
-      <c r="D74" s="54">
+      <c r="D74" s="53">
         <v>0.8</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="53">
         <v>0.98</v>
       </c>
-      <c r="F74" s="55"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
     </row>
     <row r="75" spans="1:9">
       <c r="B75" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="54">
+        <v>106</v>
+      </c>
+      <c r="C75" s="53">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D75" s="54">
+      <c r="D75" s="53">
         <v>0.47</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E75" s="53">
         <v>0.67</v>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
     </row>
     <row r="76" spans="1:9">
       <c r="B76" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="54">
+        <v>107</v>
+      </c>
+      <c r="C76" s="53">
         <v>0</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="53">
         <v>0</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="53">
         <v>0.68</v>
       </c>
-      <c r="F76" s="55"/>
+      <c r="F76" s="54"/>
     </row>
     <row r="77" spans="1:9">
       <c r="B77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="54">
+        <v>108</v>
+      </c>
+      <c r="C77" s="53">
         <v>2.65</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="53">
         <v>1.35</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E77" s="53">
         <v>5.19</v>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="54">
+        <v>109</v>
+      </c>
+      <c r="C78" s="53">
         <v>0.54</v>
       </c>
-      <c r="D78" s="54">
+      <c r="D78" s="53">
         <v>0.33</v>
       </c>
-      <c r="E78" s="54">
+      <c r="E78" s="53">
         <v>0.68</v>
       </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="54">
+        <v>110</v>
+      </c>
+      <c r="C79" s="53">
         <v>0.9</v>
       </c>
-      <c r="D79" s="54">
+      <c r="D79" s="53">
         <v>0.82</v>
       </c>
-      <c r="E79" s="54">
+      <c r="E79" s="53">
         <v>0.93</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
     </row>
     <row r="80" spans="1:9">
       <c r="B80" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="54">
+        <v>111</v>
+      </c>
+      <c r="C80" s="53">
         <v>0.73</v>
       </c>
-      <c r="D80" s="54">
+      <c r="D80" s="53">
         <v>0.65</v>
       </c>
-      <c r="E80" s="54">
+      <c r="E80" s="53">
         <v>0.8</v>
       </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
     </row>
     <row r="81" spans="1:9">
       <c r="B81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="54">
+        <v>112</v>
+      </c>
+      <c r="C81" s="53">
         <v>0.5</v>
       </c>
-      <c r="D81" s="54">
+      <c r="D81" s="53">
         <v>0.3</v>
       </c>
-      <c r="E81" s="54">
+      <c r="E81" s="53">
         <v>0.8</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
     </row>
     <row r="82" spans="1:9">
       <c r="B82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="53">
+        <v>0.92</v>
+      </c>
+      <c r="D82" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="E82" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="58"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="54"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="60"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="37"/>
+      <c r="B88" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="52">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D88" s="52">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E88" s="52">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="37"/>
+      <c r="B89" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D89" s="52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E89" s="52">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="37"/>
+      <c r="B90" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="54">
-        <v>0.92</v>
-      </c>
-      <c r="D82" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="E82" s="54">
-        <v>0.95</v>
-      </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="55"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="59"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="55"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="55"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="41" t="s">
+      <c r="C90" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="D90" s="52">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E90" s="52">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="37"/>
+      <c r="B91" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="38"/>
-      <c r="B88" s="43" t="s">
+      <c r="C91" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D91" s="52">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E91" s="52">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="37"/>
+      <c r="B92" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="53">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D88" s="53">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E88" s="53">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="38"/>
-      <c r="B89" s="43" t="s">
+      <c r="C92" s="52">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D92" s="52">
+        <v>0.114</v>
+      </c>
+      <c r="E92" s="52">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="37"/>
+      <c r="B93" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="53">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D89" s="53">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E89" s="53">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="38"/>
-      <c r="B90" s="43" t="s">
+      <c r="C93" s="52">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D93" s="52">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E93" s="52">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="37"/>
+      <c r="B94" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="53">
-        <v>0.02</v>
-      </c>
-      <c r="D90" s="53">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E90" s="53">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="38"/>
-      <c r="B91" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="53">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D91" s="53">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E91" s="53">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="38"/>
-      <c r="B92" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" s="53">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D92" s="53">
-        <v>0.114</v>
-      </c>
-      <c r="E92" s="53">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="38"/>
-      <c r="B93" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="53">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D93" s="53">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E93" s="53">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="38"/>
-      <c r="B94" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" s="53">
+      <c r="C94" s="52">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="52">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
     </row>
     <row r="97" spans="6:8" ht="13.5" customHeight="1">
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
     </row>
     <row r="98" spans="6:8" ht="13.5" customHeight="1"/>
   </sheetData>
@@ -10581,10 +10552,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10673,25 +10644,25 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>4910000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>6852184.8953114701</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>8794369.7906229403</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>9345777.3429672103</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>9897184.8953114692</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>10448592.4476557</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>11000000</v>
       </c>
       <c r="Q3" s="23"/>
@@ -10798,7 +10769,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="29">
+      <c r="P9" s="28">
         <v>3535</v>
       </c>
       <c r="Q9" s="23"/>
@@ -10890,46 +10861,46 @@
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>3121.27</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>3721.45</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>3923.85</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>4279.33</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>4533.55</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>4685.01</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>4700.13</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>4808.6400000000003</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>4994.5</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="28">
         <v>5208.76</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>5323.27</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <v>5703.88</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="28">
         <v>5196.3500000000004</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="28">
         <v>5204.3599999999997</v>
       </c>
       <c r="Q15" s="23"/>
@@ -11021,59 +10992,59 @@
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="29">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>1.4E-3</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <v>1.8E-3</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>1.9E-3</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>2E-3</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="29">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="29">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="29">
         <v>2.3E-3</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="29">
         <v>2.3E-3</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="29">
         <v>2.3E-3</v>
       </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" s="32"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="31"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="20" t="s">
@@ -11180,31 +11151,31 @@
       <c r="B27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y27" s="33"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" s="32"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2" t="s">
@@ -11283,46 +11254,46 @@
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>714</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>857</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>1020</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>1199</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <v>1396</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>1607</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>1831</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <v>2060</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="28">
         <v>2233</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="28">
         <v>2089</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="28">
         <v>2197</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="28">
         <v>2583</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="28">
         <v>2858</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="28">
         <v>3101</v>
       </c>
       <c r="Q33" s="23"/>
@@ -11447,716 +11418,6 @@
         <v>35</v>
       </c>
       <c r="Y39" s="23"/>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D44" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E44" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F44" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G44" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H44" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I44" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J44" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K44" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L44" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M44" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N44" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O44" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P44" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R44" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S44" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T44" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U44" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V44" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W44" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="27"/>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D50" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E50" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F50" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G50" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H50" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I50" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J50" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K50" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L50" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M50" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N50" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O50" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P50" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q50" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R50" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S50" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T50" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U50" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V50" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W50" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="27"/>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-    </row>
-    <row r="53" spans="1:25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-    </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D56" s="26">
-        <v>2001</v>
-      </c>
-      <c r="E56" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F56" s="26">
-        <v>2003</v>
-      </c>
-      <c r="G56" s="26">
-        <v>2004</v>
-      </c>
-      <c r="H56" s="26">
-        <v>2005</v>
-      </c>
-      <c r="I56" s="26">
-        <v>2006</v>
-      </c>
-      <c r="J56" s="26">
-        <v>2007</v>
-      </c>
-      <c r="K56" s="26">
-        <v>2008</v>
-      </c>
-      <c r="L56" s="26">
-        <v>2009</v>
-      </c>
-      <c r="M56" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N56" s="26">
-        <v>2011</v>
-      </c>
-      <c r="O56" s="26">
-        <v>2012</v>
-      </c>
-      <c r="P56" s="26">
-        <v>2013</v>
-      </c>
-      <c r="Q56" s="26">
-        <v>2014</v>
-      </c>
-      <c r="R56" s="26">
-        <v>2015</v>
-      </c>
-      <c r="S56" s="26">
-        <v>2016</v>
-      </c>
-      <c r="T56" s="26">
-        <v>2017</v>
-      </c>
-      <c r="U56" s="26">
-        <v>2018</v>
-      </c>
-      <c r="V56" s="26">
-        <v>2019</v>
-      </c>
-      <c r="W56" s="26">
-        <v>2020</v>
-      </c>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y57" s="27"/>
-    </row>
-    <row r="61" spans="1:25" ht="15" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="15" customHeight="1">
-      <c r="C62" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D62" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F62" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G62" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H62" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I62" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J62" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K62" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L62" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M62" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N62" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O62" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P62" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R62" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S62" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T62" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U62" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V62" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W62" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y62" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="15" customHeight="1">
-      <c r="B63" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y63" s="34"/>
-    </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="65"/>
-      <c r="V67" s="65"/>
-      <c r="W67" s="65"/>
-      <c r="X67" s="65"/>
-      <c r="Y67" s="65"/>
-    </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66">
-        <v>2000</v>
-      </c>
-      <c r="D68" s="66">
-        <v>2001</v>
-      </c>
-      <c r="E68" s="66">
-        <v>2002</v>
-      </c>
-      <c r="F68" s="66">
-        <v>2003</v>
-      </c>
-      <c r="G68" s="66">
-        <v>2004</v>
-      </c>
-      <c r="H68" s="66">
-        <v>2005</v>
-      </c>
-      <c r="I68" s="66">
-        <v>2006</v>
-      </c>
-      <c r="J68" s="66">
-        <v>2007</v>
-      </c>
-      <c r="K68" s="66">
-        <v>2008</v>
-      </c>
-      <c r="L68" s="66">
-        <v>2009</v>
-      </c>
-      <c r="M68" s="66">
-        <v>2010</v>
-      </c>
-      <c r="N68" s="66">
-        <v>2011</v>
-      </c>
-      <c r="O68" s="66">
-        <v>2012</v>
-      </c>
-      <c r="P68" s="66">
-        <v>2013</v>
-      </c>
-      <c r="Q68" s="66">
-        <v>2014</v>
-      </c>
-      <c r="R68" s="66">
-        <v>2015</v>
-      </c>
-      <c r="S68" s="66">
-        <v>2016</v>
-      </c>
-      <c r="T68" s="66">
-        <v>2017</v>
-      </c>
-      <c r="U68" s="66">
-        <v>2018</v>
-      </c>
-      <c r="V68" s="66">
-        <v>2019</v>
-      </c>
-      <c r="W68" s="66">
-        <v>2020</v>
-      </c>
-      <c r="X68" s="65"/>
-      <c r="Y68" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
-      <c r="U69" s="67"/>
-      <c r="V69" s="67"/>
-      <c r="W69" s="67"/>
-      <c r="X69" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="67">
-        <v>0.85</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12181,7 +11442,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12259,31 +11520,31 @@
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="44">
         <v>0.2</v>
       </c>
     </row>
@@ -12293,31 +11554,31 @@
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
       <c r="X4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="44">
         <v>0.2</v>
       </c>
     </row>
@@ -12326,31 +11587,31 @@
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
       <c r="X5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12359,31 +11620,31 @@
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12392,31 +11653,31 @@
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
       <c r="X7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12425,31 +11686,31 @@
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
       <c r="X8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12459,31 +11720,31 @@
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
       <c r="X9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12493,31 +11754,31 @@
         <f>Populations!$C$10</f>
         <v>M 50+</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
       <c r="X10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -12527,37 +11788,37 @@
         <f>Populations!$C$11</f>
         <v>F 50+</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
       <c r="X11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="44">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -12633,31 +11894,31 @@
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
       <c r="X17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12666,31 +11927,31 @@
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
       <c r="X18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12699,31 +11960,31 @@
         <f>Populations!$C$5</f>
         <v>MSM</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
       <c r="X19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12732,31 +11993,31 @@
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
       <c r="X20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y20" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12765,31 +12026,31 @@
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
       <c r="X21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12798,31 +12059,31 @@
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
       <c r="X22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y22" s="34">
+      <c r="Y22" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12831,31 +12092,31 @@
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
       <c r="X23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y23" s="34">
+      <c r="Y23" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12864,31 +12125,31 @@
         <f>Populations!$C$10</f>
         <v>M 50+</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
       <c r="X24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y24" s="34">
+      <c r="Y24" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -12897,37 +12158,37 @@
         <f>Populations!$C$11</f>
         <v>F 50+</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
       <c r="X25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" s="34">
+      <c r="Y25" s="33">
         <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -13030,31 +12291,31 @@
       <c r="B31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="36">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="35">
         <v>1</v>
       </c>
     </row>
@@ -13081,7 +12342,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13451,7 +12712,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -13821,7 +13082,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -14191,7 +13452,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -14561,7 +13822,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -14646,10 +13907,10 @@
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
-      <c r="L59" s="37">
+      <c r="L59" s="36">
         <v>0.21299999999999999</v>
       </c>
-      <c r="M59" s="37"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
@@ -14943,7 +14204,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -15315,7 +14576,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -15553,7 +14814,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:25">

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="135">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -473,6 +473,21 @@
   <si>
     <t>Treatment failure rate</t>
   </si>
+  <si>
+    <t>PLHIV aware of their status (%)</t>
+  </si>
+  <si>
+    <t>Diagnosed PLHIV in care (%)</t>
+  </si>
+  <si>
+    <t>PLHIV in care on treatment (%)</t>
+  </si>
+  <si>
+    <t>Pregnant women on PMTCT (%)</t>
+  </si>
+  <si>
+    <t>People on ART with viral suppression (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +503,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -593,8 +608,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +658,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF18C1FF"/>
         <bgColor rgb="FF18C1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18C1FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -809,7 +838,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -949,6 +978,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="145">
@@ -10552,10 +10591,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11419,6 +11458,521 @@
       </c>
       <c r="Y39" s="23"/>
     </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="C44" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="64">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="64">
+        <v>2002</v>
+      </c>
+      <c r="F44" s="64">
+        <v>2003</v>
+      </c>
+      <c r="G44" s="64">
+        <v>2004</v>
+      </c>
+      <c r="H44" s="64">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="64">
+        <v>2006</v>
+      </c>
+      <c r="J44" s="64">
+        <v>2007</v>
+      </c>
+      <c r="K44" s="64">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="64">
+        <v>2009</v>
+      </c>
+      <c r="M44" s="64">
+        <v>2010</v>
+      </c>
+      <c r="N44" s="64">
+        <v>2011</v>
+      </c>
+      <c r="O44" s="64">
+        <v>2012</v>
+      </c>
+      <c r="P44" s="64">
+        <v>2013</v>
+      </c>
+      <c r="Q44" s="64">
+        <v>2014</v>
+      </c>
+      <c r="R44" s="64">
+        <v>2015</v>
+      </c>
+      <c r="S44" s="64">
+        <v>2016</v>
+      </c>
+      <c r="T44" s="64">
+        <v>2017</v>
+      </c>
+      <c r="U44" s="64">
+        <v>2018</v>
+      </c>
+      <c r="V44" s="64">
+        <v>2019</v>
+      </c>
+      <c r="W44" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Y44" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="B45" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45" s="65"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="C50" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="64">
+        <v>2001</v>
+      </c>
+      <c r="E50" s="64">
+        <v>2002</v>
+      </c>
+      <c r="F50" s="64">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="64">
+        <v>2004</v>
+      </c>
+      <c r="H50" s="64">
+        <v>2005</v>
+      </c>
+      <c r="I50" s="64">
+        <v>2006</v>
+      </c>
+      <c r="J50" s="64">
+        <v>2007</v>
+      </c>
+      <c r="K50" s="64">
+        <v>2008</v>
+      </c>
+      <c r="L50" s="64">
+        <v>2009</v>
+      </c>
+      <c r="M50" s="64">
+        <v>2010</v>
+      </c>
+      <c r="N50" s="64">
+        <v>2011</v>
+      </c>
+      <c r="O50" s="64">
+        <v>2012</v>
+      </c>
+      <c r="P50" s="64">
+        <v>2013</v>
+      </c>
+      <c r="Q50" s="64">
+        <v>2014</v>
+      </c>
+      <c r="R50" s="64">
+        <v>2015</v>
+      </c>
+      <c r="S50" s="64">
+        <v>2016</v>
+      </c>
+      <c r="T50" s="64">
+        <v>2017</v>
+      </c>
+      <c r="U50" s="64">
+        <v>2018</v>
+      </c>
+      <c r="V50" s="64">
+        <v>2019</v>
+      </c>
+      <c r="W50" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Y50" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="B51" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="65"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="C56" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="64">
+        <v>2001</v>
+      </c>
+      <c r="E56" s="64">
+        <v>2002</v>
+      </c>
+      <c r="F56" s="64">
+        <v>2003</v>
+      </c>
+      <c r="G56" s="64">
+        <v>2004</v>
+      </c>
+      <c r="H56" s="64">
+        <v>2005</v>
+      </c>
+      <c r="I56" s="64">
+        <v>2006</v>
+      </c>
+      <c r="J56" s="64">
+        <v>2007</v>
+      </c>
+      <c r="K56" s="64">
+        <v>2008</v>
+      </c>
+      <c r="L56" s="64">
+        <v>2009</v>
+      </c>
+      <c r="M56" s="64">
+        <v>2010</v>
+      </c>
+      <c r="N56" s="64">
+        <v>2011</v>
+      </c>
+      <c r="O56" s="64">
+        <v>2012</v>
+      </c>
+      <c r="P56" s="64">
+        <v>2013</v>
+      </c>
+      <c r="Q56" s="64">
+        <v>2014</v>
+      </c>
+      <c r="R56" s="64">
+        <v>2015</v>
+      </c>
+      <c r="S56" s="64">
+        <v>2016</v>
+      </c>
+      <c r="T56" s="64">
+        <v>2017</v>
+      </c>
+      <c r="U56" s="64">
+        <v>2018</v>
+      </c>
+      <c r="V56" s="64">
+        <v>2019</v>
+      </c>
+      <c r="W56" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Y56" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="B57" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y57" s="65"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="C62" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="64">
+        <v>2001</v>
+      </c>
+      <c r="E62" s="64">
+        <v>2002</v>
+      </c>
+      <c r="F62" s="64">
+        <v>2003</v>
+      </c>
+      <c r="G62" s="64">
+        <v>2004</v>
+      </c>
+      <c r="H62" s="64">
+        <v>2005</v>
+      </c>
+      <c r="I62" s="64">
+        <v>2006</v>
+      </c>
+      <c r="J62" s="64">
+        <v>2007</v>
+      </c>
+      <c r="K62" s="64">
+        <v>2008</v>
+      </c>
+      <c r="L62" s="64">
+        <v>2009</v>
+      </c>
+      <c r="M62" s="64">
+        <v>2010</v>
+      </c>
+      <c r="N62" s="64">
+        <v>2011</v>
+      </c>
+      <c r="O62" s="64">
+        <v>2012</v>
+      </c>
+      <c r="P62" s="64">
+        <v>2013</v>
+      </c>
+      <c r="Q62" s="64">
+        <v>2014</v>
+      </c>
+      <c r="R62" s="64">
+        <v>2015</v>
+      </c>
+      <c r="S62" s="64">
+        <v>2016</v>
+      </c>
+      <c r="T62" s="64">
+        <v>2017</v>
+      </c>
+      <c r="U62" s="64">
+        <v>2018</v>
+      </c>
+      <c r="V62" s="64">
+        <v>2019</v>
+      </c>
+      <c r="W62" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Y62" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="B63" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y63" s="65"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="C68" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D68" s="64">
+        <v>2001</v>
+      </c>
+      <c r="E68" s="64">
+        <v>2002</v>
+      </c>
+      <c r="F68" s="64">
+        <v>2003</v>
+      </c>
+      <c r="G68" s="64">
+        <v>2004</v>
+      </c>
+      <c r="H68" s="64">
+        <v>2005</v>
+      </c>
+      <c r="I68" s="64">
+        <v>2006</v>
+      </c>
+      <c r="J68" s="64">
+        <v>2007</v>
+      </c>
+      <c r="K68" s="64">
+        <v>2008</v>
+      </c>
+      <c r="L68" s="64">
+        <v>2009</v>
+      </c>
+      <c r="M68" s="64">
+        <v>2010</v>
+      </c>
+      <c r="N68" s="64">
+        <v>2011</v>
+      </c>
+      <c r="O68" s="64">
+        <v>2012</v>
+      </c>
+      <c r="P68" s="64">
+        <v>2013</v>
+      </c>
+      <c r="Q68" s="64">
+        <v>2014</v>
+      </c>
+      <c r="R68" s="64">
+        <v>2015</v>
+      </c>
+      <c r="S68" s="64">
+        <v>2016</v>
+      </c>
+      <c r="T68" s="64">
+        <v>2017</v>
+      </c>
+      <c r="U68" s="64">
+        <v>2018</v>
+      </c>
+      <c r="V68" s="64">
+        <v>2019</v>
+      </c>
+      <c r="W68" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Y68" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="B69" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="65"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="65"/>
+      <c r="V69" s="65"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="65"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Number of voluntary medical male circumcisions performed</t>
   </si>
   <si>
     <t>Average number of injections per person per year</t>
@@ -976,9 +973,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -988,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="145">
@@ -1228,7 +1225,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>434160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1276,7 +1273,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>434160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1324,7 +1321,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>434160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1372,7 +1369,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>407520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1423,7 +1420,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>407520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1474,7 +1471,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>407520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1942,15 +1939,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="62"/>
+      <c r="A2" s="66"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="62"/>
+      <c r="A3" s="66"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1994,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -2364,7 +2361,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2734,7 +2731,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2860,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3058,7 +3055,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3256,7 +3253,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3436,7 +3433,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3614,7 +3611,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3725,7 +3722,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3911,7 +3908,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -4122,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -4145,7 +4142,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="48"/>
       <c r="B3" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="51">
         <v>4.0000000000000002E-4</v>
@@ -4160,7 +4157,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="48"/>
       <c r="B4" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="51">
         <v>8.0000000000000004E-4</v>
@@ -4175,7 +4172,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="48"/>
       <c r="B5" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="51">
         <v>1.1000000000000001E-3</v>
@@ -4190,7 +4187,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="48"/>
       <c r="B6" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="51">
         <v>1.38E-2</v>
@@ -4205,7 +4202,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="48"/>
       <c r="B7" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="51">
         <v>8.0000000000000002E-3</v>
@@ -4220,7 +4217,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="48"/>
       <c r="B8" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="51">
         <v>0.36699999999999999</v>
@@ -4235,7 +4232,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="48"/>
       <c r="B9" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="51">
         <v>0.20499999999999999</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4286,7 +4283,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="52">
         <v>5.6</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="52">
         <v>1</v>
@@ -4314,7 +4311,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="52">
         <v>1</v>
@@ -4328,7 +4325,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="52">
         <v>1</v>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="52">
         <v>3.49</v>
@@ -4356,7 +4353,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="52">
         <v>7.17</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4407,7 +4404,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="52">
         <v>0.24</v>
@@ -4421,7 +4418,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="52">
         <v>0.95</v>
@@ -4436,7 +4433,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="52">
         <v>3</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="52">
         <v>3.74</v>
@@ -4464,7 +4461,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="52">
         <v>1.5</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4515,7 +4512,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="52">
         <v>2.2000000000000002</v>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="52">
         <v>1.42</v>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="52">
         <v>2.14</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="52">
         <v>0.66</v>
@@ -4572,7 +4569,7 @@
     <row r="40" spans="1:5" s="45" customFormat="1">
       <c r="A40" s="43"/>
       <c r="B40" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="52">
         <v>0.2</v>
@@ -4607,7 +4604,7 @@
     </row>
     <row r="44" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -4630,7 +4627,7 @@
     <row r="46" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="43"/>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="51">
         <v>2.5999999999999999E-2</v>
@@ -4645,7 +4642,7 @@
     <row r="47" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="43"/>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="51">
         <v>0.15</v>
@@ -4660,7 +4657,7 @@
     <row r="48" spans="1:5" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="43"/>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="51">
         <v>0.1</v>
@@ -4675,7 +4672,7 @@
     <row r="49" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="51">
         <v>5.2999999999999999E-2</v>
@@ -4690,7 +4687,7 @@
     <row r="50" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="43"/>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="51">
         <v>0.16200000000000001</v>
@@ -4705,7 +4702,7 @@
     <row r="51" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="43"/>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="51">
         <v>0.11700000000000001</v>
@@ -4720,7 +4717,7 @@
     <row r="52" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="43"/>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="51">
         <v>0.09</v>
@@ -4735,7 +4732,7 @@
     <row r="53" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="43"/>
       <c r="B53" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="51">
         <v>0.111</v>
@@ -4750,7 +4747,7 @@
     <row r="54" spans="1:6" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A54" s="43"/>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="51">
         <v>0.16</v>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1">
@@ -4801,7 +4798,7 @@
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1">
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="51">
         <v>3.5999999999999999E-3</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="51">
         <v>3.5999999999999999E-3</v>
@@ -4829,7 +4826,7 @@
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="51">
         <v>5.7999999999999996E-3</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="51">
         <v>8.8000000000000005E-3</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="51">
         <v>5.8999999999999997E-2</v>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="51">
         <v>0.32300000000000001</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="51">
         <v>0.23</v>
@@ -4902,7 +4899,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="51">
         <v>0.48780000000000001</v>
@@ -4917,7 +4914,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="B68" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="51">
         <v>2.17</v>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="B74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="53">
         <v>0.95</v>
@@ -5004,7 +5001,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="B75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="53">
         <v>0.57999999999999996</v>
@@ -5022,7 +5019,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="53">
         <v>0</v>
@@ -5037,7 +5034,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="53">
         <v>2.65</v>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="53">
         <v>0.54</v>
@@ -5073,7 +5070,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="53">
         <v>0.9</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="B80" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="53">
         <v>0.73</v>
@@ -5109,7 +5106,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="B81" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="53">
         <v>0.5</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="B82" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="53">
         <v>0.92</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -5207,7 +5204,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="37"/>
       <c r="B88" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" s="52">
         <v>0.14599999999999999</v>
@@ -5225,7 +5222,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="37"/>
       <c r="B89" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="52">
         <v>8.0000000000000002E-3</v>
@@ -5243,7 +5240,7 @@
     <row r="90" spans="1:9">
       <c r="A90" s="37"/>
       <c r="B90" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="52">
         <v>0.02</v>
@@ -5261,7 +5258,7 @@
     <row r="91" spans="1:9">
       <c r="A91" s="37"/>
       <c r="B91" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="52">
         <v>7.0000000000000007E-2</v>
@@ -5279,7 +5276,7 @@
     <row r="92" spans="1:9">
       <c r="A92" s="37"/>
       <c r="B92" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="52">
         <v>0.26500000000000001</v>
@@ -5297,7 +5294,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="37"/>
       <c r="B93" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="52">
         <v>0.54700000000000004</v>
@@ -5315,7 +5312,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="37"/>
       <c r="B94" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" s="52">
         <v>5.2999999999999999E-2</v>
@@ -10593,7 +10590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:XFD70"/>
     </sheetView>
   </sheetViews>
@@ -11459,519 +11456,519 @@
       <c r="Y39" s="23"/>
     </row>
     <row r="43" spans="1:25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="C44" s="63">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="63">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="63">
+        <v>2002</v>
+      </c>
+      <c r="F44" s="63">
+        <v>2003</v>
+      </c>
+      <c r="G44" s="63">
+        <v>2004</v>
+      </c>
+      <c r="H44" s="63">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="63">
+        <v>2006</v>
+      </c>
+      <c r="J44" s="63">
+        <v>2007</v>
+      </c>
+      <c r="K44" s="63">
+        <v>2008</v>
+      </c>
+      <c r="L44" s="63">
+        <v>2009</v>
+      </c>
+      <c r="M44" s="63">
+        <v>2010</v>
+      </c>
+      <c r="N44" s="63">
+        <v>2011</v>
+      </c>
+      <c r="O44" s="63">
+        <v>2012</v>
+      </c>
+      <c r="P44" s="63">
+        <v>2013</v>
+      </c>
+      <c r="Q44" s="63">
+        <v>2014</v>
+      </c>
+      <c r="R44" s="63">
+        <v>2015</v>
+      </c>
+      <c r="S44" s="63">
+        <v>2016</v>
+      </c>
+      <c r="T44" s="63">
+        <v>2017</v>
+      </c>
+      <c r="U44" s="63">
+        <v>2018</v>
+      </c>
+      <c r="V44" s="63">
+        <v>2019</v>
+      </c>
+      <c r="W44" s="63">
+        <v>2020</v>
+      </c>
+      <c r="Y44" s="63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="B45" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45" s="64"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
-      <c r="C44" s="64">
+    <row r="50" spans="1:25">
+      <c r="C50" s="63">
         <v>2000</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D50" s="63">
         <v>2001</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E50" s="63">
         <v>2002</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F50" s="63">
         <v>2003</v>
       </c>
-      <c r="G44" s="64">
+      <c r="G50" s="63">
         <v>2004</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H50" s="63">
         <v>2005</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I50" s="63">
         <v>2006</v>
       </c>
-      <c r="J44" s="64">
+      <c r="J50" s="63">
         <v>2007</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K50" s="63">
         <v>2008</v>
       </c>
-      <c r="L44" s="64">
+      <c r="L50" s="63">
         <v>2009</v>
       </c>
-      <c r="M44" s="64">
+      <c r="M50" s="63">
         <v>2010</v>
       </c>
-      <c r="N44" s="64">
+      <c r="N50" s="63">
         <v>2011</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O50" s="63">
         <v>2012</v>
       </c>
-      <c r="P44" s="64">
+      <c r="P50" s="63">
         <v>2013</v>
       </c>
-      <c r="Q44" s="64">
+      <c r="Q50" s="63">
         <v>2014</v>
       </c>
-      <c r="R44" s="64">
+      <c r="R50" s="63">
         <v>2015</v>
       </c>
-      <c r="S44" s="64">
+      <c r="S50" s="63">
         <v>2016</v>
       </c>
-      <c r="T44" s="64">
+      <c r="T50" s="63">
         <v>2017</v>
       </c>
-      <c r="U44" s="64">
+      <c r="U50" s="63">
         <v>2018</v>
       </c>
-      <c r="V44" s="64">
+      <c r="V50" s="63">
         <v>2019</v>
       </c>
-      <c r="W44" s="64">
+      <c r="W50" s="63">
         <v>2020</v>
       </c>
-      <c r="Y44" s="64" t="s">
+      <c r="Y50" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
-      <c r="B45" s="64" t="s">
+    <row r="51" spans="1:25">
+      <c r="B51" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="65"/>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="63" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="64"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
-      <c r="C50" s="64">
+    <row r="56" spans="1:25">
+      <c r="C56" s="63">
         <v>2000</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D56" s="63">
         <v>2001</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E56" s="63">
         <v>2002</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F56" s="63">
         <v>2003</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G56" s="63">
         <v>2004</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H56" s="63">
         <v>2005</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I56" s="63">
         <v>2006</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J56" s="63">
         <v>2007</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K56" s="63">
         <v>2008</v>
       </c>
-      <c r="L50" s="64">
+      <c r="L56" s="63">
         <v>2009</v>
       </c>
-      <c r="M50" s="64">
+      <c r="M56" s="63">
         <v>2010</v>
       </c>
-      <c r="N50" s="64">
+      <c r="N56" s="63">
         <v>2011</v>
       </c>
-      <c r="O50" s="64">
+      <c r="O56" s="63">
         <v>2012</v>
       </c>
-      <c r="P50" s="64">
+      <c r="P56" s="63">
         <v>2013</v>
       </c>
-      <c r="Q50" s="64">
+      <c r="Q56" s="63">
         <v>2014</v>
       </c>
-      <c r="R50" s="64">
+      <c r="R56" s="63">
         <v>2015</v>
       </c>
-      <c r="S50" s="64">
+      <c r="S56" s="63">
         <v>2016</v>
       </c>
-      <c r="T50" s="64">
+      <c r="T56" s="63">
         <v>2017</v>
       </c>
-      <c r="U50" s="64">
+      <c r="U56" s="63">
         <v>2018</v>
       </c>
-      <c r="V50" s="64">
+      <c r="V56" s="63">
         <v>2019</v>
       </c>
-      <c r="W50" s="64">
+      <c r="W56" s="63">
         <v>2020</v>
       </c>
-      <c r="Y50" s="64" t="s">
+      <c r="Y56" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
-      <c r="B51" s="64" t="s">
+    <row r="57" spans="1:25">
+      <c r="B57" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="65"/>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="63" t="s">
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y57" s="64"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="62" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
-      <c r="C56" s="64">
+    <row r="62" spans="1:25">
+      <c r="C62" s="63">
         <v>2000</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D62" s="63">
         <v>2001</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E62" s="63">
         <v>2002</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F62" s="63">
         <v>2003</v>
       </c>
-      <c r="G56" s="64">
+      <c r="G62" s="63">
         <v>2004</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H62" s="63">
         <v>2005</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I62" s="63">
         <v>2006</v>
       </c>
-      <c r="J56" s="64">
+      <c r="J62" s="63">
         <v>2007</v>
       </c>
-      <c r="K56" s="64">
+      <c r="K62" s="63">
         <v>2008</v>
       </c>
-      <c r="L56" s="64">
+      <c r="L62" s="63">
         <v>2009</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M62" s="63">
         <v>2010</v>
       </c>
-      <c r="N56" s="64">
+      <c r="N62" s="63">
         <v>2011</v>
       </c>
-      <c r="O56" s="64">
+      <c r="O62" s="63">
         <v>2012</v>
       </c>
-      <c r="P56" s="64">
+      <c r="P62" s="63">
         <v>2013</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="Q62" s="63">
         <v>2014</v>
       </c>
-      <c r="R56" s="64">
+      <c r="R62" s="63">
         <v>2015</v>
       </c>
-      <c r="S56" s="64">
+      <c r="S62" s="63">
         <v>2016</v>
       </c>
-      <c r="T56" s="64">
+      <c r="T62" s="63">
         <v>2017</v>
       </c>
-      <c r="U56" s="64">
+      <c r="U62" s="63">
         <v>2018</v>
       </c>
-      <c r="V56" s="64">
+      <c r="V62" s="63">
         <v>2019</v>
       </c>
-      <c r="W56" s="64">
+      <c r="W62" s="63">
         <v>2020</v>
       </c>
-      <c r="Y56" s="64" t="s">
+      <c r="Y62" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
-      <c r="B57" s="64" t="s">
+    <row r="63" spans="1:25">
+      <c r="B63" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y57" s="65"/>
-    </row>
-    <row r="61" spans="1:25">
-      <c r="A61" s="63" t="s">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="62" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
-      <c r="C62" s="64">
+    <row r="68" spans="1:25">
+      <c r="C68" s="63">
         <v>2000</v>
       </c>
-      <c r="D62" s="64">
+      <c r="D68" s="63">
         <v>2001</v>
       </c>
-      <c r="E62" s="64">
+      <c r="E68" s="63">
         <v>2002</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F68" s="63">
         <v>2003</v>
       </c>
-      <c r="G62" s="64">
+      <c r="G68" s="63">
         <v>2004</v>
       </c>
-      <c r="H62" s="64">
+      <c r="H68" s="63">
         <v>2005</v>
       </c>
-      <c r="I62" s="64">
+      <c r="I68" s="63">
         <v>2006</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J68" s="63">
         <v>2007</v>
       </c>
-      <c r="K62" s="64">
+      <c r="K68" s="63">
         <v>2008</v>
       </c>
-      <c r="L62" s="64">
+      <c r="L68" s="63">
         <v>2009</v>
       </c>
-      <c r="M62" s="64">
+      <c r="M68" s="63">
         <v>2010</v>
       </c>
-      <c r="N62" s="64">
+      <c r="N68" s="63">
         <v>2011</v>
       </c>
-      <c r="O62" s="64">
+      <c r="O68" s="63">
         <v>2012</v>
       </c>
-      <c r="P62" s="64">
+      <c r="P68" s="63">
         <v>2013</v>
       </c>
-      <c r="Q62" s="64">
+      <c r="Q68" s="63">
         <v>2014</v>
       </c>
-      <c r="R62" s="64">
+      <c r="R68" s="63">
         <v>2015</v>
       </c>
-      <c r="S62" s="64">
+      <c r="S68" s="63">
         <v>2016</v>
       </c>
-      <c r="T62" s="64">
+      <c r="T68" s="63">
         <v>2017</v>
       </c>
-      <c r="U62" s="64">
+      <c r="U68" s="63">
         <v>2018</v>
       </c>
-      <c r="V62" s="64">
+      <c r="V68" s="63">
         <v>2019</v>
       </c>
-      <c r="W62" s="64">
+      <c r="W68" s="63">
         <v>2020</v>
       </c>
-      <c r="Y62" s="64" t="s">
+      <c r="Y68" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
-      <c r="B63" s="64" t="s">
+    <row r="69" spans="1:25">
+      <c r="B69" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y63" s="65"/>
-    </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
-      <c r="C68" s="64">
-        <v>2000</v>
-      </c>
-      <c r="D68" s="64">
-        <v>2001</v>
-      </c>
-      <c r="E68" s="64">
-        <v>2002</v>
-      </c>
-      <c r="F68" s="64">
-        <v>2003</v>
-      </c>
-      <c r="G68" s="64">
-        <v>2004</v>
-      </c>
-      <c r="H68" s="64">
-        <v>2005</v>
-      </c>
-      <c r="I68" s="64">
-        <v>2006</v>
-      </c>
-      <c r="J68" s="64">
-        <v>2007</v>
-      </c>
-      <c r="K68" s="64">
-        <v>2008</v>
-      </c>
-      <c r="L68" s="64">
-        <v>2009</v>
-      </c>
-      <c r="M68" s="64">
-        <v>2010</v>
-      </c>
-      <c r="N68" s="64">
-        <v>2011</v>
-      </c>
-      <c r="O68" s="64">
-        <v>2012</v>
-      </c>
-      <c r="P68" s="64">
-        <v>2013</v>
-      </c>
-      <c r="Q68" s="64">
-        <v>2014</v>
-      </c>
-      <c r="R68" s="64">
-        <v>2015</v>
-      </c>
-      <c r="S68" s="64">
-        <v>2016</v>
-      </c>
-      <c r="T68" s="64">
-        <v>2017</v>
-      </c>
-      <c r="U68" s="64">
-        <v>2018</v>
-      </c>
-      <c r="V68" s="64">
-        <v>2019</v>
-      </c>
-      <c r="W68" s="64">
-        <v>2020</v>
-      </c>
-      <c r="Y68" s="64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
-      <c r="B69" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-      <c r="V69" s="65"/>
-      <c r="W69" s="65"/>
-      <c r="X69" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="65"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="T69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -11996,7 +11993,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12886,10 +12883,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15366,244 +15363,6 @@
       </c>
       <c r="Y91" s="18"/>
     </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
-      <c r="C96" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D96" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E96" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F96" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G96" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H96" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I96" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J96" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K96" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L96" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M96" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N96" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O96" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P96" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R96" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S96" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T96" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U96" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V96" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W96" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y96" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25">
-      <c r="B97" s="6" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y97" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:25">
-      <c r="B98" s="6" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y98" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25">
-      <c r="B99" s="6" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y99" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:25">
-      <c r="B100" s="6" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y100" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25">
-      <c r="B101" s="6" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
-      </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y101" s="18">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="133">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -479,6 +479,9 @@
   <si>
     <t>People on ART with viral suppression (%)</t>
   </si>
+  <si>
+    <t>Percentage of people with CD4&lt;200 lost to follow-up (%/year)</t>
+  </si>
 </sst>
 </file>
 
@@ -829,7 +832,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -975,6 +978,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="145">
@@ -5348,7 +5354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -11913,10 +11919,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12370,7 +12376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:35">
       <c r="B17" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -12400,10 +12406,10 @@
         <v>33</v>
       </c>
       <c r="Y17" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="B18" s="5" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -12433,10 +12439,10 @@
         <v>33</v>
       </c>
       <c r="Y18" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="B19" s="5" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -12466,10 +12472,10 @@
         <v>33</v>
       </c>
       <c r="Y19" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="B20" s="5" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -12499,10 +12505,10 @@
         <v>33</v>
       </c>
       <c r="Y20" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="B21" s="5" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -12532,10 +12538,10 @@
         <v>33</v>
       </c>
       <c r="Y21" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
       <c r="B22" s="5" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -12565,10 +12571,10 @@
         <v>33</v>
       </c>
       <c r="Y22" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="B23" s="5" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -12598,10 +12604,10 @@
         <v>33</v>
       </c>
       <c r="Y23" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
       <c r="B24" s="5" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -12631,10 +12637,10 @@
         <v>33</v>
       </c>
       <c r="Y24" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="B25" s="5" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -12664,139 +12670,352 @@
         <v>33</v>
       </c>
       <c r="Y25" s="31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="18" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="C30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U30" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W30" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" s="65">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24">
         <v>2000</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D36" s="24">
         <v>2001</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E36" s="24">
         <v>2002</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F36" s="24">
         <v>2003</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G36" s="24">
         <v>2004</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H36" s="24">
         <v>2005</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I36" s="24">
         <v>2006</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J36" s="24">
         <v>2007</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K36" s="24">
         <v>2008</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L36" s="24">
         <v>2009</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M36" s="24">
         <v>2010</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N36" s="24">
         <v>2011</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O36" s="24">
         <v>2012</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P36" s="24">
         <v>2013</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q36" s="24">
         <v>2014</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R36" s="24">
         <v>2015</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S36" s="24">
         <v>2016</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T36" s="24">
         <v>2017</v>
       </c>
-      <c r="U30" s="24">
+      <c r="U36" s="24">
         <v>2018</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V36" s="24">
         <v>2019</v>
       </c>
-      <c r="W30" s="24">
+      <c r="W36" s="24">
         <v>2020</v>
       </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="24" t="s">
+      <c r="X36" s="23"/>
+      <c r="Y36" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
+    <row r="37" spans="1:35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y31" s="33">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="33">
         <v>1</v>
       </c>
     </row>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="134">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -482,6 +482,9 @@
   <si>
     <t>Percentage of people with CD4&lt;200 lost to follow-up (%/year)</t>
   </si>
+  <si>
+    <t>Average time taken to be linked to care for people with CD4&lt;50 (years)</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +835,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -976,10 +979,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1935,15 +1942,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="64"/>
+      <c r="A2" s="65"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -11919,10 +11926,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12304,8 +12311,8 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="18" t="s">
-        <v>56</v>
+      <c r="A15" s="66" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -12377,207 +12384,222 @@
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="C22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2006</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2008</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2009</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2011</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2012</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2013</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2014</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T22" s="5">
+        <v>2017</v>
+      </c>
+      <c r="U22" s="5">
+        <v>2018</v>
+      </c>
+      <c r="V22" s="5">
+        <v>2019</v>
+      </c>
+      <c r="W22" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="B23" s="5" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="B18" s="5" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" s="31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="B19" s="5" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y19" s="31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="B20" s="5" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="B21" s="5" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" s="31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="B22" s="5" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y22" s="31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="B23" s="5" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -12604,13 +12626,13 @@
         <v>33</v>
       </c>
       <c r="Y23" s="31">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="B24" s="5" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -12642,8 +12664,8 @@
     </row>
     <row r="25" spans="1:35">
       <c r="B25" s="5" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -12673,349 +12695,547 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="26" spans="1:35">
+      <c r="B26" s="5" t="str">
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="B27" s="5" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y27" s="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="B28" s="5" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
     <row r="29" spans="1:35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="5" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y29" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="B30" s="5" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="B31" s="5" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
-      <c r="C30" s="5">
+    <row r="36" spans="1:35">
+      <c r="C36" s="5">
         <v>2000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D36" s="5">
         <v>2001</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E36" s="5">
         <v>2002</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F36" s="5">
         <v>2003</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G36" s="5">
         <v>2004</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H36" s="5">
         <v>2005</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I36" s="5">
         <v>2006</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J36" s="5">
         <v>2007</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K36" s="5">
         <v>2008</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L36" s="5">
         <v>2009</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M36" s="5">
         <v>2010</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N36" s="5">
         <v>2011</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O36" s="5">
         <v>2012</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P36" s="5">
         <v>2013</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q36" s="5">
         <v>2014</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R36" s="5">
         <v>2015</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S36" s="5">
         <v>2016</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T36" s="5">
         <v>2017</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U36" s="5">
         <v>2018</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V36" s="5">
         <v>2019</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W36" s="5">
         <v>2020</v>
       </c>
-      <c r="Y30" s="5" t="s">
+      <c r="Y36" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
-      <c r="B31" s="5" t="s">
+    <row r="37" spans="1:35">
+      <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y31" s="65">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="64">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="18" t="s">
+    <row r="38" spans="1:35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24">
         <v>2000</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D42" s="24">
         <v>2001</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E42" s="24">
         <v>2002</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F42" s="24">
         <v>2003</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G42" s="24">
         <v>2004</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H42" s="24">
         <v>2005</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I42" s="24">
         <v>2006</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J42" s="24">
         <v>2007</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K42" s="24">
         <v>2008</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L42" s="24">
         <v>2009</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M42" s="24">
         <v>2010</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N42" s="24">
         <v>2011</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O42" s="24">
         <v>2012</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P42" s="24">
         <v>2013</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q42" s="24">
         <v>2014</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R42" s="24">
         <v>2015</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S42" s="24">
         <v>2016</v>
       </c>
-      <c r="T36" s="24">
+      <c r="T42" s="24">
         <v>2017</v>
       </c>
-      <c r="U36" s="24">
+      <c r="U42" s="24">
         <v>2018</v>
       </c>
-      <c r="V36" s="24">
+      <c r="V42" s="24">
         <v>2019</v>
       </c>
-      <c r="W36" s="24">
+      <c r="W42" s="24">
         <v>2020</v>
       </c>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="24" t="s">
+      <c r="X42" s="23"/>
+      <c r="Y42" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+    <row r="43" spans="1:35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y37" s="33">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y43" s="33">
         <v>1</v>
       </c>
     </row>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -483,7 +483,7 @@
     <t>Percentage of people with CD4&lt;200 lost to follow-up (%/year)</t>
   </si>
   <si>
-    <t>Average time taken to be linked to care for people with CD4&lt;50 (years)</t>
+    <t>Average time taken to be linked to care for people with CD4&lt;200 (years)</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -830,6 +830,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -982,15 +986,15 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="149">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="14"/>
@@ -1012,6 +1016,8 @@
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="25"/>
     <cellStyle name="Followed Hyperlink 11" xfId="26"/>
     <cellStyle name="Followed Hyperlink 12" xfId="27"/>
@@ -1124,6 +1130,8 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="15"/>
@@ -1942,15 +1950,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="67"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="67"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -11928,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12311,7 +12319,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12411,7 +12419,7 @@
       <c r="X17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" s="67">
+      <c r="Y17" s="66">
         <v>0</v>
       </c>
     </row>

--- a/tests/generalized.xlsx
+++ b/tests/generalized.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12795" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24220" windowHeight="12800" tabRatio="988" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Partnerships &amp; transitions" sheetId="11" r:id="rId11"/>
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="137">
   <si>
     <t>For further details please visit: http://optimamodel.com/file/indicator-guide</t>
   </si>
@@ -491,12 +491,15 @@
   <si>
     <t>Date created: 2016-Nov-02 17:07:35</t>
   </si>
+  <si>
+    <t>Unit cost of treatment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
@@ -505,6 +508,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -845,7 +849,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -993,11 +997,15 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="149">
@@ -1949,60 +1957,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-    </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="67"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="67"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="66"/>
+    </row>
+    <row r="5" spans="1:1" ht="42">
+      <c r="A5" s="66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="66"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="66"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="66"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+    <row r="12" spans="1:1">
+      <c r="A12" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2026,14 +2034,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="4">
         <v>2000</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2134,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2167,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2200,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2233,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2266,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2299,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2332,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2365,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2398,12 +2406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="4">
         <v>2000</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2504,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2537,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2570,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -2603,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -2636,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -2669,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -2702,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -2735,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -2768,12 +2776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="4">
         <v>2000</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -2892,14 +2900,14 @@
       <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="C2" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2937,7 +2945,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -2952,7 +2960,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -2973,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -2990,7 +2998,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3005,7 +3013,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3020,7 +3028,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3041,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3056,7 +3064,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3077,7 +3085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3092,12 +3100,12 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3135,7 +3143,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3150,7 +3158,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3171,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3188,7 +3196,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3203,7 +3211,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3218,7 +3226,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3239,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3254,7 +3262,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3275,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3290,12 +3298,12 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3333,7 +3341,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3348,7 +3356,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3365,7 +3373,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3380,7 +3388,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3395,7 +3403,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3410,7 +3418,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3425,7 +3433,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3440,7 +3448,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="B38" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3455,7 +3463,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="B39" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3470,12 +3478,12 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="C44" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3513,7 +3521,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="B45" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3528,7 +3536,7 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3543,7 +3551,7 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3558,7 +3566,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3573,7 +3581,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="B49" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3588,7 +3596,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="B50" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3603,7 +3611,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3618,7 +3626,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="B52" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3633,7 +3641,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="B53" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3648,12 +3656,12 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="C58" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3691,7 +3699,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="B59" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3710,7 +3718,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="B60" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3725,7 +3733,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="B61" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3744,7 +3752,7 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="B62" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3759,12 +3767,12 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="C67" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3802,7 +3810,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="B68" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3817,7 +3825,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="B69" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -3832,7 +3840,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="B70" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -3847,7 +3855,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="B71" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -3864,7 +3872,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="B72" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -3881,7 +3889,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="B73" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -3898,7 +3906,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="B74" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -3915,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="B75" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -3930,7 +3938,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="B76" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -3945,12 +3953,12 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11">
       <c r="C81" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3988,7 +3996,7 @@
         <v>F 50+</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -4007,7 +4015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11">
       <c r="B83" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -4026,7 +4034,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11">
       <c r="B84" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -4041,7 +4049,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11">
       <c r="B85" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -4056,7 +4064,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11">
       <c r="B86" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -4071,7 +4079,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11">
       <c r="B87" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -4086,7 +4094,7 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11">
       <c r="B88" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -4101,7 +4109,7 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11">
       <c r="B89" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -4116,7 +4124,7 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11">
       <c r="B90" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -4150,13 +4158,13 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
@@ -4165,7 +4173,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="46" t="s">
@@ -4178,7 +4186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="45"/>
       <c r="B3" s="47" t="s">
         <v>74</v>
@@ -4193,7 +4201,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="45"/>
       <c r="B4" s="47" t="s">
         <v>75</v>
@@ -4208,7 +4216,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="45"/>
       <c r="B5" s="47" t="s">
         <v>76</v>
@@ -4223,7 +4231,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="45"/>
       <c r="B6" s="47" t="s">
         <v>77</v>
@@ -4238,7 +4246,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="45"/>
       <c r="B7" s="47" t="s">
         <v>78</v>
@@ -4253,7 +4261,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="45"/>
       <c r="B8" s="47" t="s">
         <v>79</v>
@@ -4268,7 +4276,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="45"/>
       <c r="B9" s="47" t="s">
         <v>80</v>
@@ -4283,33 +4291,33 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="51"/>
       <c r="B11" s="52"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="51"/>
       <c r="B12" s="52"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="2" t="s">
         <v>83</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -4376,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
@@ -4390,7 +4398,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
@@ -4404,33 +4412,33 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="51"/>
       <c r="B22" s="52"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
@@ -4470,7 +4478,7 @@
       </c>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
@@ -4512,33 +4520,33 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="51"/>
       <c r="B31" s="52"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="51"/>
       <c r="B32" s="52"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="51"/>
       <c r="B33" s="52"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
@@ -4549,7 +4557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
@@ -4563,7 +4571,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
@@ -4577,7 +4585,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="42" customFormat="1">
       <c r="A40" s="40"/>
       <c r="B40" s="2" t="s">
         <v>119</v>
@@ -4620,28 +4628,28 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="51"/>
       <c r="B41" s="52"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="51"/>
       <c r="B42" s="52"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="51"/>
       <c r="B43" s="52"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
       <c r="E43" s="51"/>
     </row>
-    <row r="44" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="35" t="s">
         <v>123</v>
       </c>
@@ -4650,7 +4658,7 @@
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="36" t="s">
@@ -4663,7 +4671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="40"/>
       <c r="B46" s="2" t="s">
         <v>84</v>
@@ -4678,7 +4686,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="40"/>
       <c r="B47" s="2" t="s">
         <v>92</v>
@@ -4693,7 +4701,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="40"/>
       <c r="B48" s="2" t="s">
         <v>89</v>
@@ -4708,7 +4716,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A49" s="40"/>
       <c r="B49" s="2" t="s">
         <v>93</v>
@@ -4723,7 +4731,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="40"/>
       <c r="B50" s="2" t="s">
         <v>90</v>
@@ -4738,7 +4746,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="40"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -4753,7 +4761,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="40"/>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -4768,7 +4776,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="40"/>
       <c r="B53" s="2" t="s">
         <v>95</v>
@@ -4783,7 +4791,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A54" s="40"/>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -4798,33 +4806,33 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
     </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="13.5" customHeight="1">
       <c r="C59" s="4" t="s">
         <v>32</v>
       </c>
@@ -4835,7 +4843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="13.5" customHeight="1">
       <c r="B60" s="2" t="s">
         <v>82</v>
       </c>
@@ -4849,7 +4857,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="13.5" customHeight="1">
       <c r="B61" s="2" t="s">
         <v>83</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="13.5" customHeight="1">
       <c r="B62" s="2" t="s">
         <v>97</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="B64" s="2" t="s">
         <v>86</v>
       </c>
@@ -4906,7 +4914,7 @@
       </c>
       <c r="F64" s="51"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
@@ -4921,7 +4929,7 @@
       </c>
       <c r="F65" s="51"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
@@ -4936,7 +4944,7 @@
       </c>
       <c r="F66" s="51"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="B67" s="2" t="s">
         <v>121</v>
       </c>
@@ -4951,7 +4959,7 @@
       </c>
       <c r="F67" s="51"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="B68" s="2" t="s">
         <v>98</v>
       </c>
@@ -4966,7 +4974,7 @@
       </c>
       <c r="F68" s="51"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="51"/>
       <c r="B69" s="52"/>
       <c r="C69" s="51"/>
@@ -4974,7 +4982,7 @@
       <c r="E69" s="51"/>
       <c r="F69" s="51"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="51"/>
       <c r="B70" s="52"/>
       <c r="C70" s="51"/>
@@ -4985,7 +4993,7 @@
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="51"/>
       <c r="B71" s="52"/>
       <c r="C71" s="51"/>
@@ -4996,7 +5004,7 @@
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -5005,7 +5013,7 @@
       <c r="H72" s="51"/>
       <c r="I72" s="51"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="C73" s="4" t="s">
         <v>32</v>
       </c>
@@ -5020,7 +5028,7 @@
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="B74" s="2" t="s">
         <v>100</v>
       </c>
@@ -5038,7 +5046,7 @@
       <c r="H74" s="54"/>
       <c r="I74" s="54"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="B75" s="2" t="s">
         <v>101</v>
       </c>
@@ -5056,7 +5064,7 @@
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="B76" s="2" t="s">
         <v>102</v>
       </c>
@@ -5071,7 +5079,7 @@
       </c>
       <c r="F76" s="51"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
@@ -5089,7 +5097,7 @@
       <c r="H77" s="54"/>
       <c r="I77" s="54"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
@@ -5107,7 +5115,7 @@
       <c r="H78" s="54"/>
       <c r="I78" s="54"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
@@ -5125,7 +5133,7 @@
       <c r="H79" s="54"/>
       <c r="I79" s="54"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
@@ -5143,7 +5151,7 @@
       <c r="H80" s="54"/>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
@@ -5161,7 +5169,7 @@
       <c r="H81" s="54"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
@@ -5179,7 +5187,7 @@
       <c r="H82" s="51"/>
       <c r="I82" s="51"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="51"/>
       <c r="B83" s="52"/>
       <c r="C83" s="51"/>
@@ -5190,7 +5198,7 @@
       <c r="H83" s="51"/>
       <c r="I83" s="51"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="55"/>
       <c r="B84" s="56"/>
       <c r="C84" s="57"/>
@@ -5201,7 +5209,7 @@
       <c r="H84" s="57"/>
       <c r="I84" s="51"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="57"/>
       <c r="B85" s="56"/>
       <c r="C85" s="58"/>
@@ -5212,7 +5220,7 @@
       <c r="H85" s="57"/>
       <c r="I85" s="51"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="37" t="s">
         <v>109</v>
       </c>
@@ -5224,7 +5232,7 @@
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="38" t="s">
@@ -5240,7 +5248,7 @@
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
         <v>110</v>
@@ -5258,7 +5266,7 @@
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="34"/>
       <c r="B89" s="39" t="s">
         <v>111</v>
@@ -5276,7 +5284,7 @@
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
         <v>112</v>
@@ -5294,7 +5302,7 @@
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
         <v>113</v>
@@ -5312,7 +5320,7 @@
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
         <v>114</v>
@@ -5330,7 +5338,7 @@
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
         <v>115</v>
@@ -5348,7 +5356,7 @@
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
         <v>116</v>
@@ -5366,22 +5374,22 @@
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
     </row>
-    <row r="97" spans="6:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" ht="13.5" customHeight="1">
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
     </row>
-    <row r="98" spans="6:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="6:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5401,14 +5409,14 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -5451,7 +5459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -5497,7 +5505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="4">
         <v>6</v>
       </c>
@@ -5520,7 +5528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="4">
         <v>7</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -5654,15 +5662,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="4">
         <v>2000</v>
       </c>
@@ -5730,7 +5738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5764,7 +5772,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5820,7 +5828,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -5854,7 +5862,7 @@
       </c>
       <c r="Z5" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5888,7 +5896,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5944,7 +5952,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -5978,7 +5986,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6012,7 +6020,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6068,7 +6076,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -6102,7 +6110,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6115,7 +6123,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6149,7 +6157,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6205,7 +6213,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -6239,7 +6247,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6273,7 +6281,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6329,7 +6337,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -6363,7 +6371,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6397,7 +6405,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6453,7 +6461,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -6487,7 +6495,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6521,7 +6529,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6577,7 +6585,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -6611,7 +6619,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26">
       <c r="B31" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6645,7 +6653,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6711,7 +6719,7 @@
       </c>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -6745,7 +6753,7 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6779,7 +6787,7 @@
       </c>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6845,7 +6853,7 @@
       </c>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -6898,14 +6906,14 @@
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="D2" s="4">
         <v>2000</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7013,7 +7021,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7053,7 +7061,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -7093,7 +7101,7 @@
       </c>
       <c r="Z5" s="12"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7127,7 +7135,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7163,7 +7171,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -7197,7 +7205,7 @@
       </c>
       <c r="Z9" s="12"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7233,7 +7241,7 @@
       </c>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7275,7 +7283,7 @@
       </c>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -7311,7 +7319,7 @@
       </c>
       <c r="Z13" s="12"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7345,7 +7353,7 @@
       </c>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7381,7 +7389,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -7415,7 +7423,7 @@
       </c>
       <c r="Z17" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7449,7 +7457,7 @@
       </c>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7485,7 +7493,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -7519,7 +7527,7 @@
       </c>
       <c r="Z21" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7553,7 +7561,7 @@
       </c>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7601,7 +7609,7 @@
       </c>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -7635,7 +7643,7 @@
       </c>
       <c r="Z25" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7669,7 +7677,7 @@
       </c>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7717,7 +7725,7 @@
       </c>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -7751,7 +7759,7 @@
       </c>
       <c r="Z29" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26">
       <c r="B31" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7785,7 +7793,7 @@
       </c>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7824,7 +7832,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -7858,7 +7866,7 @@
       </c>
       <c r="Z33" s="12"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7892,7 +7900,7 @@
       </c>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7931,7 +7939,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -7984,14 +7992,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="4">
         <v>2000</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8092,7 +8100,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8125,7 +8133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8158,7 +8166,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8191,7 +8199,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8224,7 +8232,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8257,7 +8265,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8290,7 +8298,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8323,7 +8331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8356,12 +8364,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="4">
         <v>2000</v>
       </c>
@@ -8429,7 +8437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8462,7 +8470,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="B18" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8495,7 +8503,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="B19" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8528,7 +8536,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="B20" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8561,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="B21" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8594,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="B22" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8627,7 +8635,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -8660,7 +8668,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -8693,7 +8701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -8726,12 +8734,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="C30" s="4">
         <v>2000</v>
       </c>
@@ -8799,7 +8807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="B31" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -8832,7 +8840,7 @@
       </c>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="B32" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -8865,7 +8873,7 @@
       </c>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25">
       <c r="B33" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -8898,7 +8906,7 @@
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -8931,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -8964,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -8997,7 +9005,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9030,7 +9038,7 @@
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25">
       <c r="B38" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9063,7 +9071,7 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25">
       <c r="B39" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9109,20 +9117,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="4">
         <v>2000</v>
       </c>
@@ -9190,7 +9198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -9225,7 +9233,7 @@
       </c>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="4" t="str">
         <f>Populations!$C$4</f>
         <v>Clients</v>
@@ -9262,7 +9270,7 @@
       </c>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="4" t="str">
         <f>Populations!$C$5</f>
         <v>MSM</v>
@@ -9295,7 +9303,7 @@
       </c>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="4" t="str">
         <f>Populations!$C$6</f>
         <v>M 0-14</v>
@@ -9328,7 +9336,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
@@ -9361,7 +9369,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="4" t="str">
         <f>Populations!$C$8</f>
         <v>M 15-49</v>
@@ -9398,7 +9406,7 @@
       </c>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
@@ -9435,7 +9443,7 @@
       </c>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="4" t="str">
         <f>Populations!$C$10</f>
         <v>M 50+</v>
@@ -9468,7 +9476,7 @@
       </c>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
@@ -9501,12 +9509,12 @@
       </c>
       <c r="Y11" s="15"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" s="4">
         <v>2000</v>
       </c>
@@ -9574,7 +9582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -9606,12 +9614,12 @@
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="C22" s="4">
         <v>2000</v>
       </c>
@@ -9679,7 +9687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
@@ -9727,248 +9735,192 @@
       </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:25">
+      <c r="A27" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2001</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2003</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2005</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2006</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2007</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2008</v>
+      </c>
+      <c r="L28" s="4">
+        <v>2009</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2010</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2011</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2012</v>
+      </c>
+      <c r="P28" s="4">
+        <v>2013</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2014</v>
+      </c>
+      <c r="R28" s="4">
+        <v>2015</v>
+      </c>
+      <c r="S28" s="4">
+        <v>2016</v>
+      </c>
+      <c r="T28" s="4">
+        <v>2017</v>
+      </c>
+      <c r="U28" s="4">
+        <v>2018</v>
+      </c>
+      <c r="V28" s="4">
+        <v>2019</v>
+      </c>
+      <c r="W28" s="4">
+        <v>2020</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69">
+        <v>500</v>
+      </c>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69">
+        <v>350</v>
+      </c>
+      <c r="Q29" s="69">
+        <v>300</v>
+      </c>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="5"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="4">
+    <row r="34" spans="1:25">
+      <c r="C34" s="4">
         <v>2000</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D34" s="4">
         <v>2001</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E34" s="4">
         <v>2002</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F34" s="4">
         <v>2003</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G34" s="4">
         <v>2004</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H34" s="4">
         <v>2005</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I34" s="4">
         <v>2006</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J34" s="4">
         <v>2007</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K34" s="4">
         <v>2008</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L34" s="4">
         <v>2009</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M34" s="4">
         <v>2010</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N34" s="4">
         <v>2011</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O34" s="4">
         <v>2012</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P34" s="4">
         <v>2013</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q34" s="4">
         <v>2014</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R34" s="4">
         <v>2015</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S34" s="4">
         <v>2016</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T34" s="4">
         <v>2017</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U34" s="4">
         <v>2018</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V34" s="4">
         <v>2019</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W34" s="4">
         <v>2020</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="str">
+    <row r="35" spans="1:25">
+      <c r="B35" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="str">
-        <f>Populations!$C$6</f>
-        <v>M 0-14</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="str">
-        <f>Populations!$C$7</f>
-        <v>F 0-14</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y34" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="str">
-        <f>Populations!$C$8</f>
-        <v>M 15-49</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -9998,10 +9950,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="4" t="str">
-        <f>Populations!$C$9</f>
-        <v>F 15-49</v>
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -10031,10 +9983,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="4" t="str">
-        <f>Populations!$C$10</f>
-        <v>M 50+</v>
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -10064,10 +10016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="4" t="str">
-        <f>Populations!$C$11</f>
-        <v>F 50+</v>
+        <f>Populations!$C$6</f>
+        <v>M 0-14</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -10097,462 +10049,627 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="39" spans="1:25">
+      <c r="B39" s="4" t="str">
+        <f>Populations!$C$7</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="B40" s="4" t="str">
+        <f>Populations!$C$8</f>
+        <v>M 15-49</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="B41" s="4" t="str">
+        <f>Populations!$C$9</f>
+        <v>F 15-49</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="4" t="str">
+        <f>Populations!$C$10</f>
+        <v>M 50+</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="B43" s="4" t="str">
+        <f>Populations!$C$11</f>
+        <v>F 50+</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C43" s="4">
+    <row r="48" spans="1:25">
+      <c r="C48" s="4">
         <v>2000</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D48" s="4">
         <v>2001</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E48" s="4">
         <v>2002</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F48" s="4">
         <v>2003</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G48" s="4">
         <v>2004</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H48" s="4">
         <v>2005</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I48" s="4">
         <v>2006</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J48" s="4">
         <v>2007</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K48" s="4">
         <v>2008</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L48" s="4">
         <v>2009</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M48" s="4">
         <v>2010</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N48" s="4">
         <v>2011</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O48" s="4">
         <v>2012</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P48" s="4">
         <v>2013</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q48" s="4">
         <v>2014</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R48" s="4">
         <v>2015</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S48" s="4">
         <v>2016</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T48" s="4">
         <v>2017</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U48" s="4">
         <v>2018</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V48" s="4">
         <v>2019</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W48" s="4">
         <v>2020</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Y48" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="49" spans="1:25">
+      <c r="B49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="5">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="5">
         <v>500</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5">
+      <c r="O49" s="5"/>
+      <c r="P49" s="5">
         <v>612</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y44" s="5"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="5"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C49" s="4">
+    <row r="54" spans="1:25">
+      <c r="C54" s="4">
         <v>2000</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D54" s="4">
         <v>2001</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E54" s="4">
         <v>2002</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F54" s="4">
         <v>2003</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G54" s="4">
         <v>2004</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H54" s="4">
         <v>2005</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I54" s="4">
         <v>2006</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J54" s="4">
         <v>2007</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K54" s="4">
         <v>2008</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L54" s="4">
         <v>2009</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M54" s="4">
         <v>2010</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N54" s="4">
         <v>2011</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O54" s="4">
         <v>2012</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P54" s="4">
         <v>2013</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q54" s="4">
         <v>2014</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R54" s="4">
         <v>2015</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S54" s="4">
         <v>2016</v>
       </c>
-      <c r="T49" s="4">
+      <c r="T54" s="4">
         <v>2017</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U54" s="4">
         <v>2018</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V54" s="4">
         <v>2019</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W54" s="4">
         <v>2020</v>
       </c>
-      <c r="Y49" s="4" t="s">
+      <c r="Y54" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="str">
+    <row r="55" spans="1:25">
+      <c r="B55" s="4" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C55" s="19">
         <v>9.0399361562071207E-2</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D55" s="19">
         <v>9.0352495793761797E-2</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E55" s="19">
         <v>9.03509105055256E-2</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F55" s="19">
         <v>9.0349112944317397E-2</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G55" s="19">
         <v>9.0292047960886607E-2</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H55" s="19">
         <v>8.3642402217548498E-2</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I55" s="19">
         <v>8.3588880435537694E-2</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J55" s="19">
         <v>8.3422244145891195E-2</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K55" s="19">
         <v>8.3179781995007904E-2</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L55" s="19">
         <v>8.2909632807747005E-2</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M55" s="19">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y50" s="20"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="str">
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="20"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="B56" s="4" t="str">
         <f>Populations!$C$7</f>
         <v>F 0-14</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y51" s="20">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y56" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="str">
+    <row r="57" spans="1:25">
+      <c r="B57" s="4" t="str">
         <f>Populations!$C$9</f>
         <v>F 15-49</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C57" s="19">
         <v>9.0399361562071207E-2</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D57" s="19">
         <v>9.0352495793761797E-2</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E57" s="19">
         <v>9.03509105055256E-2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F57" s="19">
         <v>9.0349112944317397E-2</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G57" s="19">
         <v>9.0292047960886607E-2</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H57" s="19">
         <v>8.3642402217548498E-2</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I57" s="19">
         <v>8.3588880435537694E-2</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J57" s="19">
         <v>8.3422244145891195E-2</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K57" s="19">
         <v>8.3179781995007904E-2</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L57" s="19">
         <v>8.2909632807747005E-2</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M57" s="19">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y52" s="20"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="str">
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y57" s="20"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="B58" s="4" t="str">
         <f>Populations!$C$11</f>
         <v>F 50+</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y53" s="20">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y58" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="62" spans="1:25">
+      <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C58" s="4">
+    <row r="63" spans="1:25">
+      <c r="C63" s="4">
         <v>2000</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D63" s="4">
         <v>2001</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E63" s="4">
         <v>2002</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F63" s="4">
         <v>2003</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G63" s="4">
         <v>2004</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H63" s="4">
         <v>2005</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I63" s="4">
         <v>2006</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J63" s="4">
         <v>2007</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K63" s="4">
         <v>2008</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L63" s="4">
         <v>2009</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M63" s="4">
         <v>2010</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N63" s="4">
         <v>2011</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O63" s="4">
         <v>2012</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P63" s="4">
         <v>2013</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q63" s="4">
         <v>2014</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R63" s="4">
         <v>2015</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S63" s="4">
         <v>2016</v>
       </c>
-      <c r="T58" s="4">
+      <c r="T63" s="4">
         <v>2017</v>
       </c>
-      <c r="U58" s="4">
+      <c r="U63" s="4">
         <v>2018</v>
       </c>
-      <c r="V58" s="4">
+      <c r="V63" s="4">
         <v>2019</v>
       </c>
-      <c r="W58" s="4">
+      <c r="W63" s="4">
         <v>2020</v>
       </c>
-      <c r="Y58" s="4" t="s">
+      <c r="Y63" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+    <row r="64" spans="1:25">
+      <c r="B64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="21">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="21">
         <v>0.876</v>
       </c>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y59" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y64" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10573,14 +10690,14 @@
       <selection activeCell="A40" sqref="A40:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="4">
         <v>2000</v>
       </c>
@@ -10648,7 +10765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
@@ -10692,12 +10809,12 @@
       </c>
       <c r="Y3" s="20"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="C8" s="4">
   